--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>710800</v>
+        <v>667400</v>
       </c>
       <c r="E8" s="3">
-        <v>653700</v>
+        <v>734100</v>
       </c>
       <c r="F8" s="3">
-        <v>588700</v>
+        <v>639200</v>
       </c>
       <c r="G8" s="3">
-        <v>613300</v>
+        <v>587800</v>
       </c>
       <c r="H8" s="3">
-        <v>514300</v>
+        <v>529400</v>
       </c>
       <c r="I8" s="3">
+        <v>551600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>462500</v>
+      </c>
+      <c r="K8" s="3">
         <v>468500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>419600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>429000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>360900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>340400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>313500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>335800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>220400</v>
+        <v>230500</v>
       </c>
       <c r="E9" s="3">
-        <v>198600</v>
+        <v>250800</v>
       </c>
       <c r="F9" s="3">
-        <v>182900</v>
+        <v>198200</v>
       </c>
       <c r="G9" s="3">
-        <v>187200</v>
+        <v>178600</v>
       </c>
       <c r="H9" s="3">
-        <v>143100</v>
+        <v>164500</v>
       </c>
       <c r="I9" s="3">
+        <v>168400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K9" s="3">
         <v>130400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>106000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>104700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>93100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>88500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>81200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>85600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>490300</v>
+        <v>436900</v>
       </c>
       <c r="E10" s="3">
-        <v>455100</v>
+        <v>483200</v>
       </c>
       <c r="F10" s="3">
-        <v>405800</v>
+        <v>441000</v>
       </c>
       <c r="G10" s="3">
-        <v>426100</v>
+        <v>409200</v>
       </c>
       <c r="H10" s="3">
-        <v>371200</v>
+        <v>364900</v>
       </c>
       <c r="I10" s="3">
+        <v>383200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>333800</v>
+      </c>
+      <c r="K10" s="3">
         <v>338100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>313600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>324400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>267900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>251900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>232300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>250200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>117000</v>
+        <v>112600</v>
       </c>
       <c r="E12" s="3">
-        <v>110500</v>
+        <v>115000</v>
       </c>
       <c r="F12" s="3">
-        <v>105900</v>
+        <v>105200</v>
       </c>
       <c r="G12" s="3">
-        <v>92400</v>
+        <v>99300</v>
       </c>
       <c r="H12" s="3">
-        <v>87400</v>
+        <v>95200</v>
       </c>
       <c r="I12" s="3">
+        <v>83200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K12" s="3">
         <v>85000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>91600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>80100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>70400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>68900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>68600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>65300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>10800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-446000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-446000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>59800</v>
+        <v>56900</v>
       </c>
       <c r="E15" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="F15" s="3">
-        <v>51400</v>
+        <v>53800</v>
       </c>
       <c r="G15" s="3">
-        <v>50600</v>
+        <v>53300</v>
       </c>
       <c r="H15" s="3">
-        <v>49200</v>
+        <v>46200</v>
       </c>
       <c r="I15" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K15" s="3">
         <v>46200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>45600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>46600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>45100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>43500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>37400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>36600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>593300</v>
+        <v>592400</v>
       </c>
       <c r="E17" s="3">
-        <v>543300</v>
+        <v>664600</v>
       </c>
       <c r="F17" s="3">
-        <v>503700</v>
+        <v>533600</v>
       </c>
       <c r="G17" s="3">
-        <v>49400</v>
+        <v>488600</v>
       </c>
       <c r="H17" s="3">
-        <v>420200</v>
+        <v>453000</v>
       </c>
       <c r="I17" s="3">
+        <v>445600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>377900</v>
+      </c>
+      <c r="K17" s="3">
         <v>-44700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>369700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>354900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>332500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>294200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>262300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>285100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>117400</v>
+        <v>75100</v>
       </c>
       <c r="E18" s="3">
-        <v>110300</v>
+        <v>69500</v>
       </c>
       <c r="F18" s="3">
-        <v>85000</v>
+        <v>105600</v>
       </c>
       <c r="G18" s="3">
-        <v>563900</v>
+        <v>99200</v>
       </c>
       <c r="H18" s="3">
-        <v>94100</v>
+        <v>76500</v>
       </c>
       <c r="I18" s="3">
+        <v>106000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K18" s="3">
         <v>513300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>49900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>74200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>28400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>46200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>51200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>50700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>37600</v>
+      </c>
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-427000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>16800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>37600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>12400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>32000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-23500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-12300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>182200</v>
+        <v>199200</v>
       </c>
       <c r="E21" s="3">
-        <v>161300</v>
+        <v>121000</v>
       </c>
       <c r="F21" s="3">
-        <v>135700</v>
+        <v>163800</v>
       </c>
       <c r="G21" s="3">
-        <v>187500</v>
+        <v>145100</v>
       </c>
       <c r="H21" s="3">
-        <v>160100</v>
+        <v>122100</v>
       </c>
       <c r="I21" s="3">
+        <v>159500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K21" s="3">
         <v>597100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>100400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>133100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>75200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>121600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>65200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>74900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3500</v>
-      </c>
       <c r="H22" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K22" s="3">
         <v>3800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3500</v>
       </c>
       <c r="L22" s="3">
         <v>3500</v>
       </c>
       <c r="M22" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>121900</v>
+        <v>130700</v>
       </c>
       <c r="E23" s="3">
-        <v>101800</v>
+        <v>47600</v>
       </c>
       <c r="F23" s="3">
-        <v>84300</v>
+        <v>109600</v>
       </c>
       <c r="G23" s="3">
-        <v>133400</v>
+        <v>91600</v>
       </c>
       <c r="H23" s="3">
-        <v>106700</v>
+        <v>75800</v>
       </c>
       <c r="I23" s="3">
+        <v>110900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K23" s="3">
         <v>547000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>51300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>83100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>26600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>74800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>24300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>38400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52800</v>
+        <v>52700</v>
       </c>
       <c r="E24" s="3">
-        <v>47900</v>
+        <v>43600</v>
       </c>
       <c r="F24" s="3">
-        <v>35000</v>
+        <v>47400</v>
       </c>
       <c r="G24" s="3">
-        <v>40100</v>
+        <v>43100</v>
       </c>
       <c r="H24" s="3">
-        <v>36700</v>
+        <v>31400</v>
       </c>
       <c r="I24" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K24" s="3">
         <v>32700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>29200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>19900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69100</v>
+        <v>78000</v>
       </c>
       <c r="E26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>62200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>48500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>76700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>514400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>29200</v>
+      </c>
+      <c r="M26" s="3">
         <v>53900</v>
       </c>
-      <c r="F26" s="3">
-        <v>49300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>93300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>70000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>514400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>29200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>53900</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>13100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>53700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>18400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73400</v>
+        <v>83200</v>
       </c>
       <c r="E27" s="3">
-        <v>58500</v>
+        <v>13500</v>
       </c>
       <c r="F27" s="3">
-        <v>55600</v>
+        <v>66000</v>
       </c>
       <c r="G27" s="3">
-        <v>95700</v>
+        <v>52600</v>
       </c>
       <c r="H27" s="3">
-        <v>75300</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="3">
+        <v>78800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K27" s="3">
         <v>525600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>37600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>54300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>13900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>54100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>18600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>427000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-12400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-32000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>23500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>12300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73400</v>
+        <v>83200</v>
       </c>
       <c r="E33" s="3">
-        <v>58500</v>
+        <v>13500</v>
       </c>
       <c r="F33" s="3">
-        <v>55600</v>
+        <v>66000</v>
       </c>
       <c r="G33" s="3">
-        <v>95700</v>
+        <v>52600</v>
       </c>
       <c r="H33" s="3">
-        <v>75300</v>
+        <v>50000</v>
       </c>
       <c r="I33" s="3">
+        <v>78800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K33" s="3">
         <v>525600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>37600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>54300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>13900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>54100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>18600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73400</v>
+        <v>83200</v>
       </c>
       <c r="E35" s="3">
-        <v>58500</v>
+        <v>13500</v>
       </c>
       <c r="F35" s="3">
-        <v>55600</v>
+        <v>66000</v>
       </c>
       <c r="G35" s="3">
-        <v>95700</v>
+        <v>52600</v>
       </c>
       <c r="H35" s="3">
-        <v>75300</v>
+        <v>50000</v>
       </c>
       <c r="I35" s="3">
+        <v>78800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K35" s="3">
         <v>525600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>37600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>54300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>13900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>54100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>18600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>687300</v>
+        <v>1777000</v>
       </c>
       <c r="E41" s="3">
-        <v>533800</v>
+        <v>801100</v>
       </c>
       <c r="F41" s="3">
-        <v>849900</v>
+        <v>618100</v>
       </c>
       <c r="G41" s="3">
-        <v>1086300</v>
+        <v>480100</v>
       </c>
       <c r="H41" s="3">
-        <v>779800</v>
+        <v>764300</v>
       </c>
       <c r="I41" s="3">
+        <v>976900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>701300</v>
+      </c>
+      <c r="K41" s="3">
         <v>567300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>733300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>657000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>363300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>224900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>303300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>86700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>709100</v>
+        <v>1023100</v>
       </c>
       <c r="E42" s="3">
-        <v>721100</v>
+        <v>452900</v>
       </c>
       <c r="F42" s="3">
-        <v>312800</v>
+        <v>637700</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>648500</v>
       </c>
       <c r="H42" s="3">
-        <v>696000</v>
+        <v>281300</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>625900</v>
+      </c>
+      <c r="K42" s="3">
         <v>949300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>705300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>354800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>585400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>715100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>587700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>870200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>271600</v>
+        <v>250400</v>
       </c>
       <c r="E43" s="3">
-        <v>301400</v>
+        <v>270600</v>
       </c>
       <c r="F43" s="3">
-        <v>273800</v>
+        <v>244200</v>
       </c>
       <c r="G43" s="3">
-        <v>265100</v>
+        <v>271000</v>
       </c>
       <c r="H43" s="3">
-        <v>191400</v>
+        <v>246200</v>
       </c>
       <c r="I43" s="3">
+        <v>238400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>172100</v>
+      </c>
+      <c r="K43" s="3">
         <v>170100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>162700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>150100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>129600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>119900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>114700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>117500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>188700</v>
+        <v>188600</v>
       </c>
       <c r="E45" s="3">
-        <v>139500</v>
+        <v>183500</v>
       </c>
       <c r="F45" s="3">
-        <v>140900</v>
+        <v>169700</v>
       </c>
       <c r="G45" s="3">
-        <v>99400</v>
+        <v>125400</v>
       </c>
       <c r="H45" s="3">
-        <v>132800</v>
+        <v>126700</v>
       </c>
       <c r="I45" s="3">
+        <v>89400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K45" s="3">
         <v>105000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>81600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>81700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>70700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>70200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>72100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>63700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1856700</v>
+        <v>3239100</v>
       </c>
       <c r="E46" s="3">
-        <v>1695800</v>
+        <v>1708000</v>
       </c>
       <c r="F46" s="3">
-        <v>1577400</v>
+        <v>1669800</v>
       </c>
       <c r="G46" s="3">
-        <v>1450800</v>
+        <v>1525100</v>
       </c>
       <c r="H46" s="3">
-        <v>1800000</v>
+        <v>1418500</v>
       </c>
       <c r="I46" s="3">
+        <v>1304700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1618800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1791700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1682900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1243600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1149000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1130100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1077900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1138000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>465800</v>
+        <v>385900</v>
       </c>
       <c r="E47" s="3">
-        <v>481200</v>
+        <v>398600</v>
       </c>
       <c r="F47" s="3">
-        <v>564800</v>
+        <v>418900</v>
       </c>
       <c r="G47" s="3">
-        <v>576100</v>
+        <v>432700</v>
       </c>
       <c r="H47" s="3">
-        <v>582800</v>
+        <v>507900</v>
       </c>
       <c r="I47" s="3">
+        <v>518100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>524100</v>
+      </c>
+      <c r="K47" s="3">
         <v>598000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>168100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>107900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>105600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>105900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>64400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>23000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1003000</v>
+        <v>872000</v>
       </c>
       <c r="E48" s="3">
-        <v>942900</v>
+        <v>980900</v>
       </c>
       <c r="F48" s="3">
-        <v>942300</v>
+        <v>902000</v>
       </c>
       <c r="G48" s="3">
-        <v>895000</v>
+        <v>848000</v>
       </c>
       <c r="H48" s="3">
-        <v>463300</v>
+        <v>847400</v>
       </c>
       <c r="I48" s="3">
+        <v>804900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>416600</v>
+      </c>
+      <c r="K48" s="3">
         <v>422500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>381800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>326000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>345700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>344300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>307800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>285600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1003800</v>
+        <v>885500</v>
       </c>
       <c r="E49" s="3">
-        <v>1008300</v>
+        <v>888500</v>
       </c>
       <c r="F49" s="3">
-        <v>1014100</v>
+        <v>902800</v>
       </c>
       <c r="G49" s="3">
-        <v>1013800</v>
+        <v>906800</v>
       </c>
       <c r="H49" s="3">
-        <v>1008300</v>
+        <v>912000</v>
       </c>
       <c r="I49" s="3">
+        <v>911700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>906800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1004400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1005100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>221000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>213300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>219300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>204600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>211800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147000</v>
+        <v>169000</v>
       </c>
       <c r="E52" s="3">
-        <v>143200</v>
+        <v>158000</v>
       </c>
       <c r="F52" s="3">
-        <v>142300</v>
+        <v>132200</v>
       </c>
       <c r="G52" s="3">
-        <v>144200</v>
+        <v>128800</v>
       </c>
       <c r="H52" s="3">
-        <v>137100</v>
+        <v>128000</v>
       </c>
       <c r="I52" s="3">
+        <v>129700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K52" s="3">
         <v>131000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>123900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>111800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>105400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>89700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>78300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>73700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4476400</v>
+        <v>5551500</v>
       </c>
       <c r="E54" s="3">
-        <v>4271500</v>
+        <v>4134000</v>
       </c>
       <c r="F54" s="3">
-        <v>4240800</v>
+        <v>4025700</v>
       </c>
       <c r="G54" s="3">
-        <v>4079900</v>
+        <v>3841400</v>
       </c>
       <c r="H54" s="3">
-        <v>3991500</v>
+        <v>3813700</v>
       </c>
       <c r="I54" s="3">
+        <v>3669100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3589600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3947700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3361800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2010400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1919100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1889200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1733000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1732200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>503200</v>
+        <v>506400</v>
       </c>
       <c r="E57" s="3">
-        <v>411700</v>
+        <v>496700</v>
       </c>
       <c r="F57" s="3">
-        <v>475000</v>
+        <v>452500</v>
       </c>
       <c r="G57" s="3">
-        <v>356100</v>
+        <v>370200</v>
       </c>
       <c r="H57" s="3">
-        <v>261000</v>
+        <v>427200</v>
       </c>
       <c r="I57" s="3">
+        <v>320200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>234700</v>
+      </c>
+      <c r="K57" s="3">
         <v>212800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>265900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>171100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>175600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>166900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>154000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>119200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,26 +2944,26 @@
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>330100</v>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>296800</v>
+      </c>
+      <c r="K58" s="3">
         <v>312800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>282700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>274600</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
@@ -2707,101 +2974,119 @@
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167100</v>
+        <v>170900</v>
       </c>
       <c r="E59" s="3">
-        <v>147600</v>
+        <v>164200</v>
       </c>
       <c r="F59" s="3">
-        <v>131200</v>
+        <v>150300</v>
       </c>
       <c r="G59" s="3">
-        <v>108200</v>
+        <v>132700</v>
       </c>
       <c r="H59" s="3">
-        <v>94100</v>
+        <v>118000</v>
       </c>
       <c r="I59" s="3">
+        <v>97300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K59" s="3">
         <v>103000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>83600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>102800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>81500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>91200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>69500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>102800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>670300</v>
+        <v>677300</v>
       </c>
       <c r="E60" s="3">
-        <v>559300</v>
+        <v>660900</v>
       </c>
       <c r="F60" s="3">
-        <v>606200</v>
+        <v>602800</v>
       </c>
       <c r="G60" s="3">
-        <v>464200</v>
+        <v>502900</v>
       </c>
       <c r="H60" s="3">
-        <v>685200</v>
+        <v>545200</v>
       </c>
       <c r="I60" s="3">
+        <v>417500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>616200</v>
+      </c>
+      <c r="K60" s="3">
         <v>628500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>632100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>548600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>257100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>258200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>223400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>222000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1221600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2825,66 +3110,78 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>274000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>276400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>260700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>284600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>178600</v>
+        <v>167400</v>
       </c>
       <c r="E62" s="3">
-        <v>205900</v>
+        <v>215100</v>
       </c>
       <c r="F62" s="3">
-        <v>209400</v>
+        <v>160700</v>
       </c>
       <c r="G62" s="3">
-        <v>226500</v>
+        <v>185200</v>
       </c>
       <c r="H62" s="3">
-        <v>34400</v>
+        <v>188300</v>
       </c>
       <c r="I62" s="3">
+        <v>203700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K62" s="3">
         <v>33100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>40200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>35000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>37100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>36200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>29500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>32500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1399700</v>
+        <v>2577200</v>
       </c>
       <c r="E66" s="3">
-        <v>1314800</v>
+        <v>1366000</v>
       </c>
       <c r="F66" s="3">
-        <v>1365100</v>
+        <v>1258800</v>
       </c>
       <c r="G66" s="3">
-        <v>1255600</v>
+        <v>1182400</v>
       </c>
       <c r="H66" s="3">
-        <v>1177600</v>
+        <v>1227600</v>
       </c>
       <c r="I66" s="3">
+        <v>1129100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1113800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1125700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>734900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>651500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>647300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>542600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>562000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1932200</v>
+        <v>1813300</v>
       </c>
       <c r="E72" s="3">
-        <v>1862000</v>
+        <v>1735100</v>
       </c>
       <c r="F72" s="3">
-        <v>1814500</v>
+        <v>1737600</v>
       </c>
       <c r="G72" s="3">
-        <v>1760000</v>
+        <v>1674500</v>
       </c>
       <c r="H72" s="3">
-        <v>1768100</v>
+        <v>1631800</v>
       </c>
       <c r="I72" s="3">
+        <v>1582800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1590100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1698500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1171100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1047800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1061800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1055400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1033900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1027600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3076700</v>
+        <v>2974300</v>
       </c>
       <c r="E76" s="3">
-        <v>2956700</v>
+        <v>2768000</v>
       </c>
       <c r="F76" s="3">
-        <v>2875700</v>
+        <v>2766900</v>
       </c>
       <c r="G76" s="3">
-        <v>2824400</v>
+        <v>2659000</v>
       </c>
       <c r="H76" s="3">
-        <v>2814000</v>
+        <v>2586100</v>
       </c>
       <c r="I76" s="3">
+        <v>2540000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2530600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2833900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2236100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1275500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1267600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1241900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1190400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1170200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73400</v>
+        <v>83200</v>
       </c>
       <c r="E81" s="3">
-        <v>58500</v>
+        <v>13500</v>
       </c>
       <c r="F81" s="3">
-        <v>55600</v>
+        <v>66000</v>
       </c>
       <c r="G81" s="3">
-        <v>95700</v>
+        <v>52600</v>
       </c>
       <c r="H81" s="3">
-        <v>75300</v>
+        <v>50000</v>
       </c>
       <c r="I81" s="3">
+        <v>78800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K81" s="3">
         <v>525600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>37600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>54300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>13900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>54100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>18600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59800</v>
+        <v>56900</v>
       </c>
       <c r="E83" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="F83" s="3">
-        <v>51400</v>
+        <v>53800</v>
       </c>
       <c r="G83" s="3">
-        <v>50600</v>
+        <v>53300</v>
       </c>
       <c r="H83" s="3">
-        <v>49200</v>
+        <v>46200</v>
       </c>
       <c r="I83" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K83" s="3">
         <v>46200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>45600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>46600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>45100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>43500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>37400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>36600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>231900</v>
+        <v>109300</v>
       </c>
       <c r="E89" s="3">
-        <v>166500</v>
+        <v>122500</v>
       </c>
       <c r="F89" s="3">
-        <v>166200</v>
+        <v>208500</v>
       </c>
       <c r="G89" s="3">
-        <v>135900</v>
+        <v>149700</v>
       </c>
       <c r="H89" s="3">
-        <v>119900</v>
+        <v>149500</v>
       </c>
       <c r="I89" s="3">
+        <v>122200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K89" s="3">
         <v>107700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>81900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>116900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>50300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>110400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>87200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>80900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-196800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-83800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-122000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-31300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-218800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-142200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-39500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-59500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-58700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-88700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-83800</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79200</v>
+        <v>-523400</v>
       </c>
       <c r="E94" s="3">
-        <v>-471900</v>
+        <v>114900</v>
       </c>
       <c r="F94" s="3">
-        <v>-352400</v>
+        <v>-71300</v>
       </c>
       <c r="G94" s="3">
-        <v>481400</v>
+        <v>-424400</v>
       </c>
       <c r="H94" s="3">
-        <v>248000</v>
+        <v>-317000</v>
       </c>
       <c r="I94" s="3">
+        <v>432900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-294200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>180200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>88200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-195900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-189700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-379000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-600</v>
+        <v>1043100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2500</v>
+        <v>-30600</v>
       </c>
       <c r="F100" s="3">
         <v>-600</v>
       </c>
       <c r="G100" s="3">
-        <v>-342100</v>
+        <v>-2300</v>
       </c>
       <c r="H100" s="3">
-        <v>-162900</v>
+        <v>-600</v>
       </c>
       <c r="I100" s="3">
+        <v>-307600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-48400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>347100</v>
       </c>
       <c r="E101" s="3">
-        <v>-8100</v>
+        <v>-23800</v>
       </c>
       <c r="F101" s="3">
-        <v>-50300</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>31400</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>5800</v>
+        <v>-45200</v>
       </c>
       <c r="I101" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K101" s="3">
         <v>26500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-9700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>153500</v>
+        <v>976100</v>
       </c>
       <c r="E102" s="3">
-        <v>-316100</v>
+        <v>182900</v>
       </c>
       <c r="F102" s="3">
-        <v>-237100</v>
+        <v>138000</v>
       </c>
       <c r="G102" s="3">
-        <v>306600</v>
+        <v>-284200</v>
       </c>
       <c r="H102" s="3">
-        <v>210800</v>
+        <v>-213200</v>
       </c>
       <c r="I102" s="3">
+        <v>275800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>189600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-165700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>53400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>293700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>138000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-82000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-125800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-356200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>667400</v>
+        <v>548600</v>
       </c>
       <c r="E8" s="3">
-        <v>734100</v>
+        <v>622800</v>
       </c>
       <c r="F8" s="3">
-        <v>639200</v>
+        <v>685000</v>
       </c>
       <c r="G8" s="3">
-        <v>587800</v>
+        <v>596400</v>
       </c>
       <c r="H8" s="3">
-        <v>529400</v>
+        <v>548500</v>
       </c>
       <c r="I8" s="3">
-        <v>551600</v>
+        <v>494000</v>
       </c>
       <c r="J8" s="3">
+        <v>514700</v>
+      </c>
+      <c r="K8" s="3">
         <v>462500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>468500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>419600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>429000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>360900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>340400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>335800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>230500</v>
+        <v>210800</v>
       </c>
       <c r="E9" s="3">
-        <v>250800</v>
+        <v>215100</v>
       </c>
       <c r="F9" s="3">
-        <v>198200</v>
+        <v>234100</v>
       </c>
       <c r="G9" s="3">
-        <v>178600</v>
+        <v>185000</v>
       </c>
       <c r="H9" s="3">
-        <v>164500</v>
+        <v>166600</v>
       </c>
       <c r="I9" s="3">
-        <v>168400</v>
+        <v>153500</v>
       </c>
       <c r="J9" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K9" s="3">
         <v>128700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>106000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>104700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>88500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>436900</v>
+        <v>337800</v>
       </c>
       <c r="E10" s="3">
-        <v>483200</v>
+        <v>407700</v>
       </c>
       <c r="F10" s="3">
-        <v>441000</v>
+        <v>450900</v>
       </c>
       <c r="G10" s="3">
-        <v>409200</v>
+        <v>411500</v>
       </c>
       <c r="H10" s="3">
-        <v>364900</v>
+        <v>381900</v>
       </c>
       <c r="I10" s="3">
-        <v>383200</v>
+        <v>340500</v>
       </c>
       <c r="J10" s="3">
+        <v>357600</v>
+      </c>
+      <c r="K10" s="3">
         <v>333800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>338100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>313600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>324400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>267900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>251900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>232300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>250200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>112600</v>
+        <v>118900</v>
       </c>
       <c r="E12" s="3">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="F12" s="3">
-        <v>105200</v>
+        <v>107300</v>
       </c>
       <c r="G12" s="3">
-        <v>99300</v>
+        <v>98100</v>
       </c>
       <c r="H12" s="3">
-        <v>95200</v>
+        <v>92700</v>
       </c>
       <c r="I12" s="3">
-        <v>83200</v>
+        <v>88900</v>
       </c>
       <c r="J12" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K12" s="3">
         <v>78600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>85000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>91600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>80100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>70400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>68900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>68600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,43 +1025,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>10800</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-446000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1052,64 +1072,70 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>56900</v>
+        <v>53700</v>
       </c>
       <c r="E15" s="3">
-        <v>56500</v>
+        <v>53100</v>
       </c>
       <c r="F15" s="3">
-        <v>53800</v>
+        <v>52700</v>
       </c>
       <c r="G15" s="3">
-        <v>53300</v>
+        <v>50200</v>
       </c>
       <c r="H15" s="3">
+        <v>49800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="L15" s="3">
         <v>46200</v>
       </c>
-      <c r="I15" s="3">
-        <v>45500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>46200</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>46600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>37400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>592400</v>
+        <v>545800</v>
       </c>
       <c r="E17" s="3">
-        <v>664600</v>
+        <v>552700</v>
       </c>
       <c r="F17" s="3">
-        <v>533600</v>
+        <v>620200</v>
       </c>
       <c r="G17" s="3">
-        <v>488600</v>
+        <v>497900</v>
       </c>
       <c r="H17" s="3">
-        <v>453000</v>
+        <v>455900</v>
       </c>
       <c r="I17" s="3">
-        <v>445600</v>
+        <v>422700</v>
       </c>
       <c r="J17" s="3">
+        <v>415800</v>
+      </c>
+      <c r="K17" s="3">
         <v>377900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-44700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>369700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>354900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>332500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>294200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>262300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>285100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>75100</v>
+        <v>2800</v>
       </c>
       <c r="E18" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="F18" s="3">
-        <v>105600</v>
+        <v>64800</v>
       </c>
       <c r="G18" s="3">
-        <v>99200</v>
+        <v>98500</v>
       </c>
       <c r="H18" s="3">
-        <v>76500</v>
+        <v>92600</v>
       </c>
       <c r="I18" s="3">
-        <v>106000</v>
+        <v>71400</v>
       </c>
       <c r="J18" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K18" s="3">
         <v>84600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>513300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>49900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,137 +1278,144 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58800</v>
+        <v>-15900</v>
       </c>
       <c r="E20" s="3">
-        <v>-21500</v>
+        <v>54900</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>-20000</v>
       </c>
       <c r="G20" s="3">
-        <v>-7500</v>
+        <v>4100</v>
       </c>
       <c r="H20" s="3">
-        <v>-700</v>
+        <v>-7000</v>
       </c>
       <c r="I20" s="3">
-        <v>8100</v>
+        <v>-600</v>
       </c>
       <c r="J20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K20" s="3">
         <v>15100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>199200</v>
+        <v>53300</v>
       </c>
       <c r="E21" s="3">
-        <v>121000</v>
+        <v>185900</v>
       </c>
       <c r="F21" s="3">
-        <v>163800</v>
+        <v>112900</v>
       </c>
       <c r="G21" s="3">
-        <v>145100</v>
+        <v>152900</v>
       </c>
       <c r="H21" s="3">
-        <v>122100</v>
+        <v>135400</v>
       </c>
       <c r="I21" s="3">
-        <v>159500</v>
+        <v>113900</v>
       </c>
       <c r="J21" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K21" s="3">
         <v>144000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>597100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>75200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>121600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>65200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>74900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>9000</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3500</v>
       </c>
       <c r="M22" s="3">
         <v>3500</v>
@@ -1384,119 +1424,128 @@
         <v>3500</v>
       </c>
       <c r="O22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>130700</v>
+        <v>-22100</v>
       </c>
       <c r="E23" s="3">
-        <v>47600</v>
+        <v>122000</v>
       </c>
       <c r="F23" s="3">
-        <v>109600</v>
+        <v>44400</v>
       </c>
       <c r="G23" s="3">
-        <v>91600</v>
+        <v>102300</v>
       </c>
       <c r="H23" s="3">
-        <v>75800</v>
+        <v>85400</v>
       </c>
       <c r="I23" s="3">
-        <v>110900</v>
+        <v>70700</v>
       </c>
       <c r="J23" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K23" s="3">
         <v>96000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>547000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52700</v>
+        <v>26400</v>
       </c>
       <c r="E24" s="3">
-        <v>43600</v>
+        <v>49200</v>
       </c>
       <c r="F24" s="3">
-        <v>47400</v>
+        <v>40700</v>
       </c>
       <c r="G24" s="3">
-        <v>43100</v>
+        <v>44300</v>
       </c>
       <c r="H24" s="3">
-        <v>31400</v>
+        <v>40200</v>
       </c>
       <c r="I24" s="3">
-        <v>34300</v>
+        <v>29300</v>
       </c>
       <c r="J24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78000</v>
+        <v>-48500</v>
       </c>
       <c r="E26" s="3">
-        <v>4000</v>
+        <v>72800</v>
       </c>
       <c r="F26" s="3">
-        <v>62200</v>
+        <v>3700</v>
       </c>
       <c r="G26" s="3">
-        <v>48500</v>
+        <v>58000</v>
       </c>
       <c r="H26" s="3">
-        <v>44400</v>
+        <v>45300</v>
       </c>
       <c r="I26" s="3">
-        <v>76700</v>
+        <v>41400</v>
       </c>
       <c r="J26" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K26" s="3">
         <v>63000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>514400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83200</v>
+        <v>-43900</v>
       </c>
       <c r="E27" s="3">
-        <v>13500</v>
+        <v>77700</v>
       </c>
       <c r="F27" s="3">
-        <v>66000</v>
+        <v>12600</v>
       </c>
       <c r="G27" s="3">
-        <v>52600</v>
+        <v>61600</v>
       </c>
       <c r="H27" s="3">
-        <v>50000</v>
+        <v>49100</v>
       </c>
       <c r="I27" s="3">
-        <v>78800</v>
+        <v>46700</v>
       </c>
       <c r="J27" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K27" s="3">
         <v>67700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>525600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58800</v>
+        <v>15900</v>
       </c>
       <c r="E32" s="3">
-        <v>21500</v>
+        <v>-54900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>20000</v>
       </c>
       <c r="G32" s="3">
-        <v>7500</v>
+        <v>-4100</v>
       </c>
       <c r="H32" s="3">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="I32" s="3">
-        <v>-8100</v>
+        <v>600</v>
       </c>
       <c r="J32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83200</v>
+        <v>-43900</v>
       </c>
       <c r="E33" s="3">
-        <v>13500</v>
+        <v>77700</v>
       </c>
       <c r="F33" s="3">
-        <v>66000</v>
+        <v>12600</v>
       </c>
       <c r="G33" s="3">
-        <v>52600</v>
+        <v>61600</v>
       </c>
       <c r="H33" s="3">
-        <v>50000</v>
+        <v>49100</v>
       </c>
       <c r="I33" s="3">
-        <v>78800</v>
+        <v>46700</v>
       </c>
       <c r="J33" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K33" s="3">
         <v>67700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>525600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83200</v>
+        <v>-43900</v>
       </c>
       <c r="E35" s="3">
-        <v>13500</v>
+        <v>77700</v>
       </c>
       <c r="F35" s="3">
-        <v>66000</v>
+        <v>12600</v>
       </c>
       <c r="G35" s="3">
-        <v>52600</v>
+        <v>61600</v>
       </c>
       <c r="H35" s="3">
-        <v>50000</v>
+        <v>49100</v>
       </c>
       <c r="I35" s="3">
-        <v>78800</v>
+        <v>46700</v>
       </c>
       <c r="J35" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K35" s="3">
         <v>67700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>525600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1777000</v>
+        <v>2441900</v>
       </c>
       <c r="E41" s="3">
-        <v>801100</v>
+        <v>1658100</v>
       </c>
       <c r="F41" s="3">
-        <v>618100</v>
+        <v>747500</v>
       </c>
       <c r="G41" s="3">
-        <v>480100</v>
+        <v>576700</v>
       </c>
       <c r="H41" s="3">
-        <v>764300</v>
+        <v>448000</v>
       </c>
       <c r="I41" s="3">
-        <v>976900</v>
+        <v>713200</v>
       </c>
       <c r="J41" s="3">
+        <v>911600</v>
+      </c>
+      <c r="K41" s="3">
         <v>701300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>567300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>733300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>657000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>363300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>224900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>303300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>86700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1023100</v>
+        <v>763000</v>
       </c>
       <c r="E42" s="3">
-        <v>452900</v>
+        <v>954700</v>
       </c>
       <c r="F42" s="3">
-        <v>637700</v>
+        <v>422600</v>
       </c>
       <c r="G42" s="3">
-        <v>648500</v>
+        <v>595100</v>
       </c>
       <c r="H42" s="3">
-        <v>281300</v>
+        <v>605100</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>262500</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>625900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>949300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>705300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>354800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>585400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>715100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>587700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>870200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>250400</v>
+        <v>229200</v>
       </c>
       <c r="E43" s="3">
-        <v>270600</v>
+        <v>233700</v>
       </c>
       <c r="F43" s="3">
-        <v>244200</v>
+        <v>252500</v>
       </c>
       <c r="G43" s="3">
-        <v>271000</v>
+        <v>227900</v>
       </c>
       <c r="H43" s="3">
-        <v>246200</v>
+        <v>252900</v>
       </c>
       <c r="I43" s="3">
-        <v>238400</v>
+        <v>229700</v>
       </c>
       <c r="J43" s="3">
+        <v>222400</v>
+      </c>
+      <c r="K43" s="3">
         <v>172100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>170100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>162700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>150100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>114700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>117500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>188600</v>
+        <v>217100</v>
       </c>
       <c r="E45" s="3">
-        <v>183500</v>
+        <v>176000</v>
       </c>
       <c r="F45" s="3">
-        <v>169700</v>
+        <v>171200</v>
       </c>
       <c r="G45" s="3">
-        <v>125400</v>
+        <v>158400</v>
       </c>
       <c r="H45" s="3">
-        <v>126700</v>
+        <v>117000</v>
       </c>
       <c r="I45" s="3">
-        <v>89400</v>
+        <v>118200</v>
       </c>
       <c r="J45" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K45" s="3">
         <v>119400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>105000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3239100</v>
+        <v>3651200</v>
       </c>
       <c r="E46" s="3">
-        <v>1708000</v>
+        <v>3022400</v>
       </c>
       <c r="F46" s="3">
-        <v>1669800</v>
+        <v>1593800</v>
       </c>
       <c r="G46" s="3">
-        <v>1525100</v>
+        <v>1558100</v>
       </c>
       <c r="H46" s="3">
-        <v>1418500</v>
+        <v>1423000</v>
       </c>
       <c r="I46" s="3">
-        <v>1304700</v>
+        <v>1323600</v>
       </c>
       <c r="J46" s="3">
+        <v>1217400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1618800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1791700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1682900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1243600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1149000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1130100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1077900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1138000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>385900</v>
+        <v>345800</v>
       </c>
       <c r="E47" s="3">
-        <v>398600</v>
+        <v>360000</v>
       </c>
       <c r="F47" s="3">
-        <v>418900</v>
+        <v>372000</v>
       </c>
       <c r="G47" s="3">
-        <v>432700</v>
+        <v>390900</v>
       </c>
       <c r="H47" s="3">
-        <v>507900</v>
+        <v>403800</v>
       </c>
       <c r="I47" s="3">
-        <v>518100</v>
+        <v>473900</v>
       </c>
       <c r="J47" s="3">
+        <v>483400</v>
+      </c>
+      <c r="K47" s="3">
         <v>524100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>598000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>168100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>872000</v>
+        <v>918500</v>
       </c>
       <c r="E48" s="3">
-        <v>980900</v>
+        <v>813600</v>
       </c>
       <c r="F48" s="3">
-        <v>902000</v>
+        <v>915200</v>
       </c>
       <c r="G48" s="3">
-        <v>848000</v>
+        <v>841700</v>
       </c>
       <c r="H48" s="3">
-        <v>847400</v>
+        <v>791300</v>
       </c>
       <c r="I48" s="3">
-        <v>804900</v>
+        <v>790700</v>
       </c>
       <c r="J48" s="3">
+        <v>751100</v>
+      </c>
+      <c r="K48" s="3">
         <v>416600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>422500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>381800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>326000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>345700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>344300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>307800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>285600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>885500</v>
+        <v>822600</v>
       </c>
       <c r="E49" s="3">
-        <v>888500</v>
+        <v>826200</v>
       </c>
       <c r="F49" s="3">
-        <v>902800</v>
+        <v>829100</v>
       </c>
       <c r="G49" s="3">
+        <v>842400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>846100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>851000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>850700</v>
+      </c>
+      <c r="K49" s="3">
         <v>906800</v>
       </c>
-      <c r="H49" s="3">
-        <v>912000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>911700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>906800</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1004400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1005100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>221000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>213300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>219300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>204600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>211800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>169000</v>
+        <v>156400</v>
       </c>
       <c r="E52" s="3">
-        <v>158000</v>
+        <v>157700</v>
       </c>
       <c r="F52" s="3">
-        <v>132200</v>
+        <v>147400</v>
       </c>
       <c r="G52" s="3">
-        <v>128800</v>
+        <v>123400</v>
       </c>
       <c r="H52" s="3">
-        <v>128000</v>
+        <v>120200</v>
       </c>
       <c r="I52" s="3">
-        <v>129700</v>
+        <v>119400</v>
       </c>
       <c r="J52" s="3">
+        <v>121000</v>
+      </c>
+      <c r="K52" s="3">
         <v>123300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>111800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5551500</v>
+        <v>5894500</v>
       </c>
       <c r="E54" s="3">
-        <v>4134000</v>
+        <v>5180100</v>
       </c>
       <c r="F54" s="3">
-        <v>4025700</v>
+        <v>3857400</v>
       </c>
       <c r="G54" s="3">
-        <v>3841400</v>
+        <v>3756400</v>
       </c>
       <c r="H54" s="3">
-        <v>3813700</v>
+        <v>3584400</v>
       </c>
       <c r="I54" s="3">
-        <v>3669100</v>
+        <v>3558600</v>
       </c>
       <c r="J54" s="3">
+        <v>3423600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3589600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3947700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3361800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2010400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1919100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1889200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1733000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1732200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>506400</v>
+        <v>431400</v>
       </c>
       <c r="E57" s="3">
-        <v>496700</v>
+        <v>472500</v>
       </c>
       <c r="F57" s="3">
-        <v>452500</v>
+        <v>463500</v>
       </c>
       <c r="G57" s="3">
-        <v>370200</v>
+        <v>422200</v>
       </c>
       <c r="H57" s="3">
-        <v>427200</v>
+        <v>345500</v>
       </c>
       <c r="I57" s="3">
-        <v>320200</v>
+        <v>398600</v>
       </c>
       <c r="J57" s="3">
+        <v>298800</v>
+      </c>
+      <c r="K57" s="3">
         <v>234700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>212800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>265900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>171100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>175600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>166900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>154000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>119200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2950,23 +3084,23 @@
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>296800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>312800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>282700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>274600</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
@@ -2980,116 +3114,125 @@
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>170900</v>
+        <v>115400</v>
       </c>
       <c r="E59" s="3">
-        <v>164200</v>
+        <v>159500</v>
       </c>
       <c r="F59" s="3">
-        <v>150300</v>
+        <v>153200</v>
       </c>
       <c r="G59" s="3">
-        <v>132700</v>
+        <v>140300</v>
       </c>
       <c r="H59" s="3">
-        <v>118000</v>
+        <v>123800</v>
       </c>
       <c r="I59" s="3">
-        <v>97300</v>
+        <v>110100</v>
       </c>
       <c r="J59" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K59" s="3">
         <v>84600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>102800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>69500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>102800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>677300</v>
+        <v>546800</v>
       </c>
       <c r="E60" s="3">
-        <v>660900</v>
+        <v>632000</v>
       </c>
       <c r="F60" s="3">
-        <v>602800</v>
+        <v>616700</v>
       </c>
       <c r="G60" s="3">
-        <v>502900</v>
+        <v>562500</v>
       </c>
       <c r="H60" s="3">
-        <v>545200</v>
+        <v>469300</v>
       </c>
       <c r="I60" s="3">
-        <v>417500</v>
+        <v>508700</v>
       </c>
       <c r="J60" s="3">
+        <v>389600</v>
+      </c>
+      <c r="K60" s="3">
         <v>616200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>628500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>632100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>548600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>257100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>258200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>223400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>222000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1221600</v>
+        <v>1032100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1139900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3116,72 +3259,78 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>274000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>276400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>260700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>284600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>167400</v>
+        <v>166600</v>
       </c>
       <c r="E62" s="3">
-        <v>215100</v>
+        <v>156200</v>
       </c>
       <c r="F62" s="3">
-        <v>160700</v>
+        <v>200800</v>
       </c>
       <c r="G62" s="3">
-        <v>185200</v>
+        <v>149900</v>
       </c>
       <c r="H62" s="3">
-        <v>188300</v>
+        <v>172800</v>
       </c>
       <c r="I62" s="3">
-        <v>203700</v>
+        <v>175700</v>
       </c>
       <c r="J62" s="3">
+        <v>190100</v>
+      </c>
+      <c r="K62" s="3">
         <v>30900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2577200</v>
+        <v>2217300</v>
       </c>
       <c r="E66" s="3">
-        <v>1366000</v>
+        <v>2404700</v>
       </c>
       <c r="F66" s="3">
-        <v>1258800</v>
+        <v>1274600</v>
       </c>
       <c r="G66" s="3">
-        <v>1182400</v>
+        <v>1174600</v>
       </c>
       <c r="H66" s="3">
-        <v>1227600</v>
+        <v>1103300</v>
       </c>
       <c r="I66" s="3">
-        <v>1129100</v>
+        <v>1145500</v>
       </c>
       <c r="J66" s="3">
+        <v>1053600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1059000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1113800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1125700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>734900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>651500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>647300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>542600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>562000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1813300</v>
+        <v>1636300</v>
       </c>
       <c r="E72" s="3">
-        <v>1735100</v>
+        <v>1692000</v>
       </c>
       <c r="F72" s="3">
-        <v>1737600</v>
+        <v>1619000</v>
       </c>
       <c r="G72" s="3">
-        <v>1674500</v>
+        <v>1621300</v>
       </c>
       <c r="H72" s="3">
-        <v>1631800</v>
+        <v>1562400</v>
       </c>
       <c r="I72" s="3">
-        <v>1582800</v>
+        <v>1522600</v>
       </c>
       <c r="J72" s="3">
+        <v>1476900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1590100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1698500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1171100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1047800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1061800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1055400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1033900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1027600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2974300</v>
+        <v>3677200</v>
       </c>
       <c r="E76" s="3">
-        <v>2768000</v>
+        <v>2775300</v>
       </c>
       <c r="F76" s="3">
-        <v>2766900</v>
+        <v>2582800</v>
       </c>
       <c r="G76" s="3">
-        <v>2659000</v>
+        <v>2581800</v>
       </c>
       <c r="H76" s="3">
-        <v>2586100</v>
+        <v>2481100</v>
       </c>
       <c r="I76" s="3">
-        <v>2540000</v>
+        <v>2413100</v>
       </c>
       <c r="J76" s="3">
+        <v>2370000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2530600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2833900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2236100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1275500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1267600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1241900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1190400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1170200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83200</v>
+        <v>-43900</v>
       </c>
       <c r="E81" s="3">
-        <v>13500</v>
+        <v>77700</v>
       </c>
       <c r="F81" s="3">
-        <v>66000</v>
+        <v>12600</v>
       </c>
       <c r="G81" s="3">
-        <v>52600</v>
+        <v>61600</v>
       </c>
       <c r="H81" s="3">
-        <v>50000</v>
+        <v>49100</v>
       </c>
       <c r="I81" s="3">
-        <v>78800</v>
+        <v>46700</v>
       </c>
       <c r="J81" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K81" s="3">
         <v>67700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>525600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56900</v>
+        <v>55700</v>
       </c>
       <c r="E83" s="3">
-        <v>56500</v>
+        <v>53100</v>
       </c>
       <c r="F83" s="3">
-        <v>53800</v>
+        <v>52700</v>
       </c>
       <c r="G83" s="3">
-        <v>53300</v>
+        <v>50200</v>
       </c>
       <c r="H83" s="3">
+        <v>49800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="L83" s="3">
         <v>46200</v>
       </c>
-      <c r="I83" s="3">
-        <v>45500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>46200</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>109300</v>
+        <v>-1700</v>
       </c>
       <c r="E89" s="3">
-        <v>122500</v>
+        <v>101900</v>
       </c>
       <c r="F89" s="3">
-        <v>208500</v>
+        <v>114300</v>
       </c>
       <c r="G89" s="3">
-        <v>149700</v>
+        <v>194600</v>
       </c>
       <c r="H89" s="3">
-        <v>149500</v>
+        <v>139700</v>
       </c>
       <c r="I89" s="3">
-        <v>122200</v>
+        <v>139500</v>
       </c>
       <c r="J89" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K89" s="3">
         <v>107900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>107700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>116900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34200</v>
+        <v>-136200</v>
       </c>
       <c r="E91" s="3">
-        <v>-78600</v>
+        <v>-31900</v>
       </c>
       <c r="F91" s="3">
-        <v>-75300</v>
+        <v>-73300</v>
       </c>
       <c r="G91" s="3">
-        <v>-109700</v>
+        <v>-70300</v>
       </c>
       <c r="H91" s="3">
-        <v>-28100</v>
+        <v>-102300</v>
       </c>
       <c r="I91" s="3">
-        <v>-196800</v>
+        <v>-26200</v>
       </c>
       <c r="J91" s="3">
+        <v>-183600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-61100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-142200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-88700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-523400</v>
+        <v>-56800</v>
       </c>
       <c r="E94" s="3">
-        <v>114900</v>
+        <v>-488400</v>
       </c>
       <c r="F94" s="3">
-        <v>-71300</v>
+        <v>107200</v>
       </c>
       <c r="G94" s="3">
-        <v>-424400</v>
+        <v>-66500</v>
       </c>
       <c r="H94" s="3">
-        <v>-317000</v>
+        <v>-396000</v>
       </c>
       <c r="I94" s="3">
-        <v>432900</v>
+        <v>-295800</v>
       </c>
       <c r="J94" s="3">
+        <v>404000</v>
+      </c>
+      <c r="K94" s="3">
         <v>223000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-294200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>180200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>88200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-195900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-189700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-379000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1043100</v>
+        <v>930300</v>
       </c>
       <c r="E100" s="3">
-        <v>-30600</v>
+        <v>973300</v>
       </c>
       <c r="F100" s="3">
-        <v>-600</v>
+        <v>-28600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2300</v>
+        <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="I100" s="3">
-        <v>-307600</v>
+        <v>-500</v>
       </c>
       <c r="J100" s="3">
+        <v>-287100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-146500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>347100</v>
+        <v>-88100</v>
       </c>
       <c r="E101" s="3">
-        <v>-23800</v>
+        <v>323900</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>-22200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-45200</v>
+        <v>-6800</v>
       </c>
       <c r="I101" s="3">
-        <v>28200</v>
+        <v>-42200</v>
       </c>
       <c r="J101" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>976100</v>
+        <v>783700</v>
       </c>
       <c r="E102" s="3">
-        <v>182900</v>
+        <v>910800</v>
       </c>
       <c r="F102" s="3">
+        <v>170700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>128800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-265200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>189600</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-165700</v>
+      </c>
+      <c r="M102" s="3">
+        <v>53400</v>
+      </c>
+      <c r="N102" s="3">
+        <v>293700</v>
+      </c>
+      <c r="O102" s="3">
         <v>138000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-284200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-213200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>275800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>189600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-165700</v>
-      </c>
-      <c r="L102" s="3">
-        <v>53400</v>
-      </c>
-      <c r="M102" s="3">
-        <v>293700</v>
-      </c>
-      <c r="N102" s="3">
-        <v>138000</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-82000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-125800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-356200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>548600</v>
+        <v>769400</v>
       </c>
       <c r="E8" s="3">
-        <v>622800</v>
+        <v>546200</v>
       </c>
       <c r="F8" s="3">
-        <v>685000</v>
+        <v>620000</v>
       </c>
       <c r="G8" s="3">
-        <v>596400</v>
+        <v>681900</v>
       </c>
       <c r="H8" s="3">
-        <v>548500</v>
+        <v>593700</v>
       </c>
       <c r="I8" s="3">
-        <v>494000</v>
+        <v>546000</v>
       </c>
       <c r="J8" s="3">
+        <v>491800</v>
+      </c>
+      <c r="K8" s="3">
         <v>514700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>462500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>468500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>419600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>429000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>360900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>340400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>313500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>335800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>210800</v>
+        <v>292000</v>
       </c>
       <c r="E9" s="3">
-        <v>215100</v>
+        <v>209900</v>
       </c>
       <c r="F9" s="3">
-        <v>234100</v>
+        <v>214100</v>
       </c>
       <c r="G9" s="3">
-        <v>185000</v>
+        <v>233000</v>
       </c>
       <c r="H9" s="3">
-        <v>166600</v>
+        <v>184100</v>
       </c>
       <c r="I9" s="3">
-        <v>153500</v>
+        <v>165900</v>
       </c>
       <c r="J9" s="3">
+        <v>152800</v>
+      </c>
+      <c r="K9" s="3">
         <v>157100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>128700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>130400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>106000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>104700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>93100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>88500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>337800</v>
+        <v>477400</v>
       </c>
       <c r="E10" s="3">
-        <v>407700</v>
+        <v>336300</v>
       </c>
       <c r="F10" s="3">
-        <v>450900</v>
+        <v>405800</v>
       </c>
       <c r="G10" s="3">
-        <v>411500</v>
+        <v>448900</v>
       </c>
       <c r="H10" s="3">
-        <v>381900</v>
+        <v>409600</v>
       </c>
       <c r="I10" s="3">
-        <v>340500</v>
+        <v>380100</v>
       </c>
       <c r="J10" s="3">
+        <v>339000</v>
+      </c>
+      <c r="K10" s="3">
         <v>357600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>333800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>338100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>313600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>324400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>267900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>251900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>232300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>250200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>118900</v>
+        <v>124200</v>
       </c>
       <c r="E12" s="3">
-        <v>105000</v>
+        <v>118300</v>
       </c>
       <c r="F12" s="3">
-        <v>107300</v>
+        <v>104600</v>
       </c>
       <c r="G12" s="3">
-        <v>98100</v>
+        <v>106900</v>
       </c>
       <c r="H12" s="3">
-        <v>92700</v>
+        <v>93900</v>
       </c>
       <c r="I12" s="3">
-        <v>88900</v>
+        <v>91000</v>
       </c>
       <c r="J12" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K12" s="3">
         <v>77600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>85000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>91600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>80100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>70400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>68900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>68600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>65300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,46 +1045,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-253600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>10100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-446000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1075,67 +1095,73 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>53700</v>
+        <v>63000</v>
       </c>
       <c r="E15" s="3">
-        <v>53100</v>
+        <v>53400</v>
       </c>
       <c r="F15" s="3">
-        <v>52700</v>
+        <v>52900</v>
       </c>
       <c r="G15" s="3">
-        <v>50200</v>
+        <v>52400</v>
       </c>
       <c r="H15" s="3">
-        <v>49800</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="3">
-        <v>43200</v>
+        <v>49500</v>
       </c>
       <c r="J15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K15" s="3">
         <v>42400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>46200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>37400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>36600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>545800</v>
+        <v>431800</v>
       </c>
       <c r="E17" s="3">
-        <v>552700</v>
+        <v>543300</v>
       </c>
       <c r="F17" s="3">
-        <v>620200</v>
+        <v>550200</v>
       </c>
       <c r="G17" s="3">
-        <v>497900</v>
+        <v>617400</v>
       </c>
       <c r="H17" s="3">
-        <v>455900</v>
+        <v>490100</v>
       </c>
       <c r="I17" s="3">
-        <v>422700</v>
+        <v>451900</v>
       </c>
       <c r="J17" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K17" s="3">
         <v>415800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>377900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-44700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>369700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>354900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>332500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>294200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>262300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>285100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>337600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
-        <v>70100</v>
-      </c>
       <c r="F18" s="3">
-        <v>64800</v>
+        <v>69700</v>
       </c>
       <c r="G18" s="3">
-        <v>98500</v>
+        <v>64500</v>
       </c>
       <c r="H18" s="3">
-        <v>92600</v>
+        <v>103700</v>
       </c>
       <c r="I18" s="3">
-        <v>71400</v>
+        <v>94100</v>
       </c>
       <c r="J18" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K18" s="3">
         <v>98900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>513300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>49900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>51200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,146 +1312,153 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15900</v>
       </c>
-      <c r="E20" s="3">
-        <v>54900</v>
-      </c>
       <c r="F20" s="3">
-        <v>-20000</v>
+        <v>54600</v>
       </c>
       <c r="G20" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-7000</v>
-      </c>
       <c r="I20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-23500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53300</v>
+        <v>418200</v>
       </c>
       <c r="E21" s="3">
-        <v>185900</v>
+        <v>53100</v>
       </c>
       <c r="F21" s="3">
-        <v>112900</v>
+        <v>185000</v>
       </c>
       <c r="G21" s="3">
-        <v>152900</v>
+        <v>112400</v>
       </c>
       <c r="H21" s="3">
-        <v>135400</v>
+        <v>157800</v>
       </c>
       <c r="I21" s="3">
-        <v>113900</v>
+        <v>136700</v>
       </c>
       <c r="J21" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K21" s="3">
         <v>148900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>597100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>121600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>65200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>74900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="E22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3500</v>
       </c>
       <c r="N22" s="3">
         <v>3500</v>
@@ -1427,125 +1467,134 @@
         <v>3500</v>
       </c>
       <c r="P22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22100</v>
+        <v>336000</v>
       </c>
       <c r="E23" s="3">
-        <v>122000</v>
+        <v>-22000</v>
       </c>
       <c r="F23" s="3">
-        <v>44400</v>
+        <v>121400</v>
       </c>
       <c r="G23" s="3">
-        <v>102300</v>
+        <v>44200</v>
       </c>
       <c r="H23" s="3">
-        <v>85400</v>
+        <v>107400</v>
       </c>
       <c r="I23" s="3">
-        <v>70700</v>
+        <v>87000</v>
       </c>
       <c r="J23" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K23" s="3">
         <v>103500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>96000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>547000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26400</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>49200</v>
+        <v>26300</v>
       </c>
       <c r="F24" s="3">
-        <v>40700</v>
+        <v>48900</v>
       </c>
       <c r="G24" s="3">
-        <v>44300</v>
+        <v>40500</v>
       </c>
       <c r="H24" s="3">
-        <v>40200</v>
+        <v>44100</v>
       </c>
       <c r="I24" s="3">
-        <v>29300</v>
+        <v>40000</v>
       </c>
       <c r="J24" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K24" s="3">
         <v>32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-48500</v>
+        <v>289000</v>
       </c>
       <c r="E26" s="3">
-        <v>72800</v>
+        <v>-48200</v>
       </c>
       <c r="F26" s="3">
+        <v>72500</v>
+      </c>
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
-        <v>58000</v>
-      </c>
       <c r="H26" s="3">
-        <v>45300</v>
+        <v>63300</v>
       </c>
       <c r="I26" s="3">
-        <v>41400</v>
+        <v>47000</v>
       </c>
       <c r="J26" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K26" s="3">
         <v>71500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>514400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43900</v>
+        <v>292100</v>
       </c>
       <c r="E27" s="3">
-        <v>77700</v>
+        <v>-43700</v>
       </c>
       <c r="F27" s="3">
-        <v>12600</v>
+        <v>77300</v>
       </c>
       <c r="G27" s="3">
-        <v>61600</v>
+        <v>12500</v>
       </c>
       <c r="H27" s="3">
-        <v>49100</v>
+        <v>66900</v>
       </c>
       <c r="I27" s="3">
-        <v>46700</v>
+        <v>50800</v>
       </c>
       <c r="J27" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K27" s="3">
         <v>73500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>525600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>15900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-54900</v>
-      </c>
       <c r="F32" s="3">
-        <v>20000</v>
+        <v>-54600</v>
       </c>
       <c r="G32" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
-        <v>7000</v>
-      </c>
       <c r="I32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>23500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43900</v>
+        <v>292100</v>
       </c>
       <c r="E33" s="3">
-        <v>77700</v>
+        <v>-43700</v>
       </c>
       <c r="F33" s="3">
-        <v>12600</v>
+        <v>77300</v>
       </c>
       <c r="G33" s="3">
-        <v>61600</v>
+        <v>12500</v>
       </c>
       <c r="H33" s="3">
-        <v>49100</v>
+        <v>66900</v>
       </c>
       <c r="I33" s="3">
-        <v>46700</v>
+        <v>50800</v>
       </c>
       <c r="J33" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K33" s="3">
         <v>73500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>525600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43900</v>
+        <v>292100</v>
       </c>
       <c r="E35" s="3">
-        <v>77700</v>
+        <v>-43700</v>
       </c>
       <c r="F35" s="3">
-        <v>12600</v>
+        <v>77300</v>
       </c>
       <c r="G35" s="3">
-        <v>61600</v>
+        <v>12500</v>
       </c>
       <c r="H35" s="3">
-        <v>49100</v>
+        <v>66900</v>
       </c>
       <c r="I35" s="3">
-        <v>46700</v>
+        <v>50800</v>
       </c>
       <c r="J35" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K35" s="3">
         <v>73500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>525600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2441900</v>
+        <v>1232800</v>
       </c>
       <c r="E41" s="3">
-        <v>1658100</v>
+        <v>2430800</v>
       </c>
       <c r="F41" s="3">
-        <v>747500</v>
+        <v>1650600</v>
       </c>
       <c r="G41" s="3">
-        <v>576700</v>
+        <v>744100</v>
       </c>
       <c r="H41" s="3">
-        <v>448000</v>
+        <v>574100</v>
       </c>
       <c r="I41" s="3">
-        <v>713200</v>
+        <v>445900</v>
       </c>
       <c r="J41" s="3">
+        <v>710000</v>
+      </c>
+      <c r="K41" s="3">
         <v>911600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>701300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>567300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>733300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>657000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>363300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>224900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>303300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>86700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>763000</v>
+        <v>2089700</v>
       </c>
       <c r="E42" s="3">
-        <v>954700</v>
+        <v>759500</v>
       </c>
       <c r="F42" s="3">
-        <v>422600</v>
+        <v>950300</v>
       </c>
       <c r="G42" s="3">
-        <v>595100</v>
+        <v>420600</v>
       </c>
       <c r="H42" s="3">
-        <v>605100</v>
+        <v>592400</v>
       </c>
       <c r="I42" s="3">
-        <v>262500</v>
+        <v>602400</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>261300</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>625900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>949300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>705300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>354800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>585400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>715100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>587700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>870200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>229200</v>
+        <v>277600</v>
       </c>
       <c r="E43" s="3">
-        <v>233700</v>
+        <v>228200</v>
       </c>
       <c r="F43" s="3">
-        <v>252500</v>
+        <v>232600</v>
       </c>
       <c r="G43" s="3">
-        <v>227900</v>
+        <v>251400</v>
       </c>
       <c r="H43" s="3">
-        <v>252900</v>
+        <v>226800</v>
       </c>
       <c r="I43" s="3">
-        <v>229700</v>
+        <v>251700</v>
       </c>
       <c r="J43" s="3">
+        <v>228700</v>
+      </c>
+      <c r="K43" s="3">
         <v>222400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>172100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>170100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>162700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>150100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>114700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>117500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2535,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>217100</v>
+        <v>257500</v>
       </c>
       <c r="E45" s="3">
-        <v>176000</v>
+        <v>216100</v>
       </c>
       <c r="F45" s="3">
-        <v>171200</v>
+        <v>175200</v>
       </c>
       <c r="G45" s="3">
-        <v>158400</v>
+        <v>170400</v>
       </c>
       <c r="H45" s="3">
-        <v>117000</v>
+        <v>157600</v>
       </c>
       <c r="I45" s="3">
-        <v>118200</v>
+        <v>116500</v>
       </c>
       <c r="J45" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K45" s="3">
         <v>83400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>119400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>105000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3651200</v>
+        <v>3857600</v>
       </c>
       <c r="E46" s="3">
-        <v>3022400</v>
+        <v>3634600</v>
       </c>
       <c r="F46" s="3">
-        <v>1593800</v>
+        <v>3008800</v>
       </c>
       <c r="G46" s="3">
-        <v>1558100</v>
+        <v>1586500</v>
       </c>
       <c r="H46" s="3">
-        <v>1423000</v>
+        <v>1551000</v>
       </c>
       <c r="I46" s="3">
-        <v>1323600</v>
+        <v>1416600</v>
       </c>
       <c r="J46" s="3">
+        <v>1317600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1217400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1618800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1791700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1682900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1243600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1149000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1130100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1077900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1138000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345800</v>
+        <v>14400</v>
       </c>
       <c r="E47" s="3">
-        <v>360000</v>
+        <v>344200</v>
       </c>
       <c r="F47" s="3">
-        <v>372000</v>
+        <v>358400</v>
       </c>
       <c r="G47" s="3">
-        <v>390900</v>
+        <v>370300</v>
       </c>
       <c r="H47" s="3">
-        <v>403800</v>
+        <v>389100</v>
       </c>
       <c r="I47" s="3">
-        <v>473900</v>
+        <v>401900</v>
       </c>
       <c r="J47" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K47" s="3">
         <v>483400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>524100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>598000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>168100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>105900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>918500</v>
+        <v>1054300</v>
       </c>
       <c r="E48" s="3">
-        <v>813600</v>
+        <v>914400</v>
       </c>
       <c r="F48" s="3">
-        <v>915200</v>
+        <v>810000</v>
       </c>
       <c r="G48" s="3">
-        <v>841700</v>
+        <v>911100</v>
       </c>
       <c r="H48" s="3">
-        <v>791300</v>
+        <v>837900</v>
       </c>
       <c r="I48" s="3">
-        <v>790700</v>
+        <v>787700</v>
       </c>
       <c r="J48" s="3">
+        <v>787100</v>
+      </c>
+      <c r="K48" s="3">
         <v>751100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>416600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>422500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>381800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>326000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>345700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>344300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>307800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>285600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>822600</v>
+        <v>1770400</v>
       </c>
       <c r="E49" s="3">
-        <v>826200</v>
+        <v>875900</v>
       </c>
       <c r="F49" s="3">
-        <v>829100</v>
+        <v>870000</v>
       </c>
       <c r="G49" s="3">
-        <v>842400</v>
+        <v>868800</v>
       </c>
       <c r="H49" s="3">
-        <v>846100</v>
+        <v>862400</v>
       </c>
       <c r="I49" s="3">
-        <v>851000</v>
+        <v>864200</v>
       </c>
       <c r="J49" s="3">
+        <v>861700</v>
+      </c>
+      <c r="K49" s="3">
         <v>850700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>906800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1004400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1005100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>221000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>213300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>219300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>204600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>211800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>156400</v>
+        <v>123000</v>
       </c>
       <c r="E52" s="3">
-        <v>157700</v>
+        <v>98700</v>
       </c>
       <c r="F52" s="3">
-        <v>147400</v>
+        <v>109500</v>
       </c>
       <c r="G52" s="3">
-        <v>123400</v>
+        <v>103300</v>
       </c>
       <c r="H52" s="3">
-        <v>120200</v>
+        <v>99000</v>
       </c>
       <c r="I52" s="3">
-        <v>119400</v>
+        <v>97800</v>
       </c>
       <c r="J52" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K52" s="3">
         <v>121000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>111800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>105400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>73700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5894500</v>
+        <v>6819700</v>
       </c>
       <c r="E54" s="3">
-        <v>5180100</v>
+        <v>5867800</v>
       </c>
       <c r="F54" s="3">
-        <v>3857400</v>
+        <v>5156600</v>
       </c>
       <c r="G54" s="3">
-        <v>3756400</v>
+        <v>3840000</v>
       </c>
       <c r="H54" s="3">
-        <v>3584400</v>
+        <v>3739400</v>
       </c>
       <c r="I54" s="3">
-        <v>3558600</v>
+        <v>3568100</v>
       </c>
       <c r="J54" s="3">
+        <v>3542500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3423600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3589600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3947700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3361800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2010400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1919100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1889200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1733000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1732200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,99 +3141,103 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>431400</v>
+        <v>585200</v>
       </c>
       <c r="E57" s="3">
-        <v>472500</v>
+        <v>429500</v>
       </c>
       <c r="F57" s="3">
-        <v>463500</v>
+        <v>470400</v>
       </c>
       <c r="G57" s="3">
-        <v>422200</v>
+        <v>461400</v>
       </c>
       <c r="H57" s="3">
-        <v>345500</v>
+        <v>420300</v>
       </c>
       <c r="I57" s="3">
-        <v>398600</v>
+        <v>343900</v>
       </c>
       <c r="J57" s="3">
+        <v>396800</v>
+      </c>
+      <c r="K57" s="3">
         <v>298800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>234700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>212800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>265900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>171100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>175600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>166900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>154000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>119200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>296800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>312800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>282700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>274600</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
@@ -3117,125 +3251,134 @@
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115400</v>
+        <v>184400</v>
       </c>
       <c r="E59" s="3">
-        <v>159500</v>
+        <v>114800</v>
       </c>
       <c r="F59" s="3">
-        <v>153200</v>
+        <v>158800</v>
       </c>
       <c r="G59" s="3">
-        <v>140300</v>
+        <v>152500</v>
       </c>
       <c r="H59" s="3">
-        <v>123800</v>
+        <v>139600</v>
       </c>
       <c r="I59" s="3">
-        <v>110100</v>
+        <v>123300</v>
       </c>
       <c r="J59" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K59" s="3">
         <v>90800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>103000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>102800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>69500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>102800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>546800</v>
+        <v>769600</v>
       </c>
       <c r="E60" s="3">
-        <v>632000</v>
+        <v>544300</v>
       </c>
       <c r="F60" s="3">
-        <v>616700</v>
+        <v>629100</v>
       </c>
       <c r="G60" s="3">
-        <v>562500</v>
+        <v>613900</v>
       </c>
       <c r="H60" s="3">
-        <v>469300</v>
+        <v>559900</v>
       </c>
       <c r="I60" s="3">
-        <v>508700</v>
+        <v>467200</v>
       </c>
       <c r="J60" s="3">
+        <v>506400</v>
+      </c>
+      <c r="K60" s="3">
         <v>389600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>616200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>628500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>632100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>548600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>257100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>258200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>223400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>222000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1032100</v>
+        <v>1177500</v>
       </c>
       <c r="E61" s="3">
-        <v>1139900</v>
+        <v>1027400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1134700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3262,75 +3405,81 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>274000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>276400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>260700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>284600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>166600</v>
+        <v>281100</v>
       </c>
       <c r="E62" s="3">
-        <v>156200</v>
+        <v>165900</v>
       </c>
       <c r="F62" s="3">
-        <v>200800</v>
+        <v>155500</v>
       </c>
       <c r="G62" s="3">
-        <v>149900</v>
+        <v>199800</v>
       </c>
       <c r="H62" s="3">
-        <v>172800</v>
+        <v>149200</v>
       </c>
       <c r="I62" s="3">
-        <v>175700</v>
+        <v>172000</v>
       </c>
       <c r="J62" s="3">
+        <v>174900</v>
+      </c>
+      <c r="K62" s="3">
         <v>190100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2217300</v>
+        <v>2582500</v>
       </c>
       <c r="E66" s="3">
-        <v>2404700</v>
+        <v>2207300</v>
       </c>
       <c r="F66" s="3">
-        <v>1274600</v>
+        <v>2393900</v>
       </c>
       <c r="G66" s="3">
-        <v>1174600</v>
+        <v>1268900</v>
       </c>
       <c r="H66" s="3">
-        <v>1103300</v>
+        <v>1169300</v>
       </c>
       <c r="I66" s="3">
-        <v>1145500</v>
+        <v>1098300</v>
       </c>
       <c r="J66" s="3">
+        <v>1140300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1053600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1059000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1113800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1125700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>734900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>651500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>647300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>542600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>562000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1636300</v>
+        <v>1897100</v>
       </c>
       <c r="E72" s="3">
-        <v>1692000</v>
+        <v>1628900</v>
       </c>
       <c r="F72" s="3">
-        <v>1619000</v>
+        <v>1684300</v>
       </c>
       <c r="G72" s="3">
-        <v>1621300</v>
+        <v>1611600</v>
       </c>
       <c r="H72" s="3">
-        <v>1562400</v>
+        <v>1614000</v>
       </c>
       <c r="I72" s="3">
-        <v>1522600</v>
+        <v>1555400</v>
       </c>
       <c r="J72" s="3">
+        <v>1515700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1476900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1590100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1698500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1171100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1047800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1061800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1055400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1033900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1027600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3677200</v>
+        <v>4237100</v>
       </c>
       <c r="E76" s="3">
-        <v>2775300</v>
+        <v>3660500</v>
       </c>
       <c r="F76" s="3">
-        <v>2582800</v>
+        <v>2762800</v>
       </c>
       <c r="G76" s="3">
-        <v>2581800</v>
+        <v>2571100</v>
       </c>
       <c r="H76" s="3">
-        <v>2481100</v>
+        <v>2570100</v>
       </c>
       <c r="I76" s="3">
-        <v>2413100</v>
+        <v>2469900</v>
       </c>
       <c r="J76" s="3">
+        <v>2402200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2370000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2530600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2833900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2236100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1275500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1267600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1241900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1190400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1170200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43900</v>
+        <v>292100</v>
       </c>
       <c r="E81" s="3">
-        <v>77700</v>
+        <v>-43700</v>
       </c>
       <c r="F81" s="3">
-        <v>12600</v>
+        <v>77300</v>
       </c>
       <c r="G81" s="3">
-        <v>61600</v>
+        <v>12500</v>
       </c>
       <c r="H81" s="3">
-        <v>49100</v>
+        <v>66900</v>
       </c>
       <c r="I81" s="3">
-        <v>46700</v>
+        <v>50800</v>
       </c>
       <c r="J81" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K81" s="3">
         <v>73500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>525600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55700</v>
+        <v>61000</v>
       </c>
       <c r="E83" s="3">
-        <v>53100</v>
+        <v>55500</v>
       </c>
       <c r="F83" s="3">
-        <v>52700</v>
+        <v>52900</v>
       </c>
       <c r="G83" s="3">
-        <v>50200</v>
+        <v>52400</v>
       </c>
       <c r="H83" s="3">
-        <v>49800</v>
+        <v>50000</v>
       </c>
       <c r="I83" s="3">
-        <v>43200</v>
+        <v>49500</v>
       </c>
       <c r="J83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K83" s="3">
         <v>42400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>249300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
-        <v>101900</v>
-      </c>
       <c r="F89" s="3">
-        <v>114300</v>
+        <v>101500</v>
       </c>
       <c r="G89" s="3">
-        <v>194600</v>
+        <v>113800</v>
       </c>
       <c r="H89" s="3">
-        <v>139700</v>
+        <v>193700</v>
       </c>
       <c r="I89" s="3">
-        <v>139500</v>
+        <v>139100</v>
       </c>
       <c r="J89" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K89" s="3">
         <v>114000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>107900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>107700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>116900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-136200</v>
+        <v>-61900</v>
       </c>
       <c r="E91" s="3">
-        <v>-31900</v>
+        <v>-135500</v>
       </c>
       <c r="F91" s="3">
-        <v>-73300</v>
+        <v>-31700</v>
       </c>
       <c r="G91" s="3">
-        <v>-70300</v>
+        <v>-73000</v>
       </c>
       <c r="H91" s="3">
-        <v>-102300</v>
+        <v>-70000</v>
       </c>
       <c r="I91" s="3">
-        <v>-26200</v>
+        <v>-101900</v>
       </c>
       <c r="J91" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-183600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-142200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-88700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-56800</v>
+        <v>-1526800</v>
       </c>
       <c r="E94" s="3">
-        <v>-488400</v>
+        <v>-56500</v>
       </c>
       <c r="F94" s="3">
-        <v>107200</v>
+        <v>-486100</v>
       </c>
       <c r="G94" s="3">
-        <v>-66500</v>
+        <v>106700</v>
       </c>
       <c r="H94" s="3">
-        <v>-396000</v>
+        <v>-66200</v>
       </c>
       <c r="I94" s="3">
-        <v>-295800</v>
+        <v>-394200</v>
       </c>
       <c r="J94" s="3">
+        <v>-294400</v>
+      </c>
+      <c r="K94" s="3">
         <v>404000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>223000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-294200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>180200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>88200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-195900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-189700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-379000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>930300</v>
+        <v>-66900</v>
       </c>
       <c r="E100" s="3">
-        <v>973300</v>
+        <v>926100</v>
       </c>
       <c r="F100" s="3">
-        <v>-28600</v>
+        <v>968900</v>
       </c>
       <c r="G100" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-287100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-146500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-88100</v>
+        <v>146400</v>
       </c>
       <c r="E101" s="3">
-        <v>323900</v>
+        <v>-87700</v>
       </c>
       <c r="F101" s="3">
-        <v>-22200</v>
+        <v>322400</v>
       </c>
       <c r="G101" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-42200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K101" s="3">
         <v>26400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>783700</v>
+        <v>-1197900</v>
       </c>
       <c r="E102" s="3">
-        <v>910800</v>
+        <v>780100</v>
       </c>
       <c r="F102" s="3">
-        <v>170700</v>
+        <v>906600</v>
       </c>
       <c r="G102" s="3">
-        <v>128800</v>
+        <v>169900</v>
       </c>
       <c r="H102" s="3">
-        <v>-265200</v>
+        <v>128200</v>
       </c>
       <c r="I102" s="3">
-        <v>-199000</v>
+        <v>-264000</v>
       </c>
       <c r="J102" s="3">
+        <v>-198100</v>
+      </c>
+      <c r="K102" s="3">
         <v>257300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>189600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-165700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>293700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>138000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-125800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-356200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>769400</v>
+        <v>941500</v>
       </c>
       <c r="E8" s="3">
-        <v>546200</v>
+        <v>767100</v>
       </c>
       <c r="F8" s="3">
-        <v>620000</v>
+        <v>544500</v>
       </c>
       <c r="G8" s="3">
-        <v>681900</v>
+        <v>618100</v>
       </c>
       <c r="H8" s="3">
-        <v>593700</v>
+        <v>679800</v>
       </c>
       <c r="I8" s="3">
-        <v>546000</v>
+        <v>591900</v>
       </c>
       <c r="J8" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K8" s="3">
         <v>491800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>514700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>462500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>468500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>419600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>429000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>360900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>340400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>313500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>335800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>292000</v>
+        <v>413500</v>
       </c>
       <c r="E9" s="3">
-        <v>209900</v>
+        <v>291200</v>
       </c>
       <c r="F9" s="3">
-        <v>214100</v>
+        <v>209200</v>
       </c>
       <c r="G9" s="3">
-        <v>233000</v>
+        <v>213500</v>
       </c>
       <c r="H9" s="3">
-        <v>184100</v>
+        <v>232300</v>
       </c>
       <c r="I9" s="3">
-        <v>165900</v>
+        <v>183600</v>
       </c>
       <c r="J9" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K9" s="3">
         <v>152800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>157100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>128700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>130400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>106000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>104700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>93100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>88500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>477400</v>
+        <v>528000</v>
       </c>
       <c r="E10" s="3">
-        <v>336300</v>
+        <v>476000</v>
       </c>
       <c r="F10" s="3">
-        <v>405800</v>
+        <v>335300</v>
       </c>
       <c r="G10" s="3">
-        <v>448900</v>
+        <v>404600</v>
       </c>
       <c r="H10" s="3">
-        <v>409600</v>
+        <v>447500</v>
       </c>
       <c r="I10" s="3">
-        <v>380100</v>
+        <v>408300</v>
       </c>
       <c r="J10" s="3">
+        <v>379000</v>
+      </c>
+      <c r="K10" s="3">
         <v>339000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>357600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>333800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>338100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>313600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>324400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>267900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>251900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>232300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>250200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>124200</v>
+        <v>131900</v>
       </c>
       <c r="E12" s="3">
-        <v>118300</v>
+        <v>123800</v>
       </c>
       <c r="F12" s="3">
-        <v>104600</v>
+        <v>118000</v>
       </c>
       <c r="G12" s="3">
-        <v>106900</v>
+        <v>104300</v>
       </c>
       <c r="H12" s="3">
-        <v>93900</v>
+        <v>106500</v>
       </c>
       <c r="I12" s="3">
-        <v>91000</v>
+        <v>93600</v>
       </c>
       <c r="J12" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K12" s="3">
         <v>95100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>85000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>91600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>80100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>70400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>68900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>68600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>65300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,49 +1064,52 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-253600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-252900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>10100</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-446000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1098,70 +1117,76 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63000</v>
+        <v>63700</v>
       </c>
       <c r="E15" s="3">
-        <v>53400</v>
+        <v>62900</v>
       </c>
       <c r="F15" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="G15" s="3">
-        <v>52400</v>
+        <v>52700</v>
       </c>
       <c r="H15" s="3">
-        <v>50000</v>
+        <v>52300</v>
       </c>
       <c r="I15" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="J15" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K15" s="3">
         <v>43000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>42400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>44300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>46200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>43500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>37400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>36600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>431800</v>
+        <v>883900</v>
       </c>
       <c r="E17" s="3">
-        <v>543300</v>
+        <v>430500</v>
       </c>
       <c r="F17" s="3">
-        <v>550200</v>
+        <v>541700</v>
       </c>
       <c r="G17" s="3">
-        <v>617400</v>
+        <v>548600</v>
       </c>
       <c r="H17" s="3">
-        <v>490100</v>
+        <v>615500</v>
       </c>
       <c r="I17" s="3">
-        <v>451900</v>
+        <v>488600</v>
       </c>
       <c r="J17" s="3">
+        <v>450600</v>
+      </c>
+      <c r="K17" s="3">
         <v>428300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>415800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>377900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-44700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>369700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>354900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>332500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>294200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>262300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>285100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>337600</v>
+        <v>57600</v>
       </c>
       <c r="E18" s="3">
+        <v>336600</v>
+      </c>
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3">
-        <v>69700</v>
-      </c>
       <c r="G18" s="3">
-        <v>64500</v>
+        <v>69500</v>
       </c>
       <c r="H18" s="3">
-        <v>103700</v>
+        <v>64300</v>
       </c>
       <c r="I18" s="3">
-        <v>94100</v>
+        <v>103400</v>
       </c>
       <c r="J18" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K18" s="3">
         <v>63500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>513300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>51200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,155 +1345,162 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>7900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-15900</v>
-      </c>
       <c r="F20" s="3">
-        <v>54600</v>
+        <v>-15800</v>
       </c>
       <c r="G20" s="3">
+        <v>54500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-19900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-23500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>418200</v>
+        <v>138300</v>
       </c>
       <c r="E21" s="3">
-        <v>53100</v>
+        <v>416900</v>
       </c>
       <c r="F21" s="3">
-        <v>185000</v>
+        <v>52900</v>
       </c>
       <c r="G21" s="3">
-        <v>112400</v>
+        <v>184500</v>
       </c>
       <c r="H21" s="3">
-        <v>157800</v>
+        <v>112100</v>
       </c>
       <c r="I21" s="3">
-        <v>136700</v>
+        <v>157300</v>
       </c>
       <c r="J21" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K21" s="3">
         <v>105900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>148900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>597100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>75200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>121600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>65200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>74900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E22" s="3">
         <v>9500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3500</v>
       </c>
       <c r="O22" s="3">
         <v>3500</v>
@@ -1470,131 +1509,140 @@
         <v>3500</v>
       </c>
       <c r="Q22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>336000</v>
+        <v>55100</v>
       </c>
       <c r="E23" s="3">
-        <v>-22000</v>
+        <v>335000</v>
       </c>
       <c r="F23" s="3">
-        <v>121400</v>
+        <v>-21900</v>
       </c>
       <c r="G23" s="3">
-        <v>44200</v>
+        <v>121100</v>
       </c>
       <c r="H23" s="3">
-        <v>107400</v>
+        <v>44000</v>
       </c>
       <c r="I23" s="3">
-        <v>87000</v>
+        <v>107100</v>
       </c>
       <c r="J23" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K23" s="3">
         <v>62900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>96000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>547000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>49800</v>
       </c>
       <c r="E24" s="3">
-        <v>26300</v>
+        <v>46900</v>
       </c>
       <c r="F24" s="3">
-        <v>48900</v>
+        <v>26200</v>
       </c>
       <c r="G24" s="3">
-        <v>40500</v>
+        <v>48800</v>
       </c>
       <c r="H24" s="3">
-        <v>44100</v>
+        <v>40300</v>
       </c>
       <c r="I24" s="3">
-        <v>40000</v>
+        <v>43900</v>
       </c>
       <c r="J24" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K24" s="3">
         <v>29200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>289000</v>
+        <v>5300</v>
       </c>
       <c r="E26" s="3">
-        <v>-48200</v>
+        <v>288100</v>
       </c>
       <c r="F26" s="3">
-        <v>72500</v>
+        <v>-48100</v>
       </c>
       <c r="G26" s="3">
+        <v>72300</v>
+      </c>
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
-        <v>63300</v>
-      </c>
       <c r="I26" s="3">
-        <v>47000</v>
+        <v>63100</v>
       </c>
       <c r="J26" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K26" s="3">
         <v>33700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>514400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>292100</v>
+        <v>10700</v>
       </c>
       <c r="E27" s="3">
-        <v>-43700</v>
+        <v>291300</v>
       </c>
       <c r="F27" s="3">
-        <v>77300</v>
+        <v>-43500</v>
       </c>
       <c r="G27" s="3">
+        <v>77100</v>
+      </c>
+      <c r="H27" s="3">
         <v>12500</v>
       </c>
-      <c r="H27" s="3">
-        <v>66900</v>
-      </c>
       <c r="I27" s="3">
-        <v>50800</v>
+        <v>66700</v>
       </c>
       <c r="J27" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K27" s="3">
         <v>38900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>525600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7900</v>
       </c>
-      <c r="E32" s="3">
-        <v>15900</v>
-      </c>
       <c r="F32" s="3">
-        <v>-54600</v>
+        <v>15800</v>
       </c>
       <c r="G32" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="H32" s="3">
         <v>19900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>23500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>292100</v>
+        <v>10700</v>
       </c>
       <c r="E33" s="3">
-        <v>-43700</v>
+        <v>291300</v>
       </c>
       <c r="F33" s="3">
-        <v>77300</v>
+        <v>-43500</v>
       </c>
       <c r="G33" s="3">
+        <v>77100</v>
+      </c>
+      <c r="H33" s="3">
         <v>12500</v>
       </c>
-      <c r="H33" s="3">
-        <v>66900</v>
-      </c>
       <c r="I33" s="3">
-        <v>50800</v>
+        <v>66700</v>
       </c>
       <c r="J33" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K33" s="3">
         <v>38900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>73500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>525600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>292100</v>
+        <v>10700</v>
       </c>
       <c r="E35" s="3">
-        <v>-43700</v>
+        <v>291300</v>
       </c>
       <c r="F35" s="3">
-        <v>77300</v>
+        <v>-43500</v>
       </c>
       <c r="G35" s="3">
+        <v>77100</v>
+      </c>
+      <c r="H35" s="3">
         <v>12500</v>
       </c>
-      <c r="H35" s="3">
-        <v>66900</v>
-      </c>
       <c r="I35" s="3">
-        <v>50800</v>
+        <v>66700</v>
       </c>
       <c r="J35" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K35" s="3">
         <v>38900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>73500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>525600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,199 +2399,209 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1232800</v>
+        <v>1741000</v>
       </c>
       <c r="E41" s="3">
-        <v>2430800</v>
+        <v>1229000</v>
       </c>
       <c r="F41" s="3">
-        <v>1650600</v>
+        <v>2423400</v>
       </c>
       <c r="G41" s="3">
-        <v>744100</v>
+        <v>1645600</v>
       </c>
       <c r="H41" s="3">
-        <v>574100</v>
+        <v>741900</v>
       </c>
       <c r="I41" s="3">
-        <v>445900</v>
+        <v>572400</v>
       </c>
       <c r="J41" s="3">
+        <v>444600</v>
+      </c>
+      <c r="K41" s="3">
         <v>710000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>911600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>701300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>567300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>733300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>657000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>363300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>224900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>303300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>86700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2089700</v>
+        <v>1391100</v>
       </c>
       <c r="E42" s="3">
-        <v>759500</v>
+        <v>2083400</v>
       </c>
       <c r="F42" s="3">
-        <v>950300</v>
+        <v>757200</v>
       </c>
       <c r="G42" s="3">
-        <v>420600</v>
+        <v>947500</v>
       </c>
       <c r="H42" s="3">
-        <v>592400</v>
+        <v>419400</v>
       </c>
       <c r="I42" s="3">
-        <v>602400</v>
+        <v>590600</v>
       </c>
       <c r="J42" s="3">
+        <v>600600</v>
+      </c>
+      <c r="K42" s="3">
         <v>261300</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>625900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>949300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>705300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>354800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>585400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>715100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>587700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>870200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>277600</v>
+        <v>364600</v>
       </c>
       <c r="E43" s="3">
-        <v>228200</v>
+        <v>276800</v>
       </c>
       <c r="F43" s="3">
-        <v>232600</v>
+        <v>227500</v>
       </c>
       <c r="G43" s="3">
-        <v>251400</v>
+        <v>231900</v>
       </c>
       <c r="H43" s="3">
-        <v>226800</v>
+        <v>250600</v>
       </c>
       <c r="I43" s="3">
-        <v>251700</v>
+        <v>226200</v>
       </c>
       <c r="J43" s="3">
+        <v>251000</v>
+      </c>
+      <c r="K43" s="3">
         <v>228700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>222400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>172100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>170100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>162700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>150100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>119900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>114700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>117500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>63300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2538,288 +2633,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257500</v>
+        <v>258800</v>
       </c>
       <c r="E45" s="3">
-        <v>216100</v>
+        <v>256700</v>
       </c>
       <c r="F45" s="3">
-        <v>175200</v>
+        <v>215500</v>
       </c>
       <c r="G45" s="3">
-        <v>170400</v>
+        <v>174700</v>
       </c>
       <c r="H45" s="3">
-        <v>157600</v>
+        <v>169900</v>
       </c>
       <c r="I45" s="3">
-        <v>116500</v>
+        <v>157200</v>
       </c>
       <c r="J45" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K45" s="3">
         <v>117700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>119400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>105000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3857600</v>
+        <v>3818800</v>
       </c>
       <c r="E46" s="3">
-        <v>3634600</v>
+        <v>3845900</v>
       </c>
       <c r="F46" s="3">
-        <v>3008800</v>
+        <v>3623600</v>
       </c>
       <c r="G46" s="3">
-        <v>1586500</v>
+        <v>2999600</v>
       </c>
       <c r="H46" s="3">
-        <v>1551000</v>
+        <v>1581700</v>
       </c>
       <c r="I46" s="3">
-        <v>1416600</v>
+        <v>1546300</v>
       </c>
       <c r="J46" s="3">
+        <v>1412300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1317600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1217400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1618800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1791700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1682900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1243600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1130100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1077900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1138000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E47" s="3">
         <v>14400</v>
       </c>
-      <c r="E47" s="3">
-        <v>344200</v>
-      </c>
       <c r="F47" s="3">
-        <v>358400</v>
+        <v>343200</v>
       </c>
       <c r="G47" s="3">
-        <v>370300</v>
+        <v>357300</v>
       </c>
       <c r="H47" s="3">
-        <v>389100</v>
+        <v>369200</v>
       </c>
       <c r="I47" s="3">
-        <v>401900</v>
+        <v>387900</v>
       </c>
       <c r="J47" s="3">
+        <v>400700</v>
+      </c>
+      <c r="K47" s="3">
         <v>471800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>483400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>524100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>598000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>168100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>105600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1054300</v>
+        <v>1085800</v>
       </c>
       <c r="E48" s="3">
-        <v>914400</v>
+        <v>1051100</v>
       </c>
       <c r="F48" s="3">
-        <v>810000</v>
+        <v>911600</v>
       </c>
       <c r="G48" s="3">
-        <v>911100</v>
+        <v>807500</v>
       </c>
       <c r="H48" s="3">
-        <v>837900</v>
+        <v>908300</v>
       </c>
       <c r="I48" s="3">
-        <v>787700</v>
+        <v>835300</v>
       </c>
       <c r="J48" s="3">
+        <v>785300</v>
+      </c>
+      <c r="K48" s="3">
         <v>787100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>751100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>416600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>422500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>381800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>326000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>345700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>344300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>307800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>285600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1770400</v>
+        <v>1785800</v>
       </c>
       <c r="E49" s="3">
-        <v>875900</v>
+        <v>1765000</v>
       </c>
       <c r="F49" s="3">
-        <v>870000</v>
+        <v>873200</v>
       </c>
       <c r="G49" s="3">
-        <v>868800</v>
+        <v>867400</v>
       </c>
       <c r="H49" s="3">
-        <v>862400</v>
+        <v>866100</v>
       </c>
       <c r="I49" s="3">
-        <v>864200</v>
+        <v>859800</v>
       </c>
       <c r="J49" s="3">
+        <v>861500</v>
+      </c>
+      <c r="K49" s="3">
         <v>861700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>850700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>906800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1004400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1005100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>221000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>213300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>219300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>204600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>211800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>123000</v>
+        <v>104200</v>
       </c>
       <c r="E52" s="3">
+        <v>122600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>98400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>109100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>103000</v>
+      </c>
+      <c r="I52" s="3">
         <v>98700</v>
       </c>
-      <c r="F52" s="3">
-        <v>109500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>103300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>99000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>97800</v>
-      </c>
       <c r="J52" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K52" s="3">
         <v>104300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>111800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>105400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>89700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>78300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>73700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6819700</v>
+        <v>6809500</v>
       </c>
       <c r="E54" s="3">
-        <v>5867800</v>
+        <v>6799000</v>
       </c>
       <c r="F54" s="3">
-        <v>5156600</v>
+        <v>5850000</v>
       </c>
       <c r="G54" s="3">
-        <v>3840000</v>
+        <v>5141000</v>
       </c>
       <c r="H54" s="3">
-        <v>3739400</v>
+        <v>3828300</v>
       </c>
       <c r="I54" s="3">
-        <v>3568100</v>
+        <v>3728000</v>
       </c>
       <c r="J54" s="3">
+        <v>3557300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3542500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3423600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3589600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3947700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3361800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2010400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1919100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1889200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1733000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1732200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>585200</v>
+        <v>573800</v>
       </c>
       <c r="E57" s="3">
-        <v>429500</v>
+        <v>583400</v>
       </c>
       <c r="F57" s="3">
-        <v>470400</v>
+        <v>428200</v>
       </c>
       <c r="G57" s="3">
-        <v>461400</v>
+        <v>469000</v>
       </c>
       <c r="H57" s="3">
-        <v>420300</v>
+        <v>460000</v>
       </c>
       <c r="I57" s="3">
-        <v>343900</v>
+        <v>419000</v>
       </c>
       <c r="J57" s="3">
+        <v>342800</v>
+      </c>
+      <c r="K57" s="3">
         <v>396800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>298800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>234700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>212800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>265900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>171100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>175600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>166900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>154000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>119200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3228,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>296800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>312800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>282700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>274600</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
@@ -3254,134 +3387,143 @@
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>184400</v>
+        <v>237800</v>
       </c>
       <c r="E59" s="3">
-        <v>114800</v>
+        <v>183800</v>
       </c>
       <c r="F59" s="3">
-        <v>158800</v>
+        <v>114500</v>
       </c>
       <c r="G59" s="3">
-        <v>152500</v>
+        <v>158300</v>
       </c>
       <c r="H59" s="3">
-        <v>139600</v>
+        <v>152000</v>
       </c>
       <c r="I59" s="3">
-        <v>123300</v>
+        <v>139200</v>
       </c>
       <c r="J59" s="3">
+        <v>122900</v>
+      </c>
+      <c r="K59" s="3">
         <v>109600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>90800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>103000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>102800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>91200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>69500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>102800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>769600</v>
+        <v>811600</v>
       </c>
       <c r="E60" s="3">
-        <v>544300</v>
+        <v>767200</v>
       </c>
       <c r="F60" s="3">
-        <v>629100</v>
+        <v>542700</v>
       </c>
       <c r="G60" s="3">
-        <v>613900</v>
+        <v>627200</v>
       </c>
       <c r="H60" s="3">
-        <v>559900</v>
+        <v>612000</v>
       </c>
       <c r="I60" s="3">
-        <v>467200</v>
+        <v>558200</v>
       </c>
       <c r="J60" s="3">
+        <v>465700</v>
+      </c>
+      <c r="K60" s="3">
         <v>506400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>389600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>616200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>628500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>632100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>548600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>257100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>258200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>223400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>222000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1177500</v>
+        <v>1095100</v>
       </c>
       <c r="E61" s="3">
-        <v>1027400</v>
+        <v>1174000</v>
       </c>
       <c r="F61" s="3">
-        <v>1134700</v>
+        <v>1024300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1131300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3408,78 +3550,84 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>274000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>276400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>260700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>284600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>281100</v>
+        <v>310000</v>
       </c>
       <c r="E62" s="3">
-        <v>165900</v>
+        <v>280300</v>
       </c>
       <c r="F62" s="3">
-        <v>155500</v>
+        <v>165400</v>
       </c>
       <c r="G62" s="3">
-        <v>199800</v>
+        <v>155000</v>
       </c>
       <c r="H62" s="3">
-        <v>149200</v>
+        <v>199200</v>
       </c>
       <c r="I62" s="3">
-        <v>172000</v>
+        <v>148800</v>
       </c>
       <c r="J62" s="3">
+        <v>171500</v>
+      </c>
+      <c r="K62" s="3">
         <v>174900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>190100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2582500</v>
+        <v>2522600</v>
       </c>
       <c r="E66" s="3">
-        <v>2207300</v>
+        <v>2574700</v>
       </c>
       <c r="F66" s="3">
-        <v>2393900</v>
+        <v>2200600</v>
       </c>
       <c r="G66" s="3">
-        <v>1268900</v>
+        <v>2386600</v>
       </c>
       <c r="H66" s="3">
-        <v>1169300</v>
+        <v>1265000</v>
       </c>
       <c r="I66" s="3">
-        <v>1098300</v>
+        <v>1165700</v>
       </c>
       <c r="J66" s="3">
+        <v>1094900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1140300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1053600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1059000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1113800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1125700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>734900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>651500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>647300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>542600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>562000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1897100</v>
+        <v>1932900</v>
       </c>
       <c r="E72" s="3">
-        <v>1628900</v>
+        <v>1891400</v>
       </c>
       <c r="F72" s="3">
-        <v>1684300</v>
+        <v>1624000</v>
       </c>
       <c r="G72" s="3">
-        <v>1611600</v>
+        <v>1679200</v>
       </c>
       <c r="H72" s="3">
-        <v>1614000</v>
+        <v>1606800</v>
       </c>
       <c r="I72" s="3">
-        <v>1555400</v>
+        <v>1609100</v>
       </c>
       <c r="J72" s="3">
+        <v>1550600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1515700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1476900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1590100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1698500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1171100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1047800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1061800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1055400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1033900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1027600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4237100</v>
+        <v>4286900</v>
       </c>
       <c r="E76" s="3">
-        <v>3660500</v>
+        <v>4224300</v>
       </c>
       <c r="F76" s="3">
-        <v>2762800</v>
+        <v>3649400</v>
       </c>
       <c r="G76" s="3">
-        <v>2571100</v>
+        <v>2754400</v>
       </c>
       <c r="H76" s="3">
-        <v>2570100</v>
+        <v>2563300</v>
       </c>
       <c r="I76" s="3">
-        <v>2469900</v>
+        <v>2562300</v>
       </c>
       <c r="J76" s="3">
+        <v>2462400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2402200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2370000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2530600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2833900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2236100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1275500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1267600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1241900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1190400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1170200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>292100</v>
+        <v>10700</v>
       </c>
       <c r="E81" s="3">
-        <v>-43700</v>
+        <v>291300</v>
       </c>
       <c r="F81" s="3">
-        <v>77300</v>
+        <v>-43500</v>
       </c>
       <c r="G81" s="3">
+        <v>77100</v>
+      </c>
+      <c r="H81" s="3">
         <v>12500</v>
       </c>
-      <c r="H81" s="3">
-        <v>66900</v>
-      </c>
       <c r="I81" s="3">
-        <v>50800</v>
+        <v>66700</v>
       </c>
       <c r="J81" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K81" s="3">
         <v>38900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>73500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>525600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61000</v>
+        <v>63700</v>
       </c>
       <c r="E83" s="3">
-        <v>55500</v>
+        <v>60800</v>
       </c>
       <c r="F83" s="3">
-        <v>52900</v>
+        <v>55300</v>
       </c>
       <c r="G83" s="3">
-        <v>52400</v>
+        <v>52700</v>
       </c>
       <c r="H83" s="3">
-        <v>50000</v>
+        <v>52300</v>
       </c>
       <c r="I83" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="J83" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K83" s="3">
         <v>43000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>249300</v>
+        <v>80700</v>
       </c>
       <c r="E89" s="3">
+        <v>248600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
-        <v>101500</v>
-      </c>
       <c r="G89" s="3">
-        <v>113800</v>
+        <v>101200</v>
       </c>
       <c r="H89" s="3">
-        <v>193700</v>
+        <v>113400</v>
       </c>
       <c r="I89" s="3">
-        <v>139100</v>
+        <v>193100</v>
       </c>
       <c r="J89" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K89" s="3">
         <v>138900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>114000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>107900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>107700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>81900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>116900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61900</v>
+        <v>-94400</v>
       </c>
       <c r="E91" s="3">
-        <v>-135500</v>
+        <v>-61700</v>
       </c>
       <c r="F91" s="3">
-        <v>-31700</v>
+        <v>-135100</v>
       </c>
       <c r="G91" s="3">
-        <v>-73000</v>
+        <v>-31600</v>
       </c>
       <c r="H91" s="3">
-        <v>-70000</v>
+        <v>-72800</v>
       </c>
       <c r="I91" s="3">
-        <v>-101900</v>
+        <v>-69800</v>
       </c>
       <c r="J91" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-142200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-88700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1526800</v>
+        <v>485900</v>
       </c>
       <c r="E94" s="3">
-        <v>-56500</v>
+        <v>-1522100</v>
       </c>
       <c r="F94" s="3">
-        <v>-486100</v>
+        <v>-56400</v>
       </c>
       <c r="G94" s="3">
-        <v>106700</v>
+        <v>-484700</v>
       </c>
       <c r="H94" s="3">
-        <v>-66200</v>
+        <v>106400</v>
       </c>
       <c r="I94" s="3">
-        <v>-394200</v>
+        <v>-66000</v>
       </c>
       <c r="J94" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-294400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>404000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>223000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-294200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>180200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>88200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-195900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-189700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-379000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-66900</v>
+        <v>14100</v>
       </c>
       <c r="E100" s="3">
-        <v>926100</v>
+        <v>-66700</v>
       </c>
       <c r="F100" s="3">
-        <v>968900</v>
+        <v>923300</v>
       </c>
       <c r="G100" s="3">
-        <v>-28400</v>
+        <v>966000</v>
       </c>
       <c r="H100" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-287100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-146500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>146400</v>
+        <v>-68700</v>
       </c>
       <c r="E101" s="3">
-        <v>-87700</v>
+        <v>145900</v>
       </c>
       <c r="F101" s="3">
-        <v>322400</v>
+        <v>-87500</v>
       </c>
       <c r="G101" s="3">
+        <v>321400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-22100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-42000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1197900</v>
+        <v>512000</v>
       </c>
       <c r="E102" s="3">
-        <v>780100</v>
+        <v>-1194300</v>
       </c>
       <c r="F102" s="3">
-        <v>906600</v>
+        <v>777800</v>
       </c>
       <c r="G102" s="3">
-        <v>169900</v>
+        <v>903900</v>
       </c>
       <c r="H102" s="3">
-        <v>128200</v>
+        <v>169400</v>
       </c>
       <c r="I102" s="3">
-        <v>-264000</v>
+        <v>127800</v>
       </c>
       <c r="J102" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-198100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>257300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>189600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-165700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>53400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>293700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>138000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-82000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-125800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-356200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>941500</v>
+        <v>995400</v>
       </c>
       <c r="E8" s="3">
-        <v>767100</v>
+        <v>974500</v>
       </c>
       <c r="F8" s="3">
-        <v>544500</v>
+        <v>793900</v>
       </c>
       <c r="G8" s="3">
-        <v>618100</v>
+        <v>563500</v>
       </c>
       <c r="H8" s="3">
-        <v>679800</v>
+        <v>639700</v>
       </c>
       <c r="I8" s="3">
-        <v>591900</v>
+        <v>703600</v>
       </c>
       <c r="J8" s="3">
+        <v>612600</v>
+      </c>
+      <c r="K8" s="3">
         <v>544400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>491800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>514700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>462500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>468500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>419600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>429000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>360900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>340400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>313500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>335800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>413500</v>
+        <v>463300</v>
       </c>
       <c r="E9" s="3">
-        <v>291200</v>
+        <v>428000</v>
       </c>
       <c r="F9" s="3">
-        <v>209200</v>
+        <v>301300</v>
       </c>
       <c r="G9" s="3">
-        <v>213500</v>
+        <v>216600</v>
       </c>
       <c r="H9" s="3">
-        <v>232300</v>
+        <v>221000</v>
       </c>
       <c r="I9" s="3">
-        <v>183600</v>
+        <v>240400</v>
       </c>
       <c r="J9" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K9" s="3">
         <v>165400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>152800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>157100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>128700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>130400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>106000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>104700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>93100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>88500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>85600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>528000</v>
+        <v>532100</v>
       </c>
       <c r="E10" s="3">
-        <v>476000</v>
+        <v>546500</v>
       </c>
       <c r="F10" s="3">
-        <v>335300</v>
+        <v>492600</v>
       </c>
       <c r="G10" s="3">
-        <v>404600</v>
+        <v>347000</v>
       </c>
       <c r="H10" s="3">
-        <v>447500</v>
+        <v>418800</v>
       </c>
       <c r="I10" s="3">
-        <v>408300</v>
+        <v>463200</v>
       </c>
       <c r="J10" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K10" s="3">
         <v>379000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>339000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>357600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>333800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>338100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>313600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>324400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>267900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>251900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>232300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>250200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>131900</v>
+        <v>149800</v>
       </c>
       <c r="E12" s="3">
-        <v>123800</v>
+        <v>136500</v>
       </c>
       <c r="F12" s="3">
-        <v>118000</v>
+        <v>128100</v>
       </c>
       <c r="G12" s="3">
-        <v>104300</v>
+        <v>122100</v>
       </c>
       <c r="H12" s="3">
-        <v>106500</v>
+        <v>107900</v>
       </c>
       <c r="I12" s="3">
-        <v>93600</v>
+        <v>110300</v>
       </c>
       <c r="J12" s="3">
+        <v>96900</v>
+      </c>
+      <c r="K12" s="3">
         <v>90700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>95100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>78600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>85000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>91600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>80100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>70400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>68900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>68600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>65300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,52 +1084,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>-252900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-261700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>10000</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-446000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1120,73 +1140,79 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63700</v>
+        <v>71500</v>
       </c>
       <c r="E15" s="3">
-        <v>62900</v>
+        <v>65900</v>
       </c>
       <c r="F15" s="3">
-        <v>53300</v>
+        <v>65100</v>
       </c>
       <c r="G15" s="3">
-        <v>52700</v>
+        <v>55100</v>
       </c>
       <c r="H15" s="3">
-        <v>52300</v>
+        <v>54600</v>
       </c>
       <c r="I15" s="3">
-        <v>49800</v>
+        <v>54100</v>
       </c>
       <c r="J15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K15" s="3">
         <v>49400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>43000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>42400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>37400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>36600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>883900</v>
+        <v>1009800</v>
       </c>
       <c r="E17" s="3">
-        <v>430500</v>
+        <v>914900</v>
       </c>
       <c r="F17" s="3">
-        <v>541700</v>
+        <v>445600</v>
       </c>
       <c r="G17" s="3">
-        <v>548600</v>
+        <v>560600</v>
       </c>
       <c r="H17" s="3">
-        <v>615500</v>
+        <v>567700</v>
       </c>
       <c r="I17" s="3">
-        <v>488600</v>
+        <v>637000</v>
       </c>
       <c r="J17" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K17" s="3">
         <v>450600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>428300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>415800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>377900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-44700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>369700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>354900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>332500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>294200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>262300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>285100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>57600</v>
+        <v>-14400</v>
       </c>
       <c r="E18" s="3">
-        <v>336600</v>
+        <v>59600</v>
       </c>
       <c r="F18" s="3">
-        <v>2800</v>
+        <v>348400</v>
       </c>
       <c r="G18" s="3">
-        <v>69500</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="3">
-        <v>64300</v>
+        <v>72000</v>
       </c>
       <c r="I18" s="3">
-        <v>103400</v>
+        <v>66600</v>
       </c>
       <c r="J18" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K18" s="3">
         <v>93800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>98900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>84600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>513300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,164 +1379,171 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7300</v>
+        <v>20600</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
-        <v>-15800</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3">
-        <v>54500</v>
+        <v>-16400</v>
       </c>
       <c r="H20" s="3">
-        <v>-19900</v>
+        <v>56400</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>-20600</v>
       </c>
       <c r="J20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-23500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>138300</v>
+        <v>96700</v>
       </c>
       <c r="E21" s="3">
-        <v>416900</v>
+        <v>143200</v>
       </c>
       <c r="F21" s="3">
-        <v>52900</v>
+        <v>431500</v>
       </c>
       <c r="G21" s="3">
-        <v>184500</v>
+        <v>54800</v>
       </c>
       <c r="H21" s="3">
-        <v>112100</v>
+        <v>190900</v>
       </c>
       <c r="I21" s="3">
-        <v>157300</v>
+        <v>116000</v>
       </c>
       <c r="J21" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K21" s="3">
         <v>136300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>148900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>597100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>133100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>75200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>121600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>65200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>74900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F22" s="3">
         <v>9800</v>
       </c>
-      <c r="E22" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8900</v>
-      </c>
       <c r="G22" s="3">
-        <v>3000</v>
+        <v>9200</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3500</v>
       </c>
       <c r="P22" s="3">
         <v>3500</v>
@@ -1512,137 +1552,146 @@
         <v>3500</v>
       </c>
       <c r="R22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55100</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
-        <v>335000</v>
+        <v>57000</v>
       </c>
       <c r="F23" s="3">
-        <v>-21900</v>
+        <v>346700</v>
       </c>
       <c r="G23" s="3">
-        <v>121100</v>
+        <v>-22700</v>
       </c>
       <c r="H23" s="3">
-        <v>44000</v>
+        <v>125300</v>
       </c>
       <c r="I23" s="3">
-        <v>107100</v>
+        <v>45600</v>
       </c>
       <c r="J23" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K23" s="3">
         <v>86700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>103500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>547000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>83100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49800</v>
+        <v>53400</v>
       </c>
       <c r="E24" s="3">
-        <v>46900</v>
+        <v>51600</v>
       </c>
       <c r="F24" s="3">
-        <v>26200</v>
+        <v>48500</v>
       </c>
       <c r="G24" s="3">
-        <v>48800</v>
+        <v>27100</v>
       </c>
       <c r="H24" s="3">
-        <v>40300</v>
+        <v>50500</v>
       </c>
       <c r="I24" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="J24" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K24" s="3">
         <v>39900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5300</v>
+        <v>-57900</v>
       </c>
       <c r="E26" s="3">
-        <v>288100</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="3">
-        <v>-48100</v>
+        <v>298200</v>
       </c>
       <c r="G26" s="3">
-        <v>72300</v>
+        <v>-49800</v>
       </c>
       <c r="H26" s="3">
-        <v>3700</v>
+        <v>74800</v>
       </c>
       <c r="I26" s="3">
-        <v>63100</v>
+        <v>3800</v>
       </c>
       <c r="J26" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K26" s="3">
         <v>46900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>514400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10700</v>
+        <v>-54600</v>
       </c>
       <c r="E27" s="3">
-        <v>291300</v>
+        <v>11100</v>
       </c>
       <c r="F27" s="3">
-        <v>-43500</v>
+        <v>301400</v>
       </c>
       <c r="G27" s="3">
-        <v>77100</v>
+        <v>-45100</v>
       </c>
       <c r="H27" s="3">
-        <v>12500</v>
+        <v>79800</v>
       </c>
       <c r="I27" s="3">
-        <v>66700</v>
+        <v>12900</v>
       </c>
       <c r="J27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K27" s="3">
         <v>50700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>525600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7300</v>
+        <v>-20600</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
-        <v>15800</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3">
-        <v>-54500</v>
+        <v>16400</v>
       </c>
       <c r="H32" s="3">
-        <v>19900</v>
+        <v>-56400</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>20600</v>
       </c>
       <c r="J32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K32" s="3">
         <v>6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>23500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10700</v>
+        <v>-54600</v>
       </c>
       <c r="E33" s="3">
-        <v>291300</v>
+        <v>11100</v>
       </c>
       <c r="F33" s="3">
-        <v>-43500</v>
+        <v>301400</v>
       </c>
       <c r="G33" s="3">
-        <v>77100</v>
+        <v>-45100</v>
       </c>
       <c r="H33" s="3">
-        <v>12500</v>
+        <v>79800</v>
       </c>
       <c r="I33" s="3">
-        <v>66700</v>
+        <v>12900</v>
       </c>
       <c r="J33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K33" s="3">
         <v>50700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>525600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10700</v>
+        <v>-54600</v>
       </c>
       <c r="E35" s="3">
-        <v>291300</v>
+        <v>11100</v>
       </c>
       <c r="F35" s="3">
-        <v>-43500</v>
+        <v>301400</v>
       </c>
       <c r="G35" s="3">
-        <v>77100</v>
+        <v>-45100</v>
       </c>
       <c r="H35" s="3">
-        <v>12500</v>
+        <v>79800</v>
       </c>
       <c r="I35" s="3">
-        <v>66700</v>
+        <v>12900</v>
       </c>
       <c r="J35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K35" s="3">
         <v>50700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>525600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,193 +2486,203 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1741000</v>
+        <v>1264100</v>
       </c>
       <c r="E41" s="3">
-        <v>1229000</v>
+        <v>1801900</v>
       </c>
       <c r="F41" s="3">
-        <v>2423400</v>
+        <v>1272000</v>
       </c>
       <c r="G41" s="3">
-        <v>1645600</v>
+        <v>2508200</v>
       </c>
       <c r="H41" s="3">
-        <v>741900</v>
+        <v>1703200</v>
       </c>
       <c r="I41" s="3">
-        <v>572400</v>
+        <v>767800</v>
       </c>
       <c r="J41" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K41" s="3">
         <v>444600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>710000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>911600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>701300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>567300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>733300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>657000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>363300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>224900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>303300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>86700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1391100</v>
+        <v>1880600</v>
       </c>
       <c r="E42" s="3">
-        <v>2083400</v>
+        <v>1439800</v>
       </c>
       <c r="F42" s="3">
-        <v>757200</v>
+        <v>2156300</v>
       </c>
       <c r="G42" s="3">
-        <v>947500</v>
+        <v>783700</v>
       </c>
       <c r="H42" s="3">
-        <v>419400</v>
+        <v>980600</v>
       </c>
       <c r="I42" s="3">
-        <v>590600</v>
+        <v>434000</v>
       </c>
       <c r="J42" s="3">
+        <v>611200</v>
+      </c>
+      <c r="K42" s="3">
         <v>600600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>261300</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>625900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>949300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>705300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>354800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>585400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>715100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>587700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>870200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>364600</v>
+        <v>407800</v>
       </c>
       <c r="E43" s="3">
-        <v>276800</v>
+        <v>377400</v>
       </c>
       <c r="F43" s="3">
-        <v>227500</v>
+        <v>286400</v>
       </c>
       <c r="G43" s="3">
-        <v>231900</v>
+        <v>235400</v>
       </c>
       <c r="H43" s="3">
-        <v>250600</v>
+        <v>240000</v>
       </c>
       <c r="I43" s="3">
-        <v>226200</v>
+        <v>259400</v>
       </c>
       <c r="J43" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K43" s="3">
         <v>251000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>228700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>222400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>172100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>170100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>162700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>150100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>119900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>114700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>117500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>87200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>65500</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -2603,8 +2699,8 @@
       <c r="J44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2636,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>258800</v>
+        <v>329900</v>
       </c>
       <c r="E45" s="3">
-        <v>256700</v>
+        <v>267800</v>
       </c>
       <c r="F45" s="3">
-        <v>215500</v>
+        <v>265700</v>
       </c>
       <c r="G45" s="3">
-        <v>174700</v>
+        <v>223000</v>
       </c>
       <c r="H45" s="3">
-        <v>169900</v>
+        <v>180800</v>
       </c>
       <c r="I45" s="3">
-        <v>157200</v>
+        <v>175800</v>
       </c>
       <c r="J45" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K45" s="3">
         <v>116200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>83400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>119400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>105000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3818800</v>
+        <v>3969600</v>
       </c>
       <c r="E46" s="3">
-        <v>3845900</v>
+        <v>3952400</v>
       </c>
       <c r="F46" s="3">
-        <v>3623600</v>
+        <v>3980400</v>
       </c>
       <c r="G46" s="3">
-        <v>2999600</v>
+        <v>3750400</v>
       </c>
       <c r="H46" s="3">
-        <v>1581700</v>
+        <v>3104600</v>
       </c>
       <c r="I46" s="3">
-        <v>1546300</v>
+        <v>1637100</v>
       </c>
       <c r="J46" s="3">
+        <v>1600400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1412300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1317600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1217400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1618800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1791700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1682900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1243600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1149000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1130100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1077900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1138000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F47" s="3">
         <v>14900</v>
       </c>
-      <c r="E47" s="3">
-        <v>14400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>343200</v>
-      </c>
       <c r="G47" s="3">
-        <v>357300</v>
+        <v>355200</v>
       </c>
       <c r="H47" s="3">
-        <v>369200</v>
+        <v>369800</v>
       </c>
       <c r="I47" s="3">
-        <v>387900</v>
+        <v>382100</v>
       </c>
       <c r="J47" s="3">
+        <v>401500</v>
+      </c>
+      <c r="K47" s="3">
         <v>400700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>471800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>483400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>524100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>598000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>168100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1085800</v>
+        <v>1253200</v>
       </c>
       <c r="E48" s="3">
-        <v>1051100</v>
+        <v>1123800</v>
       </c>
       <c r="F48" s="3">
-        <v>911600</v>
+        <v>1087900</v>
       </c>
       <c r="G48" s="3">
-        <v>807500</v>
+        <v>943500</v>
       </c>
       <c r="H48" s="3">
-        <v>908300</v>
+        <v>835700</v>
       </c>
       <c r="I48" s="3">
-        <v>835300</v>
+        <v>940100</v>
       </c>
       <c r="J48" s="3">
+        <v>864500</v>
+      </c>
+      <c r="K48" s="3">
         <v>785300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>787100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>751100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>416600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>422500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>381800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>326000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>345700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>344300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>307800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>285600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1785800</v>
+        <v>2027100</v>
       </c>
       <c r="E49" s="3">
-        <v>1765000</v>
+        <v>1818000</v>
       </c>
       <c r="F49" s="3">
-        <v>873200</v>
+        <v>1826800</v>
       </c>
       <c r="G49" s="3">
-        <v>867400</v>
+        <v>903700</v>
       </c>
       <c r="H49" s="3">
-        <v>866100</v>
+        <v>897700</v>
       </c>
       <c r="I49" s="3">
-        <v>859800</v>
+        <v>896400</v>
       </c>
       <c r="J49" s="3">
+        <v>889900</v>
+      </c>
+      <c r="K49" s="3">
         <v>861500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>861700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>850700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>906800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1004400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1005100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>221000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>213300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>219300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>204600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>211800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>104200</v>
+        <v>144300</v>
       </c>
       <c r="E52" s="3">
-        <v>122600</v>
+        <v>107800</v>
       </c>
       <c r="F52" s="3">
-        <v>98400</v>
+        <v>126900</v>
       </c>
       <c r="G52" s="3">
-        <v>109100</v>
+        <v>101800</v>
       </c>
       <c r="H52" s="3">
-        <v>103000</v>
+        <v>112900</v>
       </c>
       <c r="I52" s="3">
-        <v>98700</v>
+        <v>106600</v>
       </c>
       <c r="J52" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K52" s="3">
         <v>97500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>123900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>111800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>105400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>78300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>73700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6809500</v>
+        <v>7532100</v>
       </c>
       <c r="E54" s="3">
-        <v>6799000</v>
+        <v>7017500</v>
       </c>
       <c r="F54" s="3">
-        <v>5850000</v>
+        <v>7036800</v>
       </c>
       <c r="G54" s="3">
-        <v>5141000</v>
+        <v>6054600</v>
       </c>
       <c r="H54" s="3">
-        <v>3828300</v>
+        <v>5320800</v>
       </c>
       <c r="I54" s="3">
-        <v>3728000</v>
+        <v>3962200</v>
       </c>
       <c r="J54" s="3">
+        <v>3858400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3557300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3542500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3423600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3589600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3947700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3361800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2010400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1919100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1889200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1733000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1732200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>573800</v>
+        <v>880900</v>
       </c>
       <c r="E57" s="3">
-        <v>583400</v>
+        <v>593900</v>
       </c>
       <c r="F57" s="3">
-        <v>428200</v>
+        <v>603800</v>
       </c>
       <c r="G57" s="3">
-        <v>469000</v>
+        <v>443200</v>
       </c>
       <c r="H57" s="3">
-        <v>460000</v>
+        <v>485400</v>
       </c>
       <c r="I57" s="3">
-        <v>419000</v>
+        <v>476100</v>
       </c>
       <c r="J57" s="3">
+        <v>433700</v>
+      </c>
+      <c r="K57" s="3">
         <v>342800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>396800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>298800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>234700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>212800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>265900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>171100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>175600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>166900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>154000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>119200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3364,19 +3498,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>296800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>312800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>282700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>274600</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>10</v>
@@ -3390,143 +3524,152 @@
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>237800</v>
+        <v>260500</v>
       </c>
       <c r="E59" s="3">
-        <v>183800</v>
+        <v>246100</v>
       </c>
       <c r="F59" s="3">
-        <v>114500</v>
+        <v>190300</v>
       </c>
       <c r="G59" s="3">
-        <v>158300</v>
+        <v>118500</v>
       </c>
       <c r="H59" s="3">
-        <v>152000</v>
+        <v>163800</v>
       </c>
       <c r="I59" s="3">
-        <v>139200</v>
+        <v>157400</v>
       </c>
       <c r="J59" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K59" s="3">
         <v>122900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>90800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>84600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>103000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>102800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>91200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>69500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>102800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>811600</v>
+        <v>1141400</v>
       </c>
       <c r="E60" s="3">
-        <v>767200</v>
+        <v>840000</v>
       </c>
       <c r="F60" s="3">
-        <v>542700</v>
+        <v>794100</v>
       </c>
       <c r="G60" s="3">
-        <v>627200</v>
+        <v>561700</v>
       </c>
       <c r="H60" s="3">
-        <v>612000</v>
+        <v>649200</v>
       </c>
       <c r="I60" s="3">
-        <v>558200</v>
+        <v>633400</v>
       </c>
       <c r="J60" s="3">
+        <v>577800</v>
+      </c>
+      <c r="K60" s="3">
         <v>465700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>506400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>389600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>616200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>628500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>632100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>548600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>257100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>258200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>223400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>222000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1095100</v>
+        <v>1168600</v>
       </c>
       <c r="E61" s="3">
-        <v>1174000</v>
+        <v>1133400</v>
       </c>
       <c r="F61" s="3">
-        <v>1024300</v>
+        <v>1215000</v>
       </c>
       <c r="G61" s="3">
-        <v>1131300</v>
+        <v>1060100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1170900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3553,81 +3696,87 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>274000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>276400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>260700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>284600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>310000</v>
+        <v>434500</v>
       </c>
       <c r="E62" s="3">
-        <v>280300</v>
+        <v>290700</v>
       </c>
       <c r="F62" s="3">
-        <v>165400</v>
+        <v>290100</v>
       </c>
       <c r="G62" s="3">
-        <v>155000</v>
+        <v>171200</v>
       </c>
       <c r="H62" s="3">
-        <v>199200</v>
+        <v>160400</v>
       </c>
       <c r="I62" s="3">
-        <v>148800</v>
+        <v>206200</v>
       </c>
       <c r="J62" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K62" s="3">
         <v>171500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>174900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>190100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>37100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2522600</v>
+        <v>3042100</v>
       </c>
       <c r="E66" s="3">
-        <v>2574700</v>
+        <v>2580600</v>
       </c>
       <c r="F66" s="3">
-        <v>2200600</v>
+        <v>2664800</v>
       </c>
       <c r="G66" s="3">
-        <v>2386600</v>
+        <v>2277600</v>
       </c>
       <c r="H66" s="3">
-        <v>1265000</v>
+        <v>2470100</v>
       </c>
       <c r="I66" s="3">
-        <v>1165700</v>
+        <v>1309300</v>
       </c>
       <c r="J66" s="3">
+        <v>1206500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1094900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1140300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1053600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1059000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1113800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1125700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>734900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>651500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>647300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>542600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>562000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1932900</v>
+        <v>1951600</v>
       </c>
       <c r="E72" s="3">
-        <v>1891400</v>
+        <v>2000500</v>
       </c>
       <c r="F72" s="3">
-        <v>1624000</v>
+        <v>1957600</v>
       </c>
       <c r="G72" s="3">
-        <v>1679200</v>
+        <v>1680800</v>
       </c>
       <c r="H72" s="3">
-        <v>1606800</v>
+        <v>1738000</v>
       </c>
       <c r="I72" s="3">
-        <v>1609100</v>
+        <v>1663000</v>
       </c>
       <c r="J72" s="3">
+        <v>1665400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1550600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1515700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1476900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1590100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1698500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1171100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1047800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1061800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1055400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1033900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1027600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4286900</v>
+        <v>4490000</v>
       </c>
       <c r="E76" s="3">
-        <v>4224300</v>
+        <v>4436800</v>
       </c>
       <c r="F76" s="3">
-        <v>3649400</v>
+        <v>4372000</v>
       </c>
       <c r="G76" s="3">
-        <v>2754400</v>
+        <v>3777100</v>
       </c>
       <c r="H76" s="3">
-        <v>2563300</v>
+        <v>2850700</v>
       </c>
       <c r="I76" s="3">
-        <v>2562300</v>
+        <v>2653000</v>
       </c>
       <c r="J76" s="3">
+        <v>2651900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2462400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2402200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2370000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2530600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2833900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2236100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1275500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1267600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1241900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1190400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1170200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10700</v>
+        <v>-54600</v>
       </c>
       <c r="E81" s="3">
-        <v>291300</v>
+        <v>11100</v>
       </c>
       <c r="F81" s="3">
-        <v>-43500</v>
+        <v>301400</v>
       </c>
       <c r="G81" s="3">
-        <v>77100</v>
+        <v>-45100</v>
       </c>
       <c r="H81" s="3">
-        <v>12500</v>
+        <v>79800</v>
       </c>
       <c r="I81" s="3">
-        <v>66700</v>
+        <v>12900</v>
       </c>
       <c r="J81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K81" s="3">
         <v>50700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>525600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63700</v>
+        <v>71500</v>
       </c>
       <c r="E83" s="3">
-        <v>60800</v>
+        <v>65900</v>
       </c>
       <c r="F83" s="3">
-        <v>55300</v>
+        <v>62900</v>
       </c>
       <c r="G83" s="3">
-        <v>52700</v>
+        <v>57300</v>
       </c>
       <c r="H83" s="3">
-        <v>52300</v>
+        <v>54600</v>
       </c>
       <c r="I83" s="3">
-        <v>49800</v>
+        <v>54100</v>
       </c>
       <c r="J83" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K83" s="3">
         <v>49400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80700</v>
+        <v>116500</v>
       </c>
       <c r="E89" s="3">
-        <v>248600</v>
+        <v>83500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1700</v>
+        <v>257300</v>
       </c>
       <c r="G89" s="3">
-        <v>101200</v>
+        <v>-1800</v>
       </c>
       <c r="H89" s="3">
-        <v>113400</v>
+        <v>104700</v>
       </c>
       <c r="I89" s="3">
-        <v>193100</v>
+        <v>117400</v>
       </c>
       <c r="J89" s="3">
+        <v>199800</v>
+      </c>
+      <c r="K89" s="3">
         <v>138600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>114000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>107900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>107700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>81900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>116900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>80900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-94400</v>
+        <v>-48400</v>
       </c>
       <c r="E91" s="3">
-        <v>-61700</v>
+        <v>-97700</v>
       </c>
       <c r="F91" s="3">
-        <v>-135100</v>
+        <v>-63900</v>
       </c>
       <c r="G91" s="3">
-        <v>-31600</v>
+        <v>-139900</v>
       </c>
       <c r="H91" s="3">
-        <v>-72800</v>
+        <v>-32700</v>
       </c>
       <c r="I91" s="3">
-        <v>-69800</v>
+        <v>-75300</v>
       </c>
       <c r="J91" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-101600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-142200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-58700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-88700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>485900</v>
+        <v>-672200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1522100</v>
+        <v>502900</v>
       </c>
       <c r="F94" s="3">
-        <v>-56400</v>
+        <v>-1575400</v>
       </c>
       <c r="G94" s="3">
-        <v>-484700</v>
+        <v>-58300</v>
       </c>
       <c r="H94" s="3">
-        <v>106400</v>
+        <v>-501600</v>
       </c>
       <c r="I94" s="3">
-        <v>-66000</v>
+        <v>110100</v>
       </c>
       <c r="J94" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-393000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-294400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>404000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>223000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-294200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>180200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>88200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-195900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-189700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-379000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14100</v>
+        <v>-2900</v>
       </c>
       <c r="E100" s="3">
-        <v>-66700</v>
+        <v>14600</v>
       </c>
       <c r="F100" s="3">
-        <v>923300</v>
+        <v>-69000</v>
       </c>
       <c r="G100" s="3">
-        <v>966000</v>
+        <v>955600</v>
       </c>
       <c r="H100" s="3">
-        <v>-28300</v>
+        <v>999700</v>
       </c>
       <c r="I100" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-287100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-146500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-68700</v>
+        <v>20700</v>
       </c>
       <c r="E101" s="3">
-        <v>145900</v>
+        <v>-71200</v>
       </c>
       <c r="F101" s="3">
-        <v>-87500</v>
+        <v>151000</v>
       </c>
       <c r="G101" s="3">
-        <v>321400</v>
+        <v>-90500</v>
       </c>
       <c r="H101" s="3">
-        <v>-22100</v>
+        <v>332700</v>
       </c>
       <c r="I101" s="3">
-        <v>1200</v>
+        <v>-22800</v>
       </c>
       <c r="J101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-42000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>512000</v>
+        <v>-537900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1194300</v>
+        <v>529900</v>
       </c>
       <c r="F102" s="3">
-        <v>777800</v>
+        <v>-1236100</v>
       </c>
       <c r="G102" s="3">
-        <v>903900</v>
+        <v>805000</v>
       </c>
       <c r="H102" s="3">
-        <v>169400</v>
+        <v>935500</v>
       </c>
       <c r="I102" s="3">
-        <v>127800</v>
+        <v>175300</v>
       </c>
       <c r="J102" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-263200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-198100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>257300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>189600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-165700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>53400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>293700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>138000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-82000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-125800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-356200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>995400</v>
+        <v>1100600</v>
       </c>
       <c r="E8" s="3">
-        <v>974500</v>
+        <v>988800</v>
       </c>
       <c r="F8" s="3">
-        <v>793900</v>
+        <v>968000</v>
       </c>
       <c r="G8" s="3">
-        <v>563500</v>
+        <v>788700</v>
       </c>
       <c r="H8" s="3">
-        <v>639700</v>
+        <v>559800</v>
       </c>
       <c r="I8" s="3">
-        <v>703600</v>
+        <v>635500</v>
       </c>
       <c r="J8" s="3">
+        <v>698900</v>
+      </c>
+      <c r="K8" s="3">
         <v>612600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>544400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>491800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>514700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>462500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>468500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>419600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>429000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>360900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>340400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>313500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>335800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>463300</v>
+        <v>564800</v>
       </c>
       <c r="E9" s="3">
-        <v>428000</v>
+        <v>460200</v>
       </c>
       <c r="F9" s="3">
-        <v>301300</v>
+        <v>425100</v>
       </c>
       <c r="G9" s="3">
-        <v>216600</v>
+        <v>299300</v>
       </c>
       <c r="H9" s="3">
-        <v>221000</v>
+        <v>215100</v>
       </c>
       <c r="I9" s="3">
-        <v>240400</v>
+        <v>219500</v>
       </c>
       <c r="J9" s="3">
+        <v>238800</v>
+      </c>
+      <c r="K9" s="3">
         <v>190000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>165400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>152800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>157100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>128700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>130400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>106000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>104700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>93100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>88500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>85600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>532100</v>
+        <v>535800</v>
       </c>
       <c r="E10" s="3">
-        <v>546500</v>
+        <v>528600</v>
       </c>
       <c r="F10" s="3">
-        <v>492600</v>
+        <v>542900</v>
       </c>
       <c r="G10" s="3">
-        <v>347000</v>
+        <v>489300</v>
       </c>
       <c r="H10" s="3">
-        <v>418800</v>
+        <v>344700</v>
       </c>
       <c r="I10" s="3">
-        <v>463200</v>
+        <v>416000</v>
       </c>
       <c r="J10" s="3">
+        <v>460100</v>
+      </c>
+      <c r="K10" s="3">
         <v>422600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>379000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>339000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>357600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>333800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>338100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>313600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>324400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>267900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>251900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>232300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>250200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>149800</v>
+        <v>151900</v>
       </c>
       <c r="E12" s="3">
-        <v>136500</v>
+        <v>148800</v>
       </c>
       <c r="F12" s="3">
-        <v>128100</v>
+        <v>135600</v>
       </c>
       <c r="G12" s="3">
-        <v>122100</v>
+        <v>127300</v>
       </c>
       <c r="H12" s="3">
-        <v>107900</v>
+        <v>121300</v>
       </c>
       <c r="I12" s="3">
-        <v>110300</v>
+        <v>107200</v>
       </c>
       <c r="J12" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K12" s="3">
         <v>96900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>90700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>95100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>78600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>85000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>91600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>80100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>70400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>68900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>68600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>65300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,55 +1104,58 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>-261700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-260000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>10400</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-446000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1143,76 +1163,82 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>71500</v>
+        <v>76300</v>
       </c>
       <c r="E15" s="3">
-        <v>65900</v>
+        <v>71100</v>
       </c>
       <c r="F15" s="3">
-        <v>65100</v>
+        <v>65500</v>
       </c>
       <c r="G15" s="3">
-        <v>55100</v>
+        <v>64600</v>
       </c>
       <c r="H15" s="3">
-        <v>54600</v>
+        <v>54800</v>
       </c>
       <c r="I15" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="J15" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K15" s="3">
         <v>51600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>49400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>37400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>36600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1009800</v>
+        <v>1164400</v>
       </c>
       <c r="E17" s="3">
-        <v>914900</v>
+        <v>992400</v>
       </c>
       <c r="F17" s="3">
-        <v>445600</v>
+        <v>908800</v>
       </c>
       <c r="G17" s="3">
-        <v>560600</v>
+        <v>442600</v>
       </c>
       <c r="H17" s="3">
-        <v>567700</v>
+        <v>558300</v>
       </c>
       <c r="I17" s="3">
-        <v>637000</v>
+        <v>565300</v>
       </c>
       <c r="J17" s="3">
+        <v>632800</v>
+      </c>
+      <c r="K17" s="3">
         <v>505700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>450600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>428300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>415800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>377900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-44700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>369700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>354900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>332500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>294200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>262300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>285100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-14400</v>
+        <v>-63900</v>
       </c>
       <c r="E18" s="3">
-        <v>59600</v>
+        <v>-3600</v>
       </c>
       <c r="F18" s="3">
-        <v>348400</v>
+        <v>59200</v>
       </c>
       <c r="G18" s="3">
-        <v>2900</v>
+        <v>346100</v>
       </c>
       <c r="H18" s="3">
-        <v>72000</v>
+        <v>1600</v>
       </c>
       <c r="I18" s="3">
-        <v>66600</v>
+        <v>70200</v>
       </c>
       <c r="J18" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K18" s="3">
         <v>107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>98900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>513300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>46200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,173 +1413,180 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20600</v>
+        <v>19000</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>22100</v>
       </c>
       <c r="F20" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-16400</v>
       </c>
-      <c r="H20" s="3">
-        <v>56400</v>
-      </c>
       <c r="I20" s="3">
-        <v>-20600</v>
+        <v>56200</v>
       </c>
       <c r="J20" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-23500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>96700</v>
+        <v>54100</v>
       </c>
       <c r="E21" s="3">
-        <v>143200</v>
+        <v>108400</v>
       </c>
       <c r="F21" s="3">
-        <v>431500</v>
+        <v>142200</v>
       </c>
       <c r="G21" s="3">
-        <v>54800</v>
+        <v>428600</v>
       </c>
       <c r="H21" s="3">
-        <v>190900</v>
+        <v>52900</v>
       </c>
       <c r="I21" s="3">
-        <v>116000</v>
+        <v>188500</v>
       </c>
       <c r="J21" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K21" s="3">
         <v>162800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>136300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>148900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>597100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>133100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>121600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>65200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>74900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10800</v>
+        <v>11600</v>
       </c>
       <c r="E22" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="F22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G22" s="3">
         <v>9800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9200</v>
       </c>
-      <c r="H22" s="3">
-        <v>3100</v>
-      </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3500</v>
       </c>
       <c r="Q22" s="3">
         <v>3500</v>
@@ -1555,143 +1595,152 @@
         <v>3500</v>
       </c>
       <c r="S22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3500</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4600</v>
+        <v>-56500</v>
       </c>
       <c r="E23" s="3">
-        <v>57000</v>
+        <v>7800</v>
       </c>
       <c r="F23" s="3">
-        <v>346700</v>
+        <v>56600</v>
       </c>
       <c r="G23" s="3">
-        <v>-22700</v>
+        <v>344400</v>
       </c>
       <c r="H23" s="3">
-        <v>125300</v>
+        <v>-24000</v>
       </c>
       <c r="I23" s="3">
-        <v>45600</v>
+        <v>123300</v>
       </c>
       <c r="J23" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K23" s="3">
         <v>110800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>103500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>547000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>24300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>38400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53400</v>
+        <v>6600</v>
       </c>
       <c r="E24" s="3">
-        <v>51600</v>
+        <v>51300</v>
       </c>
       <c r="F24" s="3">
-        <v>48500</v>
+        <v>51200</v>
       </c>
       <c r="G24" s="3">
-        <v>27100</v>
+        <v>48200</v>
       </c>
       <c r="H24" s="3">
-        <v>50500</v>
+        <v>26600</v>
       </c>
       <c r="I24" s="3">
-        <v>41800</v>
+        <v>49900</v>
       </c>
       <c r="J24" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K24" s="3">
         <v>45500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57900</v>
+        <v>-63100</v>
       </c>
       <c r="E26" s="3">
-        <v>5500</v>
+        <v>-43500</v>
       </c>
       <c r="F26" s="3">
-        <v>298200</v>
+        <v>5400</v>
       </c>
       <c r="G26" s="3">
-        <v>-49800</v>
+        <v>296200</v>
       </c>
       <c r="H26" s="3">
-        <v>74800</v>
+        <v>-50600</v>
       </c>
       <c r="I26" s="3">
+        <v>73400</v>
+      </c>
+      <c r="J26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>514400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54600</v>
+        <v>-52400</v>
       </c>
       <c r="E27" s="3">
-        <v>11100</v>
+        <v>-40200</v>
       </c>
       <c r="F27" s="3">
-        <v>301400</v>
+        <v>11000</v>
       </c>
       <c r="G27" s="3">
-        <v>-45100</v>
+        <v>299500</v>
       </c>
       <c r="H27" s="3">
-        <v>79800</v>
+        <v>-45900</v>
       </c>
       <c r="I27" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J27" s="3">
         <v>12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>69000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>73500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>525600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20600</v>
+        <v>-19000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-22100</v>
       </c>
       <c r="F32" s="3">
-        <v>-8200</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H32" s="3">
         <v>16400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-56400</v>
-      </c>
       <c r="I32" s="3">
-        <v>20600</v>
+        <v>-56200</v>
       </c>
       <c r="J32" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>23500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54600</v>
+        <v>-52400</v>
       </c>
       <c r="E33" s="3">
-        <v>11100</v>
+        <v>-40200</v>
       </c>
       <c r="F33" s="3">
-        <v>301400</v>
+        <v>11000</v>
       </c>
       <c r="G33" s="3">
-        <v>-45100</v>
+        <v>299500</v>
       </c>
       <c r="H33" s="3">
-        <v>79800</v>
+        <v>-45900</v>
       </c>
       <c r="I33" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J33" s="3">
         <v>12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>73500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>525600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54600</v>
+        <v>-52400</v>
       </c>
       <c r="E35" s="3">
-        <v>11100</v>
+        <v>-40200</v>
       </c>
       <c r="F35" s="3">
-        <v>301400</v>
+        <v>11000</v>
       </c>
       <c r="G35" s="3">
-        <v>-45100</v>
+        <v>299500</v>
       </c>
       <c r="H35" s="3">
-        <v>79800</v>
+        <v>-45900</v>
       </c>
       <c r="I35" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J35" s="3">
         <v>12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>73500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>525600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,205 +2573,215 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1264100</v>
+        <v>1188000</v>
       </c>
       <c r="E41" s="3">
-        <v>1801900</v>
+        <v>1255700</v>
       </c>
       <c r="F41" s="3">
-        <v>1272000</v>
+        <v>1790000</v>
       </c>
       <c r="G41" s="3">
-        <v>2508200</v>
+        <v>1263600</v>
       </c>
       <c r="H41" s="3">
-        <v>1703200</v>
+        <v>2491600</v>
       </c>
       <c r="I41" s="3">
-        <v>767800</v>
+        <v>1691900</v>
       </c>
       <c r="J41" s="3">
+        <v>762700</v>
+      </c>
+      <c r="K41" s="3">
         <v>592400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>444600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>710000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>911600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>701300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>567300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>733300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>657000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>363300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>224900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>303300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>86700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1880600</v>
+        <v>1701100</v>
       </c>
       <c r="E42" s="3">
-        <v>1439800</v>
+        <v>1868200</v>
       </c>
       <c r="F42" s="3">
-        <v>2156300</v>
+        <v>1430200</v>
       </c>
       <c r="G42" s="3">
-        <v>783700</v>
+        <v>2142000</v>
       </c>
       <c r="H42" s="3">
-        <v>980600</v>
+        <v>778500</v>
       </c>
       <c r="I42" s="3">
-        <v>434000</v>
+        <v>974100</v>
       </c>
       <c r="J42" s="3">
+        <v>431200</v>
+      </c>
+      <c r="K42" s="3">
         <v>611200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>600600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>261300</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>625900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>949300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>705300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>354800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>585400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>715100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>587700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>870200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>407800</v>
+        <v>408500</v>
       </c>
       <c r="E43" s="3">
-        <v>377400</v>
+        <v>405100</v>
       </c>
       <c r="F43" s="3">
-        <v>286400</v>
+        <v>374900</v>
       </c>
       <c r="G43" s="3">
-        <v>235400</v>
+        <v>284600</v>
       </c>
       <c r="H43" s="3">
-        <v>240000</v>
+        <v>233900</v>
       </c>
       <c r="I43" s="3">
-        <v>259400</v>
+        <v>238400</v>
       </c>
       <c r="J43" s="3">
+        <v>257700</v>
+      </c>
+      <c r="K43" s="3">
         <v>234100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>251000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>228700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>222400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>172100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>170100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>162700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>150100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>129600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>119900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>114700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>117500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>87200</v>
+        <v>91500</v>
       </c>
       <c r="E44" s="3">
-        <v>65500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
+        <v>86600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>65000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>10</v>
@@ -2702,8 +2798,8 @@
       <c r="K44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2735,318 +2831,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>329900</v>
+        <v>439300</v>
       </c>
       <c r="E45" s="3">
-        <v>267800</v>
+        <v>327700</v>
       </c>
       <c r="F45" s="3">
-        <v>265700</v>
+        <v>266000</v>
       </c>
       <c r="G45" s="3">
-        <v>223000</v>
+        <v>263900</v>
       </c>
       <c r="H45" s="3">
-        <v>180800</v>
+        <v>221600</v>
       </c>
       <c r="I45" s="3">
-        <v>175800</v>
+        <v>179600</v>
       </c>
       <c r="J45" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K45" s="3">
         <v>162700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>116200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>117700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>83400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>119400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>105000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>81700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3969600</v>
+        <v>3828300</v>
       </c>
       <c r="E46" s="3">
-        <v>3952400</v>
+        <v>3943300</v>
       </c>
       <c r="F46" s="3">
-        <v>3980400</v>
+        <v>3926200</v>
       </c>
       <c r="G46" s="3">
-        <v>3750400</v>
+        <v>3954100</v>
       </c>
       <c r="H46" s="3">
-        <v>3104600</v>
+        <v>3725600</v>
       </c>
       <c r="I46" s="3">
-        <v>1637100</v>
+        <v>3084000</v>
       </c>
       <c r="J46" s="3">
+        <v>1626200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1600400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1412300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1317600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1217400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1618800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1791700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1682900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1243600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1149000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1130100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1077900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1138000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>138000</v>
+        <v>16900</v>
       </c>
       <c r="E47" s="3">
-        <v>15400</v>
+        <v>137000</v>
       </c>
       <c r="F47" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="G47" s="3">
-        <v>355200</v>
+        <v>14800</v>
       </c>
       <c r="H47" s="3">
-        <v>369800</v>
+        <v>352800</v>
       </c>
       <c r="I47" s="3">
-        <v>382100</v>
+        <v>367400</v>
       </c>
       <c r="J47" s="3">
+        <v>379500</v>
+      </c>
+      <c r="K47" s="3">
         <v>401500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>471800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>483400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>524100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>598000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>168100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>105900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1253200</v>
+        <v>1454500</v>
       </c>
       <c r="E48" s="3">
-        <v>1123800</v>
+        <v>1244900</v>
       </c>
       <c r="F48" s="3">
-        <v>1087900</v>
+        <v>1116400</v>
       </c>
       <c r="G48" s="3">
-        <v>943500</v>
+        <v>1080700</v>
       </c>
       <c r="H48" s="3">
-        <v>835700</v>
+        <v>937300</v>
       </c>
       <c r="I48" s="3">
-        <v>940100</v>
+        <v>830200</v>
       </c>
       <c r="J48" s="3">
+        <v>933900</v>
+      </c>
+      <c r="K48" s="3">
         <v>864500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>785300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>787100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>751100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>416600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>422500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>381800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>326000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>345700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>344300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>307800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>285600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2027100</v>
+        <v>2020200</v>
       </c>
       <c r="E49" s="3">
-        <v>1818000</v>
+        <v>2013700</v>
       </c>
       <c r="F49" s="3">
-        <v>1826800</v>
+        <v>1806000</v>
       </c>
       <c r="G49" s="3">
-        <v>903700</v>
+        <v>1814700</v>
       </c>
       <c r="H49" s="3">
-        <v>897700</v>
+        <v>897800</v>
       </c>
       <c r="I49" s="3">
-        <v>896400</v>
+        <v>891800</v>
       </c>
       <c r="J49" s="3">
+        <v>890500</v>
+      </c>
+      <c r="K49" s="3">
         <v>889900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>861500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>861700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>850700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>906800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1004400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1005100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>221000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>213300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>219300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>204600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>211800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>144300</v>
+        <v>216900</v>
       </c>
       <c r="E52" s="3">
-        <v>107800</v>
+        <v>143300</v>
       </c>
       <c r="F52" s="3">
-        <v>126900</v>
+        <v>107100</v>
       </c>
       <c r="G52" s="3">
-        <v>101800</v>
+        <v>126000</v>
       </c>
       <c r="H52" s="3">
-        <v>112900</v>
+        <v>101200</v>
       </c>
       <c r="I52" s="3">
-        <v>106600</v>
+        <v>112200</v>
       </c>
       <c r="J52" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K52" s="3">
         <v>102100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>131000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>123900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>111800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>105400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>89700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>78300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>73700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7532100</v>
+        <v>7536800</v>
       </c>
       <c r="E54" s="3">
-        <v>7017500</v>
+        <v>7482300</v>
       </c>
       <c r="F54" s="3">
-        <v>7036800</v>
+        <v>6971100</v>
       </c>
       <c r="G54" s="3">
-        <v>6054600</v>
+        <v>6990300</v>
       </c>
       <c r="H54" s="3">
-        <v>5320800</v>
+        <v>6014600</v>
       </c>
       <c r="I54" s="3">
-        <v>3962200</v>
+        <v>5285600</v>
       </c>
       <c r="J54" s="3">
+        <v>3936000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3858400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3557300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3542500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3423600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3589600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3947700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3361800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2010400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1919100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1889200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1733000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1732200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>880900</v>
+        <v>890300</v>
       </c>
       <c r="E57" s="3">
-        <v>593900</v>
+        <v>875100</v>
       </c>
       <c r="F57" s="3">
-        <v>603800</v>
+        <v>589900</v>
       </c>
       <c r="G57" s="3">
-        <v>443200</v>
+        <v>599800</v>
       </c>
       <c r="H57" s="3">
-        <v>485400</v>
+        <v>440200</v>
       </c>
       <c r="I57" s="3">
-        <v>476100</v>
+        <v>482200</v>
       </c>
       <c r="J57" s="3">
+        <v>472900</v>
+      </c>
+      <c r="K57" s="3">
         <v>433700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>342800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>396800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>298800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>234700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>212800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>265900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>171100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>175600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>166900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>154000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>119200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3501,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>296800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>312800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>282700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>274600</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>10</v>
@@ -3527,152 +3661,161 @@
       <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>260500</v>
+        <v>270600</v>
       </c>
       <c r="E59" s="3">
-        <v>246100</v>
+        <v>258800</v>
       </c>
       <c r="F59" s="3">
-        <v>190300</v>
+        <v>244500</v>
       </c>
       <c r="G59" s="3">
-        <v>118500</v>
+        <v>189000</v>
       </c>
       <c r="H59" s="3">
-        <v>163800</v>
+        <v>117700</v>
       </c>
       <c r="I59" s="3">
-        <v>157400</v>
+        <v>162700</v>
       </c>
       <c r="J59" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K59" s="3">
         <v>144100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>109600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>90800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>84600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>103000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>102800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>91200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>69500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>102800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1141400</v>
+        <v>1160900</v>
       </c>
       <c r="E60" s="3">
-        <v>840000</v>
+        <v>1133900</v>
       </c>
       <c r="F60" s="3">
-        <v>794100</v>
+        <v>834400</v>
       </c>
       <c r="G60" s="3">
-        <v>561700</v>
+        <v>788800</v>
       </c>
       <c r="H60" s="3">
-        <v>649200</v>
+        <v>558000</v>
       </c>
       <c r="I60" s="3">
-        <v>633400</v>
+        <v>644900</v>
       </c>
       <c r="J60" s="3">
+        <v>629200</v>
+      </c>
+      <c r="K60" s="3">
         <v>577800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>465700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>506400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>389600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>616200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>628500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>632100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>548600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>257100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>258200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>223400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>222000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1168600</v>
+        <v>1116700</v>
       </c>
       <c r="E61" s="3">
-        <v>1133400</v>
+        <v>1160900</v>
       </c>
       <c r="F61" s="3">
-        <v>1215000</v>
+        <v>1125900</v>
       </c>
       <c r="G61" s="3">
-        <v>1060100</v>
+        <v>1207000</v>
       </c>
       <c r="H61" s="3">
-        <v>1170900</v>
+        <v>1053100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1163100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3699,84 +3842,90 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>274000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>276400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>260700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>284600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>434500</v>
+        <v>526700</v>
       </c>
       <c r="E62" s="3">
-        <v>290700</v>
+        <v>431700</v>
       </c>
       <c r="F62" s="3">
-        <v>290100</v>
+        <v>288700</v>
       </c>
       <c r="G62" s="3">
-        <v>171200</v>
+        <v>288200</v>
       </c>
       <c r="H62" s="3">
-        <v>160400</v>
+        <v>170000</v>
       </c>
       <c r="I62" s="3">
-        <v>206200</v>
+        <v>159400</v>
       </c>
       <c r="J62" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K62" s="3">
         <v>154000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>171500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>174900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>190100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>37100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>32500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3042100</v>
+        <v>3088400</v>
       </c>
       <c r="E66" s="3">
-        <v>2580600</v>
+        <v>3022000</v>
       </c>
       <c r="F66" s="3">
-        <v>2664800</v>
+        <v>2563600</v>
       </c>
       <c r="G66" s="3">
-        <v>2277600</v>
+        <v>2647100</v>
       </c>
       <c r="H66" s="3">
-        <v>2470100</v>
+        <v>2262500</v>
       </c>
       <c r="I66" s="3">
-        <v>1309300</v>
+        <v>2453700</v>
       </c>
       <c r="J66" s="3">
+        <v>1300600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1206500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1094900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1140300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1053600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1059000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1113800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1125700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>734900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>651500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>647300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>542600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>562000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1951600</v>
+        <v>1883700</v>
       </c>
       <c r="E72" s="3">
-        <v>2000500</v>
+        <v>1938700</v>
       </c>
       <c r="F72" s="3">
-        <v>1957600</v>
+        <v>1987300</v>
       </c>
       <c r="G72" s="3">
-        <v>1680800</v>
+        <v>1944600</v>
       </c>
       <c r="H72" s="3">
-        <v>1738000</v>
+        <v>1669700</v>
       </c>
       <c r="I72" s="3">
-        <v>1663000</v>
+        <v>1726500</v>
       </c>
       <c r="J72" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1665400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1550600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1515700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1476900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1590100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1698500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1171100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1047800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1061800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1055400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1033900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1027600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4490000</v>
+        <v>4448300</v>
       </c>
       <c r="E76" s="3">
-        <v>4436800</v>
+        <v>4460300</v>
       </c>
       <c r="F76" s="3">
-        <v>4372000</v>
+        <v>4407500</v>
       </c>
       <c r="G76" s="3">
-        <v>3777100</v>
+        <v>4343100</v>
       </c>
       <c r="H76" s="3">
-        <v>2850700</v>
+        <v>3752100</v>
       </c>
       <c r="I76" s="3">
-        <v>2653000</v>
+        <v>2831900</v>
       </c>
       <c r="J76" s="3">
+        <v>2635400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2651900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2462400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2402200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2370000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2530600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2833900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2236100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1275500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1267600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1241900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1190400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1170200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54600</v>
+        <v>-52400</v>
       </c>
       <c r="E81" s="3">
-        <v>11100</v>
+        <v>-40200</v>
       </c>
       <c r="F81" s="3">
-        <v>301400</v>
+        <v>11000</v>
       </c>
       <c r="G81" s="3">
-        <v>-45100</v>
+        <v>299500</v>
       </c>
       <c r="H81" s="3">
-        <v>79800</v>
+        <v>-45900</v>
       </c>
       <c r="I81" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J81" s="3">
         <v>12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>73500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>525600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71500</v>
+        <v>78800</v>
       </c>
       <c r="E83" s="3">
-        <v>65900</v>
+        <v>71100</v>
       </c>
       <c r="F83" s="3">
-        <v>62900</v>
+        <v>65500</v>
       </c>
       <c r="G83" s="3">
-        <v>57300</v>
+        <v>62500</v>
       </c>
       <c r="H83" s="3">
-        <v>54600</v>
+        <v>56900</v>
       </c>
       <c r="I83" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="J83" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K83" s="3">
         <v>51600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>116500</v>
+        <v>-65900</v>
       </c>
       <c r="E89" s="3">
-        <v>83500</v>
+        <v>115700</v>
       </c>
       <c r="F89" s="3">
-        <v>257300</v>
+        <v>83000</v>
       </c>
       <c r="G89" s="3">
+        <v>255600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
-        <v>104700</v>
-      </c>
       <c r="I89" s="3">
-        <v>117400</v>
+        <v>104000</v>
       </c>
       <c r="J89" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K89" s="3">
         <v>199800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>114000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>107900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>107700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>81900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>116900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>110400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>80900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48400</v>
+        <v>-185000</v>
       </c>
       <c r="E91" s="3">
-        <v>-97700</v>
+        <v>-48100</v>
       </c>
       <c r="F91" s="3">
-        <v>-63900</v>
+        <v>-97000</v>
       </c>
       <c r="G91" s="3">
-        <v>-139900</v>
+        <v>-63500</v>
       </c>
       <c r="H91" s="3">
-        <v>-32700</v>
+        <v>-138900</v>
       </c>
       <c r="I91" s="3">
-        <v>-75300</v>
+        <v>-32500</v>
       </c>
       <c r="J91" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-72200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-142200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-58700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-88700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-672200</v>
+        <v>11900</v>
       </c>
       <c r="E94" s="3">
-        <v>502900</v>
+        <v>-667700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1575400</v>
+        <v>499500</v>
       </c>
       <c r="G94" s="3">
-        <v>-58300</v>
+        <v>-1565000</v>
       </c>
       <c r="H94" s="3">
-        <v>-501600</v>
+        <v>-57900</v>
       </c>
       <c r="I94" s="3">
-        <v>110100</v>
+        <v>-498300</v>
       </c>
       <c r="J94" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-68300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-393000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-294400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>404000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>223000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-294200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>180200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>88200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-195900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-189700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-379000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
-        <v>14600</v>
-      </c>
       <c r="F100" s="3">
-        <v>-69000</v>
+        <v>14500</v>
       </c>
       <c r="G100" s="3">
-        <v>955600</v>
+        <v>-68500</v>
       </c>
       <c r="H100" s="3">
-        <v>999700</v>
+        <v>949300</v>
       </c>
       <c r="I100" s="3">
-        <v>-29300</v>
+        <v>993100</v>
       </c>
       <c r="J100" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-287100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-146500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-48400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20700</v>
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
-        <v>-71200</v>
+        <v>20600</v>
       </c>
       <c r="F101" s="3">
-        <v>151000</v>
+        <v>-70700</v>
       </c>
       <c r="G101" s="3">
-        <v>-90500</v>
+        <v>150000</v>
       </c>
       <c r="H101" s="3">
-        <v>332700</v>
+        <v>-89900</v>
       </c>
       <c r="I101" s="3">
-        <v>-22800</v>
+        <v>330500</v>
       </c>
       <c r="J101" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-42000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-537900</v>
+        <v>-67700</v>
       </c>
       <c r="E102" s="3">
-        <v>529900</v>
+        <v>-534300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1236100</v>
+        <v>526400</v>
       </c>
       <c r="G102" s="3">
-        <v>805000</v>
+        <v>-1227900</v>
       </c>
       <c r="H102" s="3">
-        <v>935500</v>
+        <v>799700</v>
       </c>
       <c r="I102" s="3">
-        <v>175300</v>
+        <v>929300</v>
       </c>
       <c r="J102" s="3">
+        <v>174200</v>
+      </c>
+      <c r="K102" s="3">
         <v>132300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-263200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-198100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>257300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>189600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-165700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>53400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>293700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>138000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-82000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-125800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-356200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1100600</v>
+        <v>1229900</v>
       </c>
       <c r="E8" s="3">
-        <v>988800</v>
+        <v>1096500</v>
       </c>
       <c r="F8" s="3">
-        <v>968000</v>
+        <v>985100</v>
       </c>
       <c r="G8" s="3">
-        <v>788700</v>
+        <v>964400</v>
       </c>
       <c r="H8" s="3">
-        <v>559800</v>
+        <v>785800</v>
       </c>
       <c r="I8" s="3">
-        <v>635500</v>
+        <v>557800</v>
       </c>
       <c r="J8" s="3">
+        <v>633100</v>
+      </c>
+      <c r="K8" s="3">
         <v>698900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>612600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>544400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>491800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>514700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>462500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>468500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>419600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>429000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>360900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>340400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>313500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>335800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>564800</v>
+        <v>615200</v>
       </c>
       <c r="E9" s="3">
-        <v>460200</v>
+        <v>562700</v>
       </c>
       <c r="F9" s="3">
-        <v>425100</v>
+        <v>458500</v>
       </c>
       <c r="G9" s="3">
-        <v>299300</v>
+        <v>423600</v>
       </c>
       <c r="H9" s="3">
-        <v>215100</v>
+        <v>298200</v>
       </c>
       <c r="I9" s="3">
-        <v>219500</v>
+        <v>214300</v>
       </c>
       <c r="J9" s="3">
+        <v>218700</v>
+      </c>
+      <c r="K9" s="3">
         <v>238800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>190000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>165400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>157100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>128700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>130400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>106000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>104700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>93100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>88500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>81200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>85600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>535800</v>
+        <v>614700</v>
       </c>
       <c r="E10" s="3">
-        <v>528600</v>
+        <v>533800</v>
       </c>
       <c r="F10" s="3">
-        <v>542900</v>
+        <v>526600</v>
       </c>
       <c r="G10" s="3">
-        <v>489300</v>
+        <v>540900</v>
       </c>
       <c r="H10" s="3">
-        <v>344700</v>
+        <v>487500</v>
       </c>
       <c r="I10" s="3">
-        <v>416000</v>
+        <v>343400</v>
       </c>
       <c r="J10" s="3">
+        <v>414400</v>
+      </c>
+      <c r="K10" s="3">
         <v>460100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>422600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>379000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>339000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>357600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>333800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>338100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>313600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>324400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>267900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>251900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>232300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>250200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>151900</v>
+        <v>164600</v>
       </c>
       <c r="E12" s="3">
-        <v>148800</v>
+        <v>151300</v>
       </c>
       <c r="F12" s="3">
-        <v>135600</v>
+        <v>148300</v>
       </c>
       <c r="G12" s="3">
-        <v>127300</v>
+        <v>135100</v>
       </c>
       <c r="H12" s="3">
-        <v>121300</v>
+        <v>126800</v>
       </c>
       <c r="I12" s="3">
-        <v>107200</v>
+        <v>120800</v>
       </c>
       <c r="J12" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K12" s="3">
         <v>109500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>96900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>90700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>95100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>78600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>85000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>91600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>80100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>70400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>68900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>68600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>65300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,58 +1124,61 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>-260000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-259000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-446000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1166,79 +1186,85 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>76300</v>
+        <v>82600</v>
       </c>
       <c r="E15" s="3">
-        <v>71100</v>
+        <v>76000</v>
       </c>
       <c r="F15" s="3">
-        <v>65500</v>
+        <v>70800</v>
       </c>
       <c r="G15" s="3">
-        <v>64600</v>
+        <v>65300</v>
       </c>
       <c r="H15" s="3">
-        <v>54800</v>
+        <v>64400</v>
       </c>
       <c r="I15" s="3">
-        <v>54200</v>
+        <v>54600</v>
       </c>
       <c r="J15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K15" s="3">
         <v>53800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>51600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>49400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>46600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>45100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>37400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>36600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1164400</v>
+        <v>1306400</v>
       </c>
       <c r="E17" s="3">
-        <v>992400</v>
+        <v>1160100</v>
       </c>
       <c r="F17" s="3">
-        <v>908800</v>
+        <v>988700</v>
       </c>
       <c r="G17" s="3">
-        <v>442600</v>
+        <v>905400</v>
       </c>
       <c r="H17" s="3">
-        <v>558300</v>
+        <v>442400</v>
       </c>
       <c r="I17" s="3">
-        <v>565300</v>
+        <v>556200</v>
       </c>
       <c r="J17" s="3">
+        <v>563200</v>
+      </c>
+      <c r="K17" s="3">
         <v>632800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>505700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>450600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>428300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>415800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>377900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>369700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>354900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>332500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>294200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>262300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>285100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-63900</v>
+        <v>-76600</v>
       </c>
       <c r="E18" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
-        <v>59200</v>
-      </c>
       <c r="G18" s="3">
-        <v>346100</v>
+        <v>59000</v>
       </c>
       <c r="H18" s="3">
+        <v>343300</v>
+      </c>
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
-        <v>70200</v>
-      </c>
       <c r="J18" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K18" s="3">
         <v>66100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>513300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>49900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>46200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>51200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,182 +1447,189 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19000</v>
+        <v>51700</v>
       </c>
       <c r="E20" s="3">
-        <v>22100</v>
+        <v>18900</v>
       </c>
       <c r="F20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
-        <v>8100</v>
-      </c>
       <c r="H20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-16400</v>
       </c>
-      <c r="I20" s="3">
-        <v>56200</v>
-      </c>
       <c r="J20" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-23500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54100</v>
+        <v>89700</v>
       </c>
       <c r="E21" s="3">
-        <v>108400</v>
+        <v>53900</v>
       </c>
       <c r="F21" s="3">
-        <v>142200</v>
+        <v>108000</v>
       </c>
       <c r="G21" s="3">
-        <v>428600</v>
+        <v>141700</v>
       </c>
       <c r="H21" s="3">
-        <v>52900</v>
+        <v>425200</v>
       </c>
       <c r="I21" s="3">
-        <v>188500</v>
+        <v>52700</v>
       </c>
       <c r="J21" s="3">
+        <v>187800</v>
+      </c>
+      <c r="K21" s="3">
         <v>115200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>136300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>148900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>597100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>133100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>121600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>65200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>74900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E22" s="3">
         <v>11600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10100</v>
       </c>
-      <c r="G22" s="3">
-        <v>9800</v>
-      </c>
       <c r="H22" s="3">
-        <v>9200</v>
+        <v>9700</v>
       </c>
       <c r="I22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J22" s="3">
         <v>3000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3500</v>
       </c>
       <c r="R22" s="3">
         <v>3500</v>
@@ -1598,149 +1638,158 @@
         <v>3500</v>
       </c>
       <c r="T22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3500</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56500</v>
+        <v>-37500</v>
       </c>
       <c r="E23" s="3">
-        <v>7800</v>
+        <v>-56300</v>
       </c>
       <c r="F23" s="3">
-        <v>56600</v>
+        <v>7700</v>
       </c>
       <c r="G23" s="3">
-        <v>344400</v>
+        <v>56400</v>
       </c>
       <c r="H23" s="3">
-        <v>-24000</v>
+        <v>341200</v>
       </c>
       <c r="I23" s="3">
-        <v>123300</v>
+        <v>-23900</v>
       </c>
       <c r="J23" s="3">
+        <v>122800</v>
+      </c>
+      <c r="K23" s="3">
         <v>45300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>110800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>103500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>96000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>547000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>74800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>24300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>38400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6600</v>
+        <v>15100</v>
       </c>
       <c r="E24" s="3">
-        <v>51300</v>
+        <v>6500</v>
       </c>
       <c r="F24" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="G24" s="3">
-        <v>48200</v>
+        <v>51000</v>
       </c>
       <c r="H24" s="3">
-        <v>26600</v>
+        <v>48100</v>
       </c>
       <c r="I24" s="3">
-        <v>49900</v>
+        <v>26500</v>
       </c>
       <c r="J24" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K24" s="3">
         <v>41500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-63100</v>
+        <v>-52600</v>
       </c>
       <c r="E26" s="3">
-        <v>-43500</v>
+        <v>-62800</v>
       </c>
       <c r="F26" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
-        <v>296200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-50600</v>
+        <v>293100</v>
       </c>
       <c r="I26" s="3">
-        <v>73400</v>
+        <v>-50400</v>
       </c>
       <c r="J26" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>65300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>514400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>29200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52400</v>
+        <v>-45600</v>
       </c>
       <c r="E27" s="3">
-        <v>-40200</v>
+        <v>-52300</v>
       </c>
       <c r="F27" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="G27" s="3">
         <v>11000</v>
       </c>
-      <c r="G27" s="3">
-        <v>299500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-45900</v>
+        <v>296300</v>
       </c>
       <c r="I27" s="3">
-        <v>78300</v>
+        <v>-45800</v>
       </c>
       <c r="J27" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K27" s="3">
         <v>12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>73500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>525600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19000</v>
+        <v>-51700</v>
       </c>
       <c r="E32" s="3">
-        <v>-22100</v>
+        <v>-18900</v>
       </c>
       <c r="F32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I32" s="3">
         <v>16400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-56200</v>
-      </c>
       <c r="J32" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K32" s="3">
         <v>20400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>23500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52400</v>
+        <v>-45600</v>
       </c>
       <c r="E33" s="3">
-        <v>-40200</v>
+        <v>-52300</v>
       </c>
       <c r="F33" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="G33" s="3">
         <v>11000</v>
       </c>
-      <c r="G33" s="3">
-        <v>299500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-45900</v>
+        <v>296300</v>
       </c>
       <c r="I33" s="3">
-        <v>78300</v>
+        <v>-45800</v>
       </c>
       <c r="J33" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K33" s="3">
         <v>12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>73500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>525600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>54300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52400</v>
+        <v>-45600</v>
       </c>
       <c r="E35" s="3">
-        <v>-40200</v>
+        <v>-52300</v>
       </c>
       <c r="F35" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="G35" s="3">
         <v>11000</v>
       </c>
-      <c r="G35" s="3">
-        <v>299500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-45900</v>
+        <v>296300</v>
       </c>
       <c r="I35" s="3">
-        <v>78300</v>
+        <v>-45800</v>
       </c>
       <c r="J35" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K35" s="3">
         <v>12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>73500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>525600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>54300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,217 +2660,227 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1188000</v>
+        <v>1096800</v>
       </c>
       <c r="E41" s="3">
-        <v>1255700</v>
+        <v>1183600</v>
       </c>
       <c r="F41" s="3">
-        <v>1790000</v>
+        <v>1251100</v>
       </c>
       <c r="G41" s="3">
-        <v>1263600</v>
+        <v>1783400</v>
       </c>
       <c r="H41" s="3">
-        <v>2491600</v>
+        <v>1258900</v>
       </c>
       <c r="I41" s="3">
-        <v>1691900</v>
+        <v>2482400</v>
       </c>
       <c r="J41" s="3">
+        <v>1685700</v>
+      </c>
+      <c r="K41" s="3">
         <v>762700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>592400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>444600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>710000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>911600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>701300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>567300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>733300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>657000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>363300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>224900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>303300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>86700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1701100</v>
+        <v>776400</v>
       </c>
       <c r="E42" s="3">
-        <v>1868200</v>
+        <v>1694800</v>
       </c>
       <c r="F42" s="3">
-        <v>1430200</v>
+        <v>1861300</v>
       </c>
       <c r="G42" s="3">
-        <v>2142000</v>
+        <v>1425000</v>
       </c>
       <c r="H42" s="3">
-        <v>778500</v>
+        <v>2134100</v>
       </c>
       <c r="I42" s="3">
-        <v>974100</v>
+        <v>775600</v>
       </c>
       <c r="J42" s="3">
+        <v>970500</v>
+      </c>
+      <c r="K42" s="3">
         <v>431200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>611200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>600600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>261300</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>625900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>949300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>705300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>354800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>585400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>715100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>587700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>870200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>408500</v>
+        <v>634500</v>
       </c>
       <c r="E43" s="3">
-        <v>405100</v>
+        <v>407000</v>
       </c>
       <c r="F43" s="3">
-        <v>374900</v>
+        <v>403600</v>
       </c>
       <c r="G43" s="3">
-        <v>284600</v>
+        <v>373500</v>
       </c>
       <c r="H43" s="3">
-        <v>233900</v>
+        <v>283500</v>
       </c>
       <c r="I43" s="3">
-        <v>238400</v>
+        <v>233000</v>
       </c>
       <c r="J43" s="3">
+        <v>237500</v>
+      </c>
+      <c r="K43" s="3">
         <v>257700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>234100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>251000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>228700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>222400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>172100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>170100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>162700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>150100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>129600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>119900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>114700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>117500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>91500</v>
+        <v>94800</v>
       </c>
       <c r="E44" s="3">
-        <v>86600</v>
+        <v>91100</v>
       </c>
       <c r="F44" s="3">
-        <v>65000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
+        <v>86300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>64800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -2801,8 +2897,8 @@
       <c r="L44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2834,333 +2930,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>439300</v>
+        <v>267500</v>
       </c>
       <c r="E45" s="3">
-        <v>327700</v>
+        <v>437700</v>
       </c>
       <c r="F45" s="3">
-        <v>266000</v>
+        <v>326500</v>
       </c>
       <c r="G45" s="3">
-        <v>263900</v>
+        <v>265000</v>
       </c>
       <c r="H45" s="3">
-        <v>221600</v>
+        <v>262900</v>
       </c>
       <c r="I45" s="3">
-        <v>179600</v>
+        <v>220700</v>
       </c>
       <c r="J45" s="3">
+        <v>178900</v>
+      </c>
+      <c r="K45" s="3">
         <v>174700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>116200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>117700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>83400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>119400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>105000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>81600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>81700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3828300</v>
+        <v>2870000</v>
       </c>
       <c r="E46" s="3">
-        <v>3943300</v>
+        <v>3814200</v>
       </c>
       <c r="F46" s="3">
-        <v>3926200</v>
+        <v>3928700</v>
       </c>
       <c r="G46" s="3">
-        <v>3954100</v>
+        <v>3911700</v>
       </c>
       <c r="H46" s="3">
-        <v>3725600</v>
+        <v>3939400</v>
       </c>
       <c r="I46" s="3">
-        <v>3084000</v>
+        <v>3711800</v>
       </c>
       <c r="J46" s="3">
+        <v>3072600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1626200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1412300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1317600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1217400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1618800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1791700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1682900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1243600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1149000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1130100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1077900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1138000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16900</v>
+        <v>52800</v>
       </c>
       <c r="E47" s="3">
-        <v>137000</v>
+        <v>16800</v>
       </c>
       <c r="F47" s="3">
+        <v>136500</v>
+      </c>
+      <c r="G47" s="3">
         <v>15300</v>
       </c>
-      <c r="G47" s="3">
-        <v>14800</v>
-      </c>
       <c r="H47" s="3">
-        <v>352800</v>
+        <v>14700</v>
       </c>
       <c r="I47" s="3">
-        <v>367400</v>
+        <v>351500</v>
       </c>
       <c r="J47" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K47" s="3">
         <v>379500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>401500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>471800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>483400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>524100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>598000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>168100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>107900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>105600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>105900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>64400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>23000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1454500</v>
+        <v>1695700</v>
       </c>
       <c r="E48" s="3">
-        <v>1244900</v>
+        <v>1449100</v>
       </c>
       <c r="F48" s="3">
-        <v>1116400</v>
+        <v>1240300</v>
       </c>
       <c r="G48" s="3">
-        <v>1080700</v>
+        <v>1112200</v>
       </c>
       <c r="H48" s="3">
-        <v>937300</v>
+        <v>1076700</v>
       </c>
       <c r="I48" s="3">
-        <v>830200</v>
+        <v>933800</v>
       </c>
       <c r="J48" s="3">
+        <v>827200</v>
+      </c>
+      <c r="K48" s="3">
         <v>933900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>864500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>785300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>787100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>751100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>416600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>422500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>381800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>326000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>345700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>344300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>307800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>285600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2020200</v>
+        <v>2065600</v>
       </c>
       <c r="E49" s="3">
-        <v>2013700</v>
+        <v>2012700</v>
       </c>
       <c r="F49" s="3">
-        <v>1806000</v>
+        <v>2006300</v>
       </c>
       <c r="G49" s="3">
-        <v>1814700</v>
+        <v>1799300</v>
       </c>
       <c r="H49" s="3">
-        <v>897800</v>
+        <v>1808000</v>
       </c>
       <c r="I49" s="3">
-        <v>891800</v>
+        <v>894400</v>
       </c>
       <c r="J49" s="3">
+        <v>888500</v>
+      </c>
+      <c r="K49" s="3">
         <v>890500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>889900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>861500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>861700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>850700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>906800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1004400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1005100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>221000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>213300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>219300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>204600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>211800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>216900</v>
+        <v>220500</v>
       </c>
       <c r="E52" s="3">
-        <v>143300</v>
+        <v>216100</v>
       </c>
       <c r="F52" s="3">
-        <v>107100</v>
+        <v>142800</v>
       </c>
       <c r="G52" s="3">
-        <v>126000</v>
+        <v>106700</v>
       </c>
       <c r="H52" s="3">
-        <v>101200</v>
+        <v>125600</v>
       </c>
       <c r="I52" s="3">
-        <v>112200</v>
+        <v>100800</v>
       </c>
       <c r="J52" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K52" s="3">
         <v>105900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>102100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>123300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>131000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>123900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>111800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>105400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>89700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>78300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>73700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7536800</v>
+        <v>6904600</v>
       </c>
       <c r="E54" s="3">
-        <v>7482300</v>
+        <v>7508900</v>
       </c>
       <c r="F54" s="3">
-        <v>6971100</v>
+        <v>7454600</v>
       </c>
       <c r="G54" s="3">
-        <v>6990300</v>
+        <v>6945300</v>
       </c>
       <c r="H54" s="3">
-        <v>6014600</v>
+        <v>6964400</v>
       </c>
       <c r="I54" s="3">
-        <v>5285600</v>
+        <v>5992300</v>
       </c>
       <c r="J54" s="3">
+        <v>5266100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3936000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3858400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3557300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3542500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3423600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3589600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3947700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3361800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2010400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1919100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1889200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1733000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1732200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>890300</v>
+        <v>1174200</v>
       </c>
       <c r="E57" s="3">
-        <v>875100</v>
+        <v>887000</v>
       </c>
       <c r="F57" s="3">
-        <v>589900</v>
+        <v>871900</v>
       </c>
       <c r="G57" s="3">
-        <v>599800</v>
+        <v>587700</v>
       </c>
       <c r="H57" s="3">
-        <v>440200</v>
+        <v>597600</v>
       </c>
       <c r="I57" s="3">
-        <v>482200</v>
+        <v>438600</v>
       </c>
       <c r="J57" s="3">
+        <v>480400</v>
+      </c>
+      <c r="K57" s="3">
         <v>472900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>433700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>342800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>396800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>298800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>234700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>212800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>265900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>171100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>175600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>166900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>154000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>119200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3638,19 +3772,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>296800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>312800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>282700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>274600</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
@@ -3664,161 +3798,170 @@
       <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270600</v>
+        <v>278500</v>
       </c>
       <c r="E59" s="3">
-        <v>258800</v>
+        <v>269600</v>
       </c>
       <c r="F59" s="3">
-        <v>244500</v>
+        <v>257800</v>
       </c>
       <c r="G59" s="3">
-        <v>189000</v>
+        <v>243600</v>
       </c>
       <c r="H59" s="3">
-        <v>117700</v>
+        <v>188300</v>
       </c>
       <c r="I59" s="3">
-        <v>162700</v>
+        <v>117300</v>
       </c>
       <c r="J59" s="3">
+        <v>162100</v>
+      </c>
+      <c r="K59" s="3">
         <v>156300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>144100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>109600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>90800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>84600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>83600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>102800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>91200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>69500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>102800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1160900</v>
+        <v>1452700</v>
       </c>
       <c r="E60" s="3">
-        <v>1133900</v>
+        <v>1156700</v>
       </c>
       <c r="F60" s="3">
-        <v>834400</v>
+        <v>1129700</v>
       </c>
       <c r="G60" s="3">
-        <v>788800</v>
+        <v>831400</v>
       </c>
       <c r="H60" s="3">
-        <v>558000</v>
+        <v>785900</v>
       </c>
       <c r="I60" s="3">
-        <v>644900</v>
+        <v>555900</v>
       </c>
       <c r="J60" s="3">
+        <v>642500</v>
+      </c>
+      <c r="K60" s="3">
         <v>629200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>577800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>465700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>506400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>389600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>616200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>628500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>632100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>548600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>257100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>258200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>223400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>222000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1116700</v>
+        <v>1309900</v>
       </c>
       <c r="E61" s="3">
-        <v>1160900</v>
+        <v>1112500</v>
       </c>
       <c r="F61" s="3">
-        <v>1125900</v>
+        <v>1156600</v>
       </c>
       <c r="G61" s="3">
-        <v>1207000</v>
+        <v>1121700</v>
       </c>
       <c r="H61" s="3">
-        <v>1053100</v>
+        <v>1202500</v>
       </c>
       <c r="I61" s="3">
-        <v>1163100</v>
+        <v>1049200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1158800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3845,87 +3988,93 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>274000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>276400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>260700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>284600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>526700</v>
+        <v>449600</v>
       </c>
       <c r="E62" s="3">
-        <v>431700</v>
+        <v>524700</v>
       </c>
       <c r="F62" s="3">
-        <v>288700</v>
+        <v>430100</v>
       </c>
       <c r="G62" s="3">
-        <v>288200</v>
+        <v>287700</v>
       </c>
       <c r="H62" s="3">
-        <v>170000</v>
+        <v>287100</v>
       </c>
       <c r="I62" s="3">
-        <v>159400</v>
+        <v>169400</v>
       </c>
       <c r="J62" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K62" s="3">
         <v>204800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>154000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>171500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>174900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>190100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>37100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>32500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3088400</v>
+        <v>3426500</v>
       </c>
       <c r="E66" s="3">
-        <v>3022000</v>
+        <v>3077000</v>
       </c>
       <c r="F66" s="3">
-        <v>2563600</v>
+        <v>3010800</v>
       </c>
       <c r="G66" s="3">
-        <v>2647100</v>
+        <v>2554100</v>
       </c>
       <c r="H66" s="3">
-        <v>2262500</v>
+        <v>2637300</v>
       </c>
       <c r="I66" s="3">
-        <v>2453700</v>
+        <v>2254100</v>
       </c>
       <c r="J66" s="3">
+        <v>2444700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1300600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1206500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1094900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1140300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1053600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1059000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1113800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1125700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>734900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>651500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>647300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>542600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>562000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1883700</v>
+        <v>1830800</v>
       </c>
       <c r="E72" s="3">
-        <v>1938700</v>
+        <v>1876800</v>
       </c>
       <c r="F72" s="3">
-        <v>1987300</v>
+        <v>1931500</v>
       </c>
       <c r="G72" s="3">
-        <v>1944600</v>
+        <v>1979900</v>
       </c>
       <c r="H72" s="3">
-        <v>1669700</v>
+        <v>1937400</v>
       </c>
       <c r="I72" s="3">
-        <v>1726500</v>
+        <v>1663500</v>
       </c>
       <c r="J72" s="3">
+        <v>1720100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1652000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1665400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1550600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1515700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1476900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1590100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1698500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1171100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1047800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1061800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1055400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1033900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1027600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4448300</v>
+        <v>3478100</v>
       </c>
       <c r="E76" s="3">
-        <v>4460300</v>
+        <v>4431900</v>
       </c>
       <c r="F76" s="3">
-        <v>4407500</v>
+        <v>4443800</v>
       </c>
       <c r="G76" s="3">
-        <v>4343100</v>
+        <v>4391200</v>
       </c>
       <c r="H76" s="3">
-        <v>3752100</v>
+        <v>4327100</v>
       </c>
       <c r="I76" s="3">
-        <v>2831900</v>
+        <v>3738200</v>
       </c>
       <c r="J76" s="3">
+        <v>2821400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2635400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2651900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2462400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2402200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2370000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2530600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2833900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2236100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1275500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1267600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1241900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1190400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1170200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52400</v>
+        <v>-45600</v>
       </c>
       <c r="E81" s="3">
-        <v>-40200</v>
+        <v>-52300</v>
       </c>
       <c r="F81" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="G81" s="3">
         <v>11000</v>
       </c>
-      <c r="G81" s="3">
-        <v>299500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-45900</v>
+        <v>296300</v>
       </c>
       <c r="I81" s="3">
-        <v>78300</v>
+        <v>-45800</v>
       </c>
       <c r="J81" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K81" s="3">
         <v>12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>73500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>525600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>54300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>78800</v>
+        <v>95300</v>
       </c>
       <c r="E83" s="3">
-        <v>71100</v>
+        <v>78500</v>
       </c>
       <c r="F83" s="3">
-        <v>65500</v>
+        <v>70800</v>
       </c>
       <c r="G83" s="3">
-        <v>62500</v>
+        <v>65300</v>
       </c>
       <c r="H83" s="3">
-        <v>56900</v>
+        <v>62300</v>
       </c>
       <c r="I83" s="3">
-        <v>54200</v>
+        <v>56700</v>
       </c>
       <c r="J83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K83" s="3">
         <v>53800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-65900</v>
+        <v>29700</v>
       </c>
       <c r="E89" s="3">
-        <v>115700</v>
+        <v>-65600</v>
       </c>
       <c r="F89" s="3">
-        <v>83000</v>
+        <v>115300</v>
       </c>
       <c r="G89" s="3">
-        <v>255600</v>
+        <v>82700</v>
       </c>
       <c r="H89" s="3">
+        <v>254600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
-        <v>104000</v>
-      </c>
       <c r="J89" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K89" s="3">
         <v>116600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>199800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>114000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>107900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>107700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>81900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>116900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>110400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>80900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-185000</v>
+        <v>-114500</v>
       </c>
       <c r="E91" s="3">
-        <v>-48100</v>
+        <v>-184300</v>
       </c>
       <c r="F91" s="3">
-        <v>-97000</v>
+        <v>-47900</v>
       </c>
       <c r="G91" s="3">
-        <v>-63500</v>
+        <v>-96700</v>
       </c>
       <c r="H91" s="3">
-        <v>-138900</v>
+        <v>-63200</v>
       </c>
       <c r="I91" s="3">
-        <v>-32500</v>
+        <v>-138400</v>
       </c>
       <c r="J91" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-74800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-183600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-142200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-58700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-88700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E94" s="3">
         <v>11900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-667700</v>
-      </c>
       <c r="F94" s="3">
-        <v>499500</v>
+        <v>-665300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1565000</v>
+        <v>497700</v>
       </c>
       <c r="H94" s="3">
-        <v>-57900</v>
+        <v>-1559200</v>
       </c>
       <c r="I94" s="3">
-        <v>-498300</v>
+        <v>-57700</v>
       </c>
       <c r="J94" s="3">
+        <v>-496500</v>
+      </c>
+      <c r="K94" s="3">
         <v>109400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-393000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-294400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>404000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>223000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-294200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>180200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>88200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-195900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-189700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-379000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5100</v>
+        <v>-918000</v>
       </c>
       <c r="E100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14500</v>
       </c>
-      <c r="G100" s="3">
-        <v>-68500</v>
-      </c>
       <c r="H100" s="3">
-        <v>949300</v>
+        <v>-68300</v>
       </c>
       <c r="I100" s="3">
-        <v>993100</v>
+        <v>945800</v>
       </c>
       <c r="J100" s="3">
+        <v>989500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-287100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-146500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-48400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8700</v>
       </c>
-      <c r="E101" s="3">
-        <v>20600</v>
-      </c>
       <c r="F101" s="3">
-        <v>-70700</v>
+        <v>20500</v>
       </c>
       <c r="G101" s="3">
-        <v>150000</v>
+        <v>-70400</v>
       </c>
       <c r="H101" s="3">
-        <v>-89900</v>
+        <v>149500</v>
       </c>
       <c r="I101" s="3">
-        <v>330500</v>
+        <v>-89600</v>
       </c>
       <c r="J101" s="3">
+        <v>329200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-42000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-67700</v>
+        <v>-86600</v>
       </c>
       <c r="E102" s="3">
-        <v>-534300</v>
+        <v>-67500</v>
       </c>
       <c r="F102" s="3">
-        <v>526400</v>
+        <v>-532300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1227900</v>
+        <v>524400</v>
       </c>
       <c r="H102" s="3">
-        <v>799700</v>
+        <v>-1223400</v>
       </c>
       <c r="I102" s="3">
-        <v>929300</v>
+        <v>796700</v>
       </c>
       <c r="J102" s="3">
+        <v>925900</v>
+      </c>
+      <c r="K102" s="3">
         <v>174200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>132300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-263200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-198100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>257300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>189600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-165700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>53400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>293700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>138000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-82000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-125800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-356200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1229900</v>
+        <v>872700</v>
       </c>
       <c r="E8" s="3">
-        <v>1096500</v>
+        <v>722200</v>
       </c>
       <c r="F8" s="3">
-        <v>985100</v>
+        <v>643900</v>
       </c>
       <c r="G8" s="3">
-        <v>964400</v>
+        <v>578500</v>
       </c>
       <c r="H8" s="3">
-        <v>785800</v>
+        <v>566300</v>
       </c>
       <c r="I8" s="3">
-        <v>557800</v>
+        <v>461400</v>
       </c>
       <c r="J8" s="3">
+        <v>327500</v>
+      </c>
+      <c r="K8" s="3">
         <v>633100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>698900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>612600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>544400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>491800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>514700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>462500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>468500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>419600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>429000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>360900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>340400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>313500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>335800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>615200</v>
+        <v>415000</v>
       </c>
       <c r="E9" s="3">
-        <v>562700</v>
+        <v>361300</v>
       </c>
       <c r="F9" s="3">
-        <v>458500</v>
+        <v>330400</v>
       </c>
       <c r="G9" s="3">
-        <v>423600</v>
+        <v>269300</v>
       </c>
       <c r="H9" s="3">
-        <v>298200</v>
+        <v>248700</v>
       </c>
       <c r="I9" s="3">
-        <v>214300</v>
+        <v>175100</v>
       </c>
       <c r="J9" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K9" s="3">
         <v>218700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>238800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>190000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>165400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>152800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>157100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>130400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>106000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>104700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>93100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>88500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>81200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>85600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>614700</v>
+        <v>457700</v>
       </c>
       <c r="E10" s="3">
-        <v>533800</v>
+        <v>361000</v>
       </c>
       <c r="F10" s="3">
-        <v>526600</v>
+        <v>313500</v>
       </c>
       <c r="G10" s="3">
-        <v>540900</v>
+        <v>309200</v>
       </c>
       <c r="H10" s="3">
-        <v>487500</v>
+        <v>317600</v>
       </c>
       <c r="I10" s="3">
-        <v>343400</v>
+        <v>286300</v>
       </c>
       <c r="J10" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K10" s="3">
         <v>414400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>460100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>422600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>379000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>339000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>357600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>333800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>338100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>313600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>324400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>267900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>251900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>232300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>250200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>164600</v>
+        <v>110700</v>
       </c>
       <c r="E12" s="3">
-        <v>151300</v>
+        <v>96700</v>
       </c>
       <c r="F12" s="3">
-        <v>148300</v>
+        <v>88900</v>
       </c>
       <c r="G12" s="3">
-        <v>135100</v>
+        <v>87100</v>
       </c>
       <c r="H12" s="3">
-        <v>126800</v>
+        <v>79300</v>
       </c>
       <c r="I12" s="3">
-        <v>120800</v>
+        <v>74500</v>
       </c>
       <c r="J12" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K12" s="3">
         <v>106800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>109500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>96900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>90700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>95100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>78600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>85000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>91600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>80100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>70400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>68900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>68600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>65300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,61 +1143,64 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>-259000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-152100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>10300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-446000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1189,82 +1208,88 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>82600</v>
+        <v>56000</v>
       </c>
       <c r="E15" s="3">
-        <v>76000</v>
+        <v>48500</v>
       </c>
       <c r="F15" s="3">
-        <v>70800</v>
+        <v>44600</v>
       </c>
       <c r="G15" s="3">
-        <v>65300</v>
+        <v>41600</v>
       </c>
       <c r="H15" s="3">
-        <v>64400</v>
+        <v>38300</v>
       </c>
       <c r="I15" s="3">
-        <v>54600</v>
+        <v>37800</v>
       </c>
       <c r="J15" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K15" s="3">
         <v>54000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>49400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>46600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>45100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>37400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>36600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1306400</v>
+        <v>893300</v>
       </c>
       <c r="E17" s="3">
-        <v>1160100</v>
+        <v>767200</v>
       </c>
       <c r="F17" s="3">
-        <v>988700</v>
+        <v>681200</v>
       </c>
       <c r="G17" s="3">
-        <v>905400</v>
+        <v>580600</v>
       </c>
       <c r="H17" s="3">
-        <v>442400</v>
+        <v>533900</v>
       </c>
       <c r="I17" s="3">
-        <v>556200</v>
+        <v>259800</v>
       </c>
       <c r="J17" s="3">
+        <v>326600</v>
+      </c>
+      <c r="K17" s="3">
         <v>563200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>632800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>505700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>450600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>428300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>415800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>377900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-44700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>369700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>354900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>332500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>294200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>262300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>285100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-76600</v>
+        <v>-20600</v>
       </c>
       <c r="E18" s="3">
-        <v>-63600</v>
+        <v>-45000</v>
       </c>
       <c r="F18" s="3">
-        <v>-3600</v>
+        <v>-37400</v>
       </c>
       <c r="G18" s="3">
-        <v>59000</v>
+        <v>-2100</v>
       </c>
       <c r="H18" s="3">
-        <v>343300</v>
+        <v>32500</v>
       </c>
       <c r="I18" s="3">
-        <v>1600</v>
+        <v>201600</v>
       </c>
       <c r="J18" s="3">
+        <v>900</v>
+      </c>
+      <c r="K18" s="3">
         <v>69900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>107000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>98900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>84600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>513300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>49900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>46200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>51200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,191 +1480,198 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>51700</v>
+        <v>22900</v>
       </c>
       <c r="E20" s="3">
-        <v>18900</v>
+        <v>30300</v>
       </c>
       <c r="F20" s="3">
-        <v>22000</v>
+        <v>11100</v>
       </c>
       <c r="G20" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>56000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
-      <c r="H20" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>56000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>7500</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-23500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>89700</v>
+        <v>65700</v>
       </c>
       <c r="E21" s="3">
-        <v>53900</v>
+        <v>52700</v>
       </c>
       <c r="F21" s="3">
-        <v>108000</v>
+        <v>31700</v>
       </c>
       <c r="G21" s="3">
-        <v>141700</v>
+        <v>63400</v>
       </c>
       <c r="H21" s="3">
-        <v>425200</v>
+        <v>80700</v>
       </c>
       <c r="I21" s="3">
-        <v>52700</v>
+        <v>249700</v>
       </c>
       <c r="J21" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K21" s="3">
         <v>187800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>162800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>136300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>148900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>597100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>133100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>121600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>65200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>74900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12600</v>
+        <v>8900</v>
       </c>
       <c r="E22" s="3">
-        <v>11600</v>
+        <v>7400</v>
       </c>
       <c r="F22" s="3">
-        <v>10700</v>
+        <v>6800</v>
       </c>
       <c r="G22" s="3">
-        <v>10100</v>
+        <v>6300</v>
       </c>
       <c r="H22" s="3">
-        <v>9700</v>
+        <v>5900</v>
       </c>
       <c r="I22" s="3">
-        <v>9100</v>
+        <v>5700</v>
       </c>
       <c r="J22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3500</v>
       </c>
       <c r="S22" s="3">
         <v>3500</v>
@@ -1641,155 +1680,164 @@
         <v>3500</v>
       </c>
       <c r="U22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3500</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37500</v>
+        <v>-6600</v>
       </c>
       <c r="E23" s="3">
-        <v>-56300</v>
+        <v>-22000</v>
       </c>
       <c r="F23" s="3">
-        <v>7700</v>
+        <v>-33100</v>
       </c>
       <c r="G23" s="3">
-        <v>56400</v>
+        <v>4500</v>
       </c>
       <c r="H23" s="3">
-        <v>341200</v>
+        <v>30600</v>
       </c>
       <c r="I23" s="3">
-        <v>-23900</v>
+        <v>200400</v>
       </c>
       <c r="J23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K23" s="3">
         <v>122800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>110800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>96000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>547000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>74800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>38400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15100</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
-        <v>6500</v>
+        <v>8900</v>
       </c>
       <c r="F24" s="3">
-        <v>51100</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
-        <v>51000</v>
+        <v>30000</v>
       </c>
       <c r="H24" s="3">
-        <v>48100</v>
+        <v>31400</v>
       </c>
       <c r="I24" s="3">
-        <v>26500</v>
+        <v>28300</v>
       </c>
       <c r="J24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K24" s="3">
         <v>49700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>29200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52600</v>
+        <v>-22600</v>
       </c>
       <c r="E26" s="3">
-        <v>-62800</v>
+        <v>-30900</v>
       </c>
       <c r="F26" s="3">
-        <v>-43400</v>
+        <v>-36900</v>
       </c>
       <c r="G26" s="3">
-        <v>5400</v>
+        <v>-25500</v>
       </c>
       <c r="H26" s="3">
-        <v>293100</v>
+        <v>-800</v>
       </c>
       <c r="I26" s="3">
-        <v>-50400</v>
+        <v>172100</v>
       </c>
       <c r="J26" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K26" s="3">
         <v>73100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>65300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>71500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>514400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>29200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45600</v>
+        <v>-35000</v>
       </c>
       <c r="E27" s="3">
-        <v>-52300</v>
+        <v>-26800</v>
       </c>
       <c r="F27" s="3">
-        <v>-40100</v>
+        <v>-30700</v>
       </c>
       <c r="G27" s="3">
-        <v>11000</v>
+        <v>-23500</v>
       </c>
       <c r="H27" s="3">
-        <v>296300</v>
+        <v>2500</v>
       </c>
       <c r="I27" s="3">
-        <v>-45800</v>
+        <v>174000</v>
       </c>
       <c r="J27" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K27" s="3">
         <v>78000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>73500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>525600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>54100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51700</v>
+        <v>-22900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18900</v>
+        <v>-30300</v>
       </c>
       <c r="F32" s="3">
-        <v>-22000</v>
+        <v>-11100</v>
       </c>
       <c r="G32" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>20400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O32" s="3">
+        <v>600</v>
+      </c>
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-56000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>20400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>6900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>23500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45600</v>
+        <v>-35000</v>
       </c>
       <c r="E33" s="3">
-        <v>-52300</v>
+        <v>-26800</v>
       </c>
       <c r="F33" s="3">
-        <v>-40100</v>
+        <v>-30700</v>
       </c>
       <c r="G33" s="3">
-        <v>11000</v>
+        <v>-23500</v>
       </c>
       <c r="H33" s="3">
-        <v>296300</v>
+        <v>2500</v>
       </c>
       <c r="I33" s="3">
-        <v>-45800</v>
+        <v>174000</v>
       </c>
       <c r="J33" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K33" s="3">
         <v>78000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>73500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>525600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>54300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>54100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45600</v>
+        <v>-35000</v>
       </c>
       <c r="E35" s="3">
-        <v>-52300</v>
+        <v>-26800</v>
       </c>
       <c r="F35" s="3">
-        <v>-40100</v>
+        <v>-30700</v>
       </c>
       <c r="G35" s="3">
-        <v>11000</v>
+        <v>-23500</v>
       </c>
       <c r="H35" s="3">
-        <v>296300</v>
+        <v>2500</v>
       </c>
       <c r="I35" s="3">
-        <v>-45800</v>
+        <v>174000</v>
       </c>
       <c r="J35" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K35" s="3">
         <v>78000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>73500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>525600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>54300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>54100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,229 +2746,239 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1096800</v>
+        <v>627100</v>
       </c>
       <c r="E41" s="3">
-        <v>1183600</v>
+        <v>644100</v>
       </c>
       <c r="F41" s="3">
-        <v>1251100</v>
+        <v>695000</v>
       </c>
       <c r="G41" s="3">
-        <v>1783400</v>
+        <v>734700</v>
       </c>
       <c r="H41" s="3">
-        <v>1258900</v>
+        <v>1047300</v>
       </c>
       <c r="I41" s="3">
-        <v>2482400</v>
+        <v>739300</v>
       </c>
       <c r="J41" s="3">
+        <v>1457700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1685700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>762700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>592400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>444600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>710000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>911600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>701300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>567300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>733300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>657000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>363300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>224900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>303300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>86700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>776400</v>
+        <v>220800</v>
       </c>
       <c r="E42" s="3">
-        <v>1694800</v>
+        <v>455900</v>
       </c>
       <c r="F42" s="3">
-        <v>1861300</v>
+        <v>995200</v>
       </c>
       <c r="G42" s="3">
-        <v>1425000</v>
+        <v>1093000</v>
       </c>
       <c r="H42" s="3">
-        <v>2134100</v>
+        <v>836800</v>
       </c>
       <c r="I42" s="3">
-        <v>775600</v>
+        <v>1253200</v>
       </c>
       <c r="J42" s="3">
+        <v>455500</v>
+      </c>
+      <c r="K42" s="3">
         <v>970500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>431200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>611200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>600600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>261300</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>625900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>949300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>705300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>354800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>585400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>715100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>587700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>870200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>634500</v>
+        <v>500300</v>
       </c>
       <c r="E43" s="3">
-        <v>407000</v>
+        <v>372600</v>
       </c>
       <c r="F43" s="3">
-        <v>403600</v>
+        <v>239000</v>
       </c>
       <c r="G43" s="3">
-        <v>373500</v>
+        <v>237000</v>
       </c>
       <c r="H43" s="3">
-        <v>283500</v>
+        <v>219300</v>
       </c>
       <c r="I43" s="3">
-        <v>233000</v>
+        <v>166500</v>
       </c>
       <c r="J43" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K43" s="3">
         <v>237500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>257700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>234100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>251000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>228700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>222400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>172100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>162700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>150100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>129600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>119900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>114700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>117500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>94800</v>
+        <v>75800</v>
       </c>
       <c r="E44" s="3">
-        <v>91100</v>
+        <v>55700</v>
       </c>
       <c r="F44" s="3">
-        <v>86300</v>
+        <v>53500</v>
       </c>
       <c r="G44" s="3">
-        <v>64800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
+        <v>50700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>38000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>10</v>
@@ -2900,8 +2995,8 @@
       <c r="M44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2933,348 +3028,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>267500</v>
+        <v>157800</v>
       </c>
       <c r="E45" s="3">
-        <v>437700</v>
+        <v>157100</v>
       </c>
       <c r="F45" s="3">
-        <v>326500</v>
+        <v>257000</v>
       </c>
       <c r="G45" s="3">
-        <v>265000</v>
+        <v>191700</v>
       </c>
       <c r="H45" s="3">
-        <v>262900</v>
+        <v>155600</v>
       </c>
       <c r="I45" s="3">
-        <v>220700</v>
+        <v>154400</v>
       </c>
       <c r="J45" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K45" s="3">
         <v>178900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>174700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>116200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>83400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>119400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>105000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>81600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>81700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2870000</v>
+        <v>1581800</v>
       </c>
       <c r="E46" s="3">
-        <v>3814200</v>
+        <v>1685400</v>
       </c>
       <c r="F46" s="3">
-        <v>3928700</v>
+        <v>2239800</v>
       </c>
       <c r="G46" s="3">
-        <v>3911700</v>
+        <v>2307100</v>
       </c>
       <c r="H46" s="3">
-        <v>3939400</v>
+        <v>2297100</v>
       </c>
       <c r="I46" s="3">
-        <v>3711800</v>
+        <v>2313400</v>
       </c>
       <c r="J46" s="3">
+        <v>2179700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3072600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1626200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1412300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1317600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1217400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1618800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1791700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1682900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1243600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1149000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1130100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1077900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1138000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>52800</v>
+        <v>80800</v>
       </c>
       <c r="E47" s="3">
-        <v>16800</v>
+        <v>31000</v>
       </c>
       <c r="F47" s="3">
-        <v>136500</v>
+        <v>9900</v>
       </c>
       <c r="G47" s="3">
-        <v>15300</v>
+        <v>80200</v>
       </c>
       <c r="H47" s="3">
-        <v>14700</v>
+        <v>9000</v>
       </c>
       <c r="I47" s="3">
-        <v>351500</v>
+        <v>8600</v>
       </c>
       <c r="J47" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K47" s="3">
         <v>366000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>379500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>401500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>471800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>483400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>524100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>598000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>168100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>107900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>105600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>105900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>64400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>23000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1695700</v>
+        <v>1064400</v>
       </c>
       <c r="E48" s="3">
-        <v>1449100</v>
+        <v>995800</v>
       </c>
       <c r="F48" s="3">
-        <v>1240300</v>
+        <v>850900</v>
       </c>
       <c r="G48" s="3">
-        <v>1112200</v>
+        <v>728400</v>
       </c>
       <c r="H48" s="3">
-        <v>1076700</v>
+        <v>653100</v>
       </c>
       <c r="I48" s="3">
-        <v>933800</v>
+        <v>632300</v>
       </c>
       <c r="J48" s="3">
+        <v>548400</v>
+      </c>
+      <c r="K48" s="3">
         <v>827200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>933900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>864500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>785300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>787100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>751100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>416600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>422500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>381800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>326000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>345700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>344300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>307800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>285600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2065600</v>
+        <v>1218100</v>
       </c>
       <c r="E49" s="3">
-        <v>2012700</v>
+        <v>1213000</v>
       </c>
       <c r="F49" s="3">
-        <v>2006300</v>
+        <v>1181900</v>
       </c>
       <c r="G49" s="3">
-        <v>1799300</v>
+        <v>1178100</v>
       </c>
       <c r="H49" s="3">
-        <v>1808000</v>
+        <v>1056600</v>
       </c>
       <c r="I49" s="3">
-        <v>894400</v>
+        <v>1061700</v>
       </c>
       <c r="J49" s="3">
+        <v>525200</v>
+      </c>
+      <c r="K49" s="3">
         <v>888500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>890500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>889900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>861500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>861700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>850700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>906800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1004400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1005100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>221000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>213300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>219300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>204600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>211800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>220500</v>
+        <v>132500</v>
       </c>
       <c r="E52" s="3">
-        <v>216100</v>
+        <v>129500</v>
       </c>
       <c r="F52" s="3">
-        <v>142800</v>
+        <v>126900</v>
       </c>
       <c r="G52" s="3">
-        <v>106700</v>
+        <v>83900</v>
       </c>
       <c r="H52" s="3">
-        <v>125600</v>
+        <v>62700</v>
       </c>
       <c r="I52" s="3">
-        <v>100800</v>
+        <v>73700</v>
       </c>
       <c r="J52" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K52" s="3">
         <v>111800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>102100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>97500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>123300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>131000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>123900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>111800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>105400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>89700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>78300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>73700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6904600</v>
+        <v>4077600</v>
       </c>
       <c r="E54" s="3">
-        <v>7508900</v>
+        <v>4054600</v>
       </c>
       <c r="F54" s="3">
-        <v>7454600</v>
+        <v>4409400</v>
       </c>
       <c r="G54" s="3">
-        <v>6945300</v>
+        <v>4377600</v>
       </c>
       <c r="H54" s="3">
-        <v>6964400</v>
+        <v>4078500</v>
       </c>
       <c r="I54" s="3">
-        <v>5992300</v>
+        <v>4089700</v>
       </c>
       <c r="J54" s="3">
+        <v>3518900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5266100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3936000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3858400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3557300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3542500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3423600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3589600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3947700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3361800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2010400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1919100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1889200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1733000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1732200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1174200</v>
+        <v>668400</v>
       </c>
       <c r="E57" s="3">
-        <v>887000</v>
+        <v>689500</v>
       </c>
       <c r="F57" s="3">
-        <v>871900</v>
+        <v>520900</v>
       </c>
       <c r="G57" s="3">
-        <v>587700</v>
+        <v>512000</v>
       </c>
       <c r="H57" s="3">
-        <v>597600</v>
+        <v>345100</v>
       </c>
       <c r="I57" s="3">
-        <v>438600</v>
+        <v>350900</v>
       </c>
       <c r="J57" s="3">
+        <v>257600</v>
+      </c>
+      <c r="K57" s="3">
         <v>480400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>472900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>433700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>342800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>396800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>298800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>234700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>212800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>265900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>171100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>175600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>166900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>154000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>119200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3775,19 +3908,19 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>296800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>312800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>282700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>274600</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>10</v>
@@ -3801,171 +3934,180 @@
       <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>278500</v>
+        <v>210500</v>
       </c>
       <c r="E59" s="3">
-        <v>269600</v>
+        <v>163500</v>
       </c>
       <c r="F59" s="3">
-        <v>257800</v>
+        <v>158300</v>
       </c>
       <c r="G59" s="3">
-        <v>243600</v>
+        <v>151400</v>
       </c>
       <c r="H59" s="3">
-        <v>188300</v>
+        <v>143100</v>
       </c>
       <c r="I59" s="3">
-        <v>117300</v>
+        <v>110600</v>
       </c>
       <c r="J59" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K59" s="3">
         <v>162100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>144100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>122900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>109600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>90800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>84600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>83600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>102800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>91200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>69500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>102800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1452700</v>
+        <v>878800</v>
       </c>
       <c r="E60" s="3">
-        <v>1156700</v>
+        <v>853000</v>
       </c>
       <c r="F60" s="3">
-        <v>1129700</v>
+        <v>679200</v>
       </c>
       <c r="G60" s="3">
-        <v>831400</v>
+        <v>663400</v>
       </c>
       <c r="H60" s="3">
-        <v>785900</v>
+        <v>488200</v>
       </c>
       <c r="I60" s="3">
-        <v>555900</v>
+        <v>461500</v>
       </c>
       <c r="J60" s="3">
+        <v>326400</v>
+      </c>
+      <c r="K60" s="3">
         <v>642500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>629200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>577800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>465700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>506400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>389600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>616200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>628500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>632100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>548600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>257100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>258200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>223400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>222000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1309900</v>
+        <v>800400</v>
       </c>
       <c r="E61" s="3">
-        <v>1112500</v>
+        <v>769200</v>
       </c>
       <c r="F61" s="3">
-        <v>1156600</v>
+        <v>653300</v>
       </c>
       <c r="G61" s="3">
-        <v>1121700</v>
+        <v>679200</v>
       </c>
       <c r="H61" s="3">
-        <v>1202500</v>
+        <v>658700</v>
       </c>
       <c r="I61" s="3">
-        <v>1049200</v>
+        <v>706200</v>
       </c>
       <c r="J61" s="3">
+        <v>616100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1158800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3991,90 +4133,96 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>274000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>276400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>260700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>284600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>449600</v>
+        <v>239500</v>
       </c>
       <c r="E62" s="3">
-        <v>524700</v>
+        <v>264000</v>
       </c>
       <c r="F62" s="3">
-        <v>430100</v>
+        <v>308100</v>
       </c>
       <c r="G62" s="3">
-        <v>287700</v>
+        <v>252500</v>
       </c>
       <c r="H62" s="3">
-        <v>287100</v>
+        <v>168900</v>
       </c>
       <c r="I62" s="3">
-        <v>169400</v>
+        <v>168600</v>
       </c>
       <c r="J62" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K62" s="3">
         <v>158800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>204800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>154000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>171500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>174900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>190100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>37100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>32500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3426500</v>
+        <v>2035400</v>
       </c>
       <c r="E66" s="3">
-        <v>3077000</v>
+        <v>2012100</v>
       </c>
       <c r="F66" s="3">
-        <v>3010800</v>
+        <v>1806900</v>
       </c>
       <c r="G66" s="3">
-        <v>2554100</v>
+        <v>1768000</v>
       </c>
       <c r="H66" s="3">
-        <v>2637300</v>
+        <v>1499800</v>
       </c>
       <c r="I66" s="3">
-        <v>2254100</v>
+        <v>1548700</v>
       </c>
       <c r="J66" s="3">
+        <v>1323700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2444700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1206500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1094900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1140300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1053600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1059000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1113800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1125700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>734900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>651500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>647300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>542600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>562000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1830800</v>
+        <v>1040100</v>
       </c>
       <c r="E72" s="3">
-        <v>1876800</v>
+        <v>1075100</v>
       </c>
       <c r="F72" s="3">
-        <v>1931500</v>
+        <v>1102100</v>
       </c>
       <c r="G72" s="3">
-        <v>1979900</v>
+        <v>1134200</v>
       </c>
       <c r="H72" s="3">
-        <v>1937400</v>
+        <v>1162700</v>
       </c>
       <c r="I72" s="3">
-        <v>1663500</v>
+        <v>1137700</v>
       </c>
       <c r="J72" s="3">
+        <v>976800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1720100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1652000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1665400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1550600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1515700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1476900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1590100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1698500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1171100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1047800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1061800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1055400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1033900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1027600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3478100</v>
+        <v>2042200</v>
       </c>
       <c r="E76" s="3">
-        <v>4431900</v>
+        <v>2042500</v>
       </c>
       <c r="F76" s="3">
-        <v>4443800</v>
+        <v>2602500</v>
       </c>
       <c r="G76" s="3">
-        <v>4391200</v>
+        <v>2609600</v>
       </c>
       <c r="H76" s="3">
-        <v>4327100</v>
+        <v>2578600</v>
       </c>
       <c r="I76" s="3">
-        <v>3738200</v>
+        <v>2541000</v>
       </c>
       <c r="J76" s="3">
+        <v>2195200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2821400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2635400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2651900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2462400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2402200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2370000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2530600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2833900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2236100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1275500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1267600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1241900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1190400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1170200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45600</v>
+        <v>-35000</v>
       </c>
       <c r="E81" s="3">
-        <v>-52300</v>
+        <v>-26800</v>
       </c>
       <c r="F81" s="3">
-        <v>-40100</v>
+        <v>-30700</v>
       </c>
       <c r="G81" s="3">
-        <v>11000</v>
+        <v>-23500</v>
       </c>
       <c r="H81" s="3">
-        <v>296300</v>
+        <v>2500</v>
       </c>
       <c r="I81" s="3">
-        <v>-45800</v>
+        <v>174000</v>
       </c>
       <c r="J81" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K81" s="3">
         <v>78000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>73500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>525600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>54300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>54100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95300</v>
+        <v>50500</v>
       </c>
       <c r="E83" s="3">
-        <v>78500</v>
+        <v>56000</v>
       </c>
       <c r="F83" s="3">
-        <v>70800</v>
+        <v>46100</v>
       </c>
       <c r="G83" s="3">
-        <v>65300</v>
+        <v>41600</v>
       </c>
       <c r="H83" s="3">
-        <v>62300</v>
+        <v>38300</v>
       </c>
       <c r="I83" s="3">
-        <v>56700</v>
+        <v>36600</v>
       </c>
       <c r="J83" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K83" s="3">
         <v>54000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>46600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>45100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29700</v>
+        <v>26900</v>
       </c>
       <c r="E89" s="3">
-        <v>-65600</v>
+        <v>17400</v>
       </c>
       <c r="F89" s="3">
-        <v>115300</v>
+        <v>-38500</v>
       </c>
       <c r="G89" s="3">
-        <v>82700</v>
+        <v>67700</v>
       </c>
       <c r="H89" s="3">
-        <v>254600</v>
+        <v>48600</v>
       </c>
       <c r="I89" s="3">
-        <v>-1800</v>
+        <v>149500</v>
       </c>
       <c r="J89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K89" s="3">
         <v>103600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>199800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>114000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>107900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>107700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>81900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>116900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>110400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>80900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-114500</v>
+        <v>-149300</v>
       </c>
       <c r="E91" s="3">
-        <v>-184300</v>
+        <v>-67200</v>
       </c>
       <c r="F91" s="3">
-        <v>-47900</v>
+        <v>-108200</v>
       </c>
       <c r="G91" s="3">
-        <v>-96700</v>
+        <v>-28200</v>
       </c>
       <c r="H91" s="3">
-        <v>-63200</v>
+        <v>-56800</v>
       </c>
       <c r="I91" s="3">
-        <v>-138400</v>
+        <v>-37100</v>
       </c>
       <c r="J91" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-72200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-183600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-142200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-59500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-58700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-88700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>825000</v>
+        <v>73200</v>
       </c>
       <c r="E94" s="3">
-        <v>11900</v>
+        <v>484500</v>
       </c>
       <c r="F94" s="3">
-        <v>-665300</v>
+        <v>7000</v>
       </c>
       <c r="G94" s="3">
-        <v>497700</v>
+        <v>-390700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1559200</v>
+        <v>292300</v>
       </c>
       <c r="I94" s="3">
-        <v>-57700</v>
+        <v>-915600</v>
       </c>
       <c r="J94" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-496500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>109400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-393000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-294400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>404000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>223000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-294200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>180200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>88200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-195900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-189700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-379000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-918000</v>
+        <v>-127400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5000</v>
+        <v>-539100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="G100" s="3">
-        <v>14500</v>
+        <v>-1700</v>
       </c>
       <c r="H100" s="3">
-        <v>-68300</v>
+        <v>8500</v>
       </c>
       <c r="I100" s="3">
-        <v>945800</v>
+        <v>-40100</v>
       </c>
       <c r="J100" s="3">
+        <v>555400</v>
+      </c>
+      <c r="K100" s="3">
         <v>989500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-287100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-146500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-48400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23200</v>
+        <v>10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-8700</v>
+        <v>-13700</v>
       </c>
       <c r="F101" s="3">
-        <v>20500</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>-70400</v>
+        <v>12000</v>
       </c>
       <c r="H101" s="3">
-        <v>149500</v>
+        <v>-41400</v>
       </c>
       <c r="I101" s="3">
-        <v>-89600</v>
+        <v>87800</v>
       </c>
       <c r="J101" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K101" s="3">
         <v>329200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-42000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-86600</v>
+        <v>-16500</v>
       </c>
       <c r="E102" s="3">
-        <v>-67500</v>
+        <v>-50800</v>
       </c>
       <c r="F102" s="3">
-        <v>-532300</v>
+        <v>-39600</v>
       </c>
       <c r="G102" s="3">
-        <v>524400</v>
+        <v>-312600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1223400</v>
+        <v>308000</v>
       </c>
       <c r="I102" s="3">
-        <v>796700</v>
+        <v>-718400</v>
       </c>
       <c r="J102" s="3">
+        <v>467800</v>
+      </c>
+      <c r="K102" s="3">
         <v>925900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>174200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-263200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-198100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>257300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>189600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-165700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>53400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>293700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>138000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-82000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-125800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-356200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>336800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YNDX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>YNDX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>872700</v>
+        <v>1702500</v>
       </c>
       <c r="E8" s="3">
-        <v>722200</v>
+        <v>1771900</v>
       </c>
       <c r="F8" s="3">
-        <v>643900</v>
+        <v>1466400</v>
       </c>
       <c r="G8" s="3">
-        <v>578500</v>
+        <v>1307300</v>
       </c>
       <c r="H8" s="3">
-        <v>566300</v>
+        <v>1174600</v>
       </c>
       <c r="I8" s="3">
-        <v>461400</v>
+        <v>1149900</v>
       </c>
       <c r="J8" s="3">
+        <v>936900</v>
+      </c>
+      <c r="K8" s="3">
         <v>327500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>633100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>698900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>612600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>544400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>491800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>514700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>462500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>468500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>419600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>429000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>360900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>340400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>313500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>335800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>292900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>415000</v>
+        <v>819200</v>
       </c>
       <c r="E9" s="3">
-        <v>361300</v>
+        <v>842600</v>
       </c>
       <c r="F9" s="3">
-        <v>330400</v>
+        <v>733500</v>
       </c>
       <c r="G9" s="3">
-        <v>269300</v>
+        <v>670900</v>
       </c>
       <c r="H9" s="3">
-        <v>248700</v>
+        <v>546700</v>
       </c>
       <c r="I9" s="3">
-        <v>175100</v>
+        <v>505000</v>
       </c>
       <c r="J9" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K9" s="3">
         <v>125900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>218700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>238800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>190000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>165400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>152800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>157100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>128700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>130400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>106000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>104700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>93100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>88500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>81200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>85600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>74700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>457700</v>
+        <v>883300</v>
       </c>
       <c r="E10" s="3">
-        <v>361000</v>
+        <v>929300</v>
       </c>
       <c r="F10" s="3">
-        <v>313500</v>
+        <v>732900</v>
       </c>
       <c r="G10" s="3">
-        <v>309200</v>
+        <v>636400</v>
       </c>
       <c r="H10" s="3">
-        <v>317600</v>
+        <v>627800</v>
       </c>
       <c r="I10" s="3">
-        <v>286300</v>
+        <v>644900</v>
       </c>
       <c r="J10" s="3">
+        <v>581300</v>
+      </c>
+      <c r="K10" s="3">
         <v>201700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>414400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>460100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>422600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>379000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>339000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>357600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>333800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>338100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>313600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>324400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>267900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>251900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>232300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>250200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>218200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>110700</v>
+        <v>307700</v>
       </c>
       <c r="E12" s="3">
-        <v>96700</v>
+        <v>224800</v>
       </c>
       <c r="F12" s="3">
-        <v>88900</v>
+        <v>196300</v>
       </c>
       <c r="G12" s="3">
-        <v>87100</v>
+        <v>180400</v>
       </c>
       <c r="H12" s="3">
-        <v>79300</v>
+        <v>176800</v>
       </c>
       <c r="I12" s="3">
-        <v>74500</v>
+        <v>161000</v>
       </c>
       <c r="J12" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K12" s="3">
         <v>71000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>106800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>109500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>96900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>95100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>77600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>78600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>85000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>91600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>80100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>70400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>68900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>68600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>65300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>58600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,64 +1163,67 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>-152100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-308800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>10300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-446000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1211,85 +1231,91 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>56000</v>
+        <v>119900</v>
       </c>
       <c r="E15" s="3">
-        <v>48500</v>
+        <v>113700</v>
       </c>
       <c r="F15" s="3">
-        <v>44600</v>
+        <v>98500</v>
       </c>
       <c r="G15" s="3">
-        <v>41600</v>
+        <v>90600</v>
       </c>
       <c r="H15" s="3">
-        <v>38300</v>
+        <v>84400</v>
       </c>
       <c r="I15" s="3">
+        <v>77800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>32100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>53800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>51600</v>
+      </c>
+      <c r="O15" s="3">
+        <v>49400</v>
+      </c>
+      <c r="P15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>42400</v>
+      </c>
+      <c r="R15" s="3">
+        <v>44300</v>
+      </c>
+      <c r="S15" s="3">
+        <v>46200</v>
+      </c>
+      <c r="T15" s="3">
+        <v>45600</v>
+      </c>
+      <c r="U15" s="3">
+        <v>46600</v>
+      </c>
+      <c r="V15" s="3">
+        <v>45100</v>
+      </c>
+      <c r="W15" s="3">
+        <v>43500</v>
+      </c>
+      <c r="X15" s="3">
+        <v>37400</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>36600</v>
+      </c>
+      <c r="Z15" s="3">
         <v>37800</v>
       </c>
-      <c r="J15" s="3">
-        <v>32100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>54000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>53800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>51600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>49400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>43000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>42400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>44300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>46200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>45600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>46600</v>
-      </c>
-      <c r="U15" s="3">
-        <v>45100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>43500</v>
-      </c>
-      <c r="W15" s="3">
-        <v>37400</v>
-      </c>
-      <c r="X15" s="3">
-        <v>36600</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>37800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>893300</v>
+        <v>1902200</v>
       </c>
       <c r="E17" s="3">
-        <v>767200</v>
+        <v>1813700</v>
       </c>
       <c r="F17" s="3">
-        <v>681200</v>
+        <v>1557600</v>
       </c>
       <c r="G17" s="3">
-        <v>580600</v>
+        <v>1383200</v>
       </c>
       <c r="H17" s="3">
-        <v>533900</v>
+        <v>1178900</v>
       </c>
       <c r="I17" s="3">
-        <v>259800</v>
+        <v>1083900</v>
       </c>
       <c r="J17" s="3">
+        <v>527500</v>
+      </c>
+      <c r="K17" s="3">
         <v>326600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>563200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>632800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>505700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>450600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>428300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>415800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>377900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-44700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>369700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>354900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>332500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>294200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>262300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>285100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>238900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20600</v>
+        <v>-199700</v>
       </c>
       <c r="E18" s="3">
-        <v>-45000</v>
+        <v>-41800</v>
       </c>
       <c r="F18" s="3">
-        <v>-37400</v>
+        <v>-91300</v>
       </c>
       <c r="G18" s="3">
-        <v>-2100</v>
+        <v>-75900</v>
       </c>
       <c r="H18" s="3">
-        <v>32500</v>
+        <v>-4300</v>
       </c>
       <c r="I18" s="3">
-        <v>201600</v>
+        <v>66000</v>
       </c>
       <c r="J18" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>66100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>107000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>93800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>98900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>84600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>513300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>49900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>28400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>46200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>51200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,200 +1514,207 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22900</v>
+        <v>378600</v>
       </c>
       <c r="E20" s="3">
-        <v>30300</v>
+        <v>46400</v>
       </c>
       <c r="F20" s="3">
-        <v>11100</v>
+        <v>61600</v>
       </c>
       <c r="G20" s="3">
-        <v>12900</v>
+        <v>22600</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>26300</v>
       </c>
       <c r="I20" s="3">
-        <v>4500</v>
+        <v>8200</v>
       </c>
       <c r="J20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>56000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>37600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-23500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>65700</v>
+        <v>335800</v>
       </c>
       <c r="E21" s="3">
-        <v>52700</v>
+        <v>133400</v>
       </c>
       <c r="F21" s="3">
-        <v>31700</v>
+        <v>107000</v>
       </c>
       <c r="G21" s="3">
-        <v>63400</v>
+        <v>64300</v>
       </c>
       <c r="H21" s="3">
-        <v>80700</v>
+        <v>128700</v>
       </c>
       <c r="I21" s="3">
-        <v>249700</v>
+        <v>163800</v>
       </c>
       <c r="J21" s="3">
+        <v>506900</v>
+      </c>
+      <c r="K21" s="3">
         <v>31000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>187800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>162800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>136300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>105900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>148900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>144000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>597100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>133100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>75200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>121600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>65200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>74900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8900</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="3">
-        <v>7400</v>
+        <v>18000</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>15100</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>13800</v>
       </c>
       <c r="H22" s="3">
-        <v>5900</v>
+        <v>12700</v>
       </c>
       <c r="I22" s="3">
-        <v>5700</v>
+        <v>12000</v>
       </c>
       <c r="J22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3500</v>
       </c>
       <c r="T22" s="3">
         <v>3500</v>
@@ -1683,161 +1723,170 @@
         <v>3500</v>
       </c>
       <c r="V22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="W22" s="3">
         <v>3300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3500</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6600</v>
+        <v>168900</v>
       </c>
       <c r="E23" s="3">
-        <v>-22000</v>
+        <v>-13400</v>
       </c>
       <c r="F23" s="3">
-        <v>-33100</v>
+        <v>-44700</v>
       </c>
       <c r="G23" s="3">
-        <v>4500</v>
+        <v>-67100</v>
       </c>
       <c r="H23" s="3">
-        <v>30600</v>
+        <v>9200</v>
       </c>
       <c r="I23" s="3">
-        <v>200400</v>
+        <v>62100</v>
       </c>
       <c r="J23" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>122800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>110800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>86700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>62900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>96000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>547000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>74800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>40400</v>
       </c>
       <c r="E24" s="3">
-        <v>8900</v>
+        <v>32600</v>
       </c>
       <c r="F24" s="3">
-        <v>3800</v>
+        <v>18000</v>
       </c>
       <c r="G24" s="3">
-        <v>30000</v>
+        <v>7800</v>
       </c>
       <c r="H24" s="3">
-        <v>31400</v>
+        <v>60900</v>
       </c>
       <c r="I24" s="3">
-        <v>28300</v>
+        <v>63700</v>
       </c>
       <c r="J24" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>29200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-22600</v>
+        <v>128500</v>
       </c>
       <c r="E26" s="3">
-        <v>-30900</v>
+        <v>-45900</v>
       </c>
       <c r="F26" s="3">
-        <v>-36900</v>
+        <v>-62800</v>
       </c>
       <c r="G26" s="3">
-        <v>-25500</v>
+        <v>-74900</v>
       </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-51700</v>
       </c>
       <c r="I26" s="3">
-        <v>172100</v>
+        <v>-1500</v>
       </c>
       <c r="J26" s="3">
+        <v>349500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-29600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>73100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>514400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>29200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35000</v>
+        <v>-231600</v>
       </c>
       <c r="E27" s="3">
-        <v>-26800</v>
+        <v>-71100</v>
       </c>
       <c r="F27" s="3">
-        <v>-30700</v>
+        <v>-54400</v>
       </c>
       <c r="G27" s="3">
-        <v>-23500</v>
+        <v>-62300</v>
       </c>
       <c r="H27" s="3">
-        <v>2500</v>
+        <v>-47800</v>
       </c>
       <c r="I27" s="3">
-        <v>174000</v>
+        <v>5100</v>
       </c>
       <c r="J27" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>78000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>69000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>73500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>525600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>54100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22900</v>
+        <v>-378600</v>
       </c>
       <c r="E32" s="3">
-        <v>-30300</v>
+        <v>-46400</v>
       </c>
       <c r="F32" s="3">
-        <v>-11100</v>
+        <v>-61600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12900</v>
+        <v>-22600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-26300</v>
       </c>
       <c r="I32" s="3">
-        <v>-4500</v>
+        <v>-8200</v>
       </c>
       <c r="J32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K32" s="3">
         <v>9600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-56000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-37600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>23500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35000</v>
+        <v>-231600</v>
       </c>
       <c r="E33" s="3">
-        <v>-26800</v>
+        <v>-71100</v>
       </c>
       <c r="F33" s="3">
-        <v>-30700</v>
+        <v>-54400</v>
       </c>
       <c r="G33" s="3">
-        <v>-23500</v>
+        <v>-62300</v>
       </c>
       <c r="H33" s="3">
-        <v>2500</v>
+        <v>-47800</v>
       </c>
       <c r="I33" s="3">
-        <v>174000</v>
+        <v>5100</v>
       </c>
       <c r="J33" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>78000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>69000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>73500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>525600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>54100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35000</v>
+        <v>-231600</v>
       </c>
       <c r="E35" s="3">
-        <v>-26800</v>
+        <v>-71100</v>
       </c>
       <c r="F35" s="3">
-        <v>-30700</v>
+        <v>-54400</v>
       </c>
       <c r="G35" s="3">
-        <v>-23500</v>
+        <v>-62300</v>
       </c>
       <c r="H35" s="3">
-        <v>2500</v>
+        <v>-47800</v>
       </c>
       <c r="I35" s="3">
-        <v>174000</v>
+        <v>5100</v>
       </c>
       <c r="J35" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>78000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>69000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>73500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>525600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>54100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,241 +2833,251 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>627100</v>
+        <v>1381900</v>
       </c>
       <c r="E41" s="3">
-        <v>644100</v>
+        <v>1273200</v>
       </c>
       <c r="F41" s="3">
-        <v>695000</v>
+        <v>1307700</v>
       </c>
       <c r="G41" s="3">
-        <v>734700</v>
+        <v>1411100</v>
       </c>
       <c r="H41" s="3">
-        <v>1047300</v>
+        <v>1491600</v>
       </c>
       <c r="I41" s="3">
-        <v>739300</v>
+        <v>2126300</v>
       </c>
       <c r="J41" s="3">
+        <v>1501000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1457700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1685700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>762700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>592400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>444600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>710000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>911600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>701300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>567300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>733300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>657000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>363300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>224900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>303300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>86700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>784700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>220800</v>
+        <v>34600</v>
       </c>
       <c r="E42" s="3">
-        <v>455900</v>
+        <v>448300</v>
       </c>
       <c r="F42" s="3">
-        <v>995200</v>
+        <v>925700</v>
       </c>
       <c r="G42" s="3">
-        <v>1093000</v>
+        <v>2020700</v>
       </c>
       <c r="H42" s="3">
-        <v>836800</v>
+        <v>2219200</v>
       </c>
       <c r="I42" s="3">
-        <v>1253200</v>
+        <v>1698900</v>
       </c>
       <c r="J42" s="3">
+        <v>2544400</v>
+      </c>
+      <c r="K42" s="3">
         <v>455500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>970500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>431200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>611200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>600600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>261300</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>625900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>949300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>705300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>354800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>585400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>715100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>587700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>870200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>220900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500300</v>
+        <v>910100</v>
       </c>
       <c r="E43" s="3">
-        <v>372600</v>
+        <v>1015700</v>
       </c>
       <c r="F43" s="3">
-        <v>239000</v>
+        <v>756500</v>
       </c>
       <c r="G43" s="3">
-        <v>237000</v>
+        <v>485200</v>
       </c>
       <c r="H43" s="3">
-        <v>219300</v>
+        <v>481200</v>
       </c>
       <c r="I43" s="3">
-        <v>166500</v>
+        <v>567000</v>
       </c>
       <c r="J43" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K43" s="3">
         <v>136800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>237500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>257700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>234100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>251000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>228700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>222400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>172100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>162700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>150100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>129600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>119900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>114700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>117500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75800</v>
+        <v>216700</v>
       </c>
       <c r="E44" s="3">
-        <v>55700</v>
+        <v>154000</v>
       </c>
       <c r="F44" s="3">
-        <v>53500</v>
+        <v>113000</v>
       </c>
       <c r="G44" s="3">
-        <v>50700</v>
+        <v>108600</v>
       </c>
       <c r="H44" s="3">
-        <v>38000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
+        <v>102900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>77200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>10</v>
@@ -2998,8 +3094,8 @@
       <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3031,363 +3127,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157800</v>
+        <v>344200</v>
       </c>
       <c r="E45" s="3">
-        <v>157100</v>
+        <v>320400</v>
       </c>
       <c r="F45" s="3">
-        <v>257000</v>
+        <v>318900</v>
       </c>
       <c r="G45" s="3">
-        <v>191700</v>
+        <v>521800</v>
       </c>
       <c r="H45" s="3">
-        <v>155600</v>
+        <v>389200</v>
       </c>
       <c r="I45" s="3">
-        <v>154400</v>
+        <v>194400</v>
       </c>
       <c r="J45" s="3">
+        <v>313500</v>
+      </c>
+      <c r="K45" s="3">
         <v>129600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>178900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>174700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>162700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>116200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>117700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>83400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>119400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>105000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>81600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>81700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>70700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>70200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1581800</v>
+        <v>2887500</v>
       </c>
       <c r="E46" s="3">
-        <v>1685400</v>
+        <v>3211600</v>
       </c>
       <c r="F46" s="3">
-        <v>2239800</v>
+        <v>3421900</v>
       </c>
       <c r="G46" s="3">
-        <v>2307100</v>
+        <v>4547500</v>
       </c>
       <c r="H46" s="3">
-        <v>2297100</v>
+        <v>4684100</v>
       </c>
       <c r="I46" s="3">
-        <v>2313400</v>
+        <v>4663800</v>
       </c>
       <c r="J46" s="3">
+        <v>4696900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2179700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3072600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1626200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1412300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1317600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1217400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1618800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1791700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1682900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1243600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1149000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1130100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1077900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1138000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1164300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80800</v>
+        <v>184100</v>
       </c>
       <c r="E47" s="3">
-        <v>31000</v>
+        <v>164100</v>
       </c>
       <c r="F47" s="3">
-        <v>9900</v>
+        <v>63000</v>
       </c>
       <c r="G47" s="3">
-        <v>80200</v>
+        <v>20000</v>
       </c>
       <c r="H47" s="3">
-        <v>9000</v>
+        <v>162800</v>
       </c>
       <c r="I47" s="3">
-        <v>8600</v>
+        <v>18200</v>
       </c>
       <c r="J47" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K47" s="3">
         <v>206400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>366000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>379500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>401500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>400700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>471800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>483400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>524100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>598000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>168100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>105600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>105900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>64400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>23000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1064400</v>
+        <v>2337300</v>
       </c>
       <c r="E48" s="3">
-        <v>995800</v>
+        <v>2161200</v>
       </c>
       <c r="F48" s="3">
-        <v>850900</v>
+        <v>2021700</v>
       </c>
       <c r="G48" s="3">
-        <v>728400</v>
+        <v>1727700</v>
       </c>
       <c r="H48" s="3">
-        <v>653100</v>
+        <v>1478800</v>
       </c>
       <c r="I48" s="3">
-        <v>632300</v>
+        <v>1326100</v>
       </c>
       <c r="J48" s="3">
+        <v>1283700</v>
+      </c>
+      <c r="K48" s="3">
         <v>548400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>827200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>933900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>864500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>785300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>787100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>751100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>416600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>422500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>381800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>326000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>345700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>344300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>307800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>285600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>286100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1218100</v>
+        <v>2524200</v>
       </c>
       <c r="E49" s="3">
-        <v>1213000</v>
+        <v>2473100</v>
       </c>
       <c r="F49" s="3">
-        <v>1181900</v>
+        <v>2462800</v>
       </c>
       <c r="G49" s="3">
-        <v>1178100</v>
+        <v>2399700</v>
       </c>
       <c r="H49" s="3">
-        <v>1056600</v>
+        <v>2392000</v>
       </c>
       <c r="I49" s="3">
-        <v>1061700</v>
+        <v>2145300</v>
       </c>
       <c r="J49" s="3">
+        <v>2155600</v>
+      </c>
+      <c r="K49" s="3">
         <v>525200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>888500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>890500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>889900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>861500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>861700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>850700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>906800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1004400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1005100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>221000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>213300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>219300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>204600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>211800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>219200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132500</v>
+        <v>276200</v>
       </c>
       <c r="E52" s="3">
-        <v>129500</v>
+        <v>268900</v>
       </c>
       <c r="F52" s="3">
-        <v>126900</v>
+        <v>262900</v>
       </c>
       <c r="G52" s="3">
-        <v>83900</v>
+        <v>257700</v>
       </c>
       <c r="H52" s="3">
-        <v>62700</v>
+        <v>170300</v>
       </c>
       <c r="I52" s="3">
+        <v>127200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>59200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>111800</v>
+      </c>
+      <c r="M52" s="3">
+        <v>105900</v>
+      </c>
+      <c r="N52" s="3">
+        <v>102100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>97500</v>
+      </c>
+      <c r="P52" s="3">
+        <v>104300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>121000</v>
+      </c>
+      <c r="R52" s="3">
+        <v>123300</v>
+      </c>
+      <c r="S52" s="3">
+        <v>131000</v>
+      </c>
+      <c r="T52" s="3">
+        <v>123900</v>
+      </c>
+      <c r="U52" s="3">
+        <v>111800</v>
+      </c>
+      <c r="V52" s="3">
+        <v>105400</v>
+      </c>
+      <c r="W52" s="3">
+        <v>89700</v>
+      </c>
+      <c r="X52" s="3">
+        <v>78300</v>
+      </c>
+      <c r="Y52" s="3">
         <v>73700</v>
       </c>
-      <c r="J52" s="3">
-        <v>59200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>111800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>105900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>102100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>97500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>104300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>121000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>123300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>131000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>123900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>111800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>105400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>89700</v>
-      </c>
-      <c r="W52" s="3">
-        <v>78300</v>
-      </c>
-      <c r="X52" s="3">
-        <v>73700</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4077600</v>
+        <v>8209400</v>
       </c>
       <c r="E54" s="3">
-        <v>4054600</v>
+        <v>8278900</v>
       </c>
       <c r="F54" s="3">
-        <v>4409400</v>
+        <v>8232200</v>
       </c>
       <c r="G54" s="3">
-        <v>4377600</v>
+        <v>8952700</v>
       </c>
       <c r="H54" s="3">
-        <v>4078500</v>
+        <v>8888000</v>
       </c>
       <c r="I54" s="3">
-        <v>4089700</v>
+        <v>8280700</v>
       </c>
       <c r="J54" s="3">
+        <v>8303500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3518900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5266100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3936000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3858400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3557300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3542500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3423600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3589600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3947700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3361800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2010400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1919100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1889200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1733000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1732200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1752400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,102 +3925,106 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>668400</v>
+        <v>1377000</v>
       </c>
       <c r="E57" s="3">
-        <v>689500</v>
+        <v>1357000</v>
       </c>
       <c r="F57" s="3">
-        <v>520900</v>
+        <v>1400000</v>
       </c>
       <c r="G57" s="3">
-        <v>512000</v>
+        <v>1057600</v>
       </c>
       <c r="H57" s="3">
-        <v>345100</v>
+        <v>1039500</v>
       </c>
       <c r="I57" s="3">
-        <v>350900</v>
+        <v>700800</v>
       </c>
       <c r="J57" s="3">
+        <v>712500</v>
+      </c>
+      <c r="K57" s="3">
         <v>257600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>480400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>472900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>433700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>342800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>396800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>298800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>234700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>212800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>265900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>171100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>175600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>166900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>154000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>119200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>120200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1677600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3911,19 +4045,19 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>296800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>312800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>282700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>274600</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>10</v>
@@ -3937,180 +4071,189 @@
       <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>210500</v>
+        <v>400400</v>
       </c>
       <c r="E59" s="3">
-        <v>163500</v>
+        <v>427400</v>
       </c>
       <c r="F59" s="3">
-        <v>158300</v>
+        <v>332000</v>
       </c>
       <c r="G59" s="3">
-        <v>151400</v>
+        <v>321500</v>
       </c>
       <c r="H59" s="3">
-        <v>143100</v>
+        <v>307400</v>
       </c>
       <c r="I59" s="3">
-        <v>110600</v>
+        <v>308600</v>
       </c>
       <c r="J59" s="3">
+        <v>224500</v>
+      </c>
+      <c r="K59" s="3">
         <v>68900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>162100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>144100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>122900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>109600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>90800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>84600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>103000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>83600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>102800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>91200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>69500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>102800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>73500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>878800</v>
+        <v>3455000</v>
       </c>
       <c r="E60" s="3">
-        <v>853000</v>
+        <v>1784400</v>
       </c>
       <c r="F60" s="3">
-        <v>679200</v>
+        <v>1732000</v>
       </c>
       <c r="G60" s="3">
-        <v>663400</v>
+        <v>1379100</v>
       </c>
       <c r="H60" s="3">
-        <v>488200</v>
+        <v>1346900</v>
       </c>
       <c r="I60" s="3">
-        <v>461500</v>
+        <v>1009400</v>
       </c>
       <c r="J60" s="3">
+        <v>937000</v>
+      </c>
+      <c r="K60" s="3">
         <v>326400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>642500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>629200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>577800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>465700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>506400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>389600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>616200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>628500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>632100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>548600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>257100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>258200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>223400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>222000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800400</v>
+        <v>259300</v>
       </c>
       <c r="E61" s="3">
-        <v>769200</v>
+        <v>1625000</v>
       </c>
       <c r="F61" s="3">
-        <v>653300</v>
+        <v>1561800</v>
       </c>
       <c r="G61" s="3">
-        <v>679200</v>
+        <v>1326400</v>
       </c>
       <c r="H61" s="3">
-        <v>658700</v>
+        <v>1379000</v>
       </c>
       <c r="I61" s="3">
-        <v>706200</v>
+        <v>1391800</v>
       </c>
       <c r="J61" s="3">
+        <v>1433800</v>
+      </c>
+      <c r="K61" s="3">
         <v>616100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1158800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4136,93 +4279,99 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>274000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>276400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>260700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>284600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>346100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>239500</v>
+        <v>477900</v>
       </c>
       <c r="E62" s="3">
-        <v>264000</v>
+        <v>486300</v>
       </c>
       <c r="F62" s="3">
-        <v>308100</v>
+        <v>536100</v>
       </c>
       <c r="G62" s="3">
-        <v>252500</v>
+        <v>625600</v>
       </c>
       <c r="H62" s="3">
-        <v>168900</v>
+        <v>512700</v>
       </c>
       <c r="I62" s="3">
-        <v>168600</v>
+        <v>289000</v>
       </c>
       <c r="J62" s="3">
+        <v>342300</v>
+      </c>
+      <c r="K62" s="3">
         <v>99500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>158800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>204800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>154000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>171500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>174900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>190100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>37100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>36200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>32500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2035400</v>
+        <v>4445100</v>
       </c>
       <c r="E66" s="3">
-        <v>2012100</v>
+        <v>4132600</v>
       </c>
       <c r="F66" s="3">
-        <v>1806900</v>
+        <v>4085300</v>
       </c>
       <c r="G66" s="3">
-        <v>1768000</v>
+        <v>3668700</v>
       </c>
       <c r="H66" s="3">
-        <v>1499800</v>
+        <v>3589700</v>
       </c>
       <c r="I66" s="3">
-        <v>1548700</v>
+        <v>3063800</v>
       </c>
       <c r="J66" s="3">
+        <v>3144500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1323700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2444700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1206500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1094900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1140300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1053600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1059000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1113800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1125700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>734900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>651500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>647300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>542600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>562000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>588400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1040100</v>
+        <v>1918900</v>
       </c>
       <c r="E72" s="3">
-        <v>1075100</v>
+        <v>2111700</v>
       </c>
       <c r="F72" s="3">
-        <v>1102100</v>
+        <v>2182900</v>
       </c>
       <c r="G72" s="3">
-        <v>1134200</v>
+        <v>2237600</v>
       </c>
       <c r="H72" s="3">
-        <v>1162700</v>
+        <v>2302900</v>
       </c>
       <c r="I72" s="3">
-        <v>1137700</v>
+        <v>2341400</v>
       </c>
       <c r="J72" s="3">
+        <v>2309900</v>
+      </c>
+      <c r="K72" s="3">
         <v>976800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1720100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1652000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1665400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1550600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1515700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1476900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1590100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1698500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1171100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1047800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1061800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1055400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1033900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1027600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1016700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2042200</v>
+        <v>3764300</v>
       </c>
       <c r="E76" s="3">
-        <v>2042500</v>
+        <v>4146300</v>
       </c>
       <c r="F76" s="3">
-        <v>2602500</v>
+        <v>4146900</v>
       </c>
       <c r="G76" s="3">
-        <v>2609600</v>
+        <v>5284000</v>
       </c>
       <c r="H76" s="3">
-        <v>2578600</v>
+        <v>5298300</v>
       </c>
       <c r="I76" s="3">
-        <v>2541000</v>
+        <v>5216900</v>
       </c>
       <c r="J76" s="3">
+        <v>5159100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2195200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2821400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2635400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2651900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2462400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2402200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2370000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2530600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2833900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2236100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1275500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1267600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1241900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1190400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1170200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1164000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35000</v>
+        <v>-231600</v>
       </c>
       <c r="E81" s="3">
-        <v>-26800</v>
+        <v>-71100</v>
       </c>
       <c r="F81" s="3">
-        <v>-30700</v>
+        <v>-54400</v>
       </c>
       <c r="G81" s="3">
-        <v>-23500</v>
+        <v>-62300</v>
       </c>
       <c r="H81" s="3">
-        <v>2500</v>
+        <v>-47800</v>
       </c>
       <c r="I81" s="3">
-        <v>174000</v>
+        <v>5100</v>
       </c>
       <c r="J81" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>78000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>69000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>73500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>525600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>54100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50500</v>
+        <v>130000</v>
       </c>
       <c r="E83" s="3">
-        <v>56000</v>
+        <v>102500</v>
       </c>
       <c r="F83" s="3">
-        <v>46100</v>
+        <v>113700</v>
       </c>
       <c r="G83" s="3">
-        <v>41600</v>
+        <v>93600</v>
       </c>
       <c r="H83" s="3">
-        <v>38300</v>
+        <v>84400</v>
       </c>
       <c r="I83" s="3">
+        <v>77800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>33300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>53800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>51600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>49400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="S83" s="3">
+        <v>46200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>45600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>46600</v>
+      </c>
+      <c r="V83" s="3">
+        <v>45100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>43500</v>
+      </c>
+      <c r="X83" s="3">
+        <v>37400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>36600</v>
       </c>
-      <c r="J83" s="3">
-        <v>33300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>54000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>53800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>51600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>49400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>43000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>42400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>44300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>46200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>45600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>46600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>45100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>43500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>37400</v>
-      </c>
-      <c r="X83" s="3">
-        <v>36600</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26900</v>
+        <v>-65000</v>
       </c>
       <c r="E89" s="3">
-        <v>17400</v>
+        <v>54700</v>
       </c>
       <c r="F89" s="3">
-        <v>-38500</v>
+        <v>35400</v>
       </c>
       <c r="G89" s="3">
-        <v>67700</v>
+        <v>-78300</v>
       </c>
       <c r="H89" s="3">
-        <v>48600</v>
+        <v>137500</v>
       </c>
       <c r="I89" s="3">
-        <v>149500</v>
+        <v>98600</v>
       </c>
       <c r="J89" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>103600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>116600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>199800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>138900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>114000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>107900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>107700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>81900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>116900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>110400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>87200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>80900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>94000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-149300</v>
+        <v>-288800</v>
       </c>
       <c r="E91" s="3">
-        <v>-67200</v>
+        <v>-303200</v>
       </c>
       <c r="F91" s="3">
-        <v>-108200</v>
+        <v>-136500</v>
       </c>
       <c r="G91" s="3">
-        <v>-28200</v>
+        <v>-219800</v>
       </c>
       <c r="H91" s="3">
-        <v>-56800</v>
+        <v>-57200</v>
       </c>
       <c r="I91" s="3">
-        <v>-37100</v>
+        <v>-115200</v>
       </c>
       <c r="J91" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-81300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-74800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-72200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-101600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-183600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-142200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-59500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-58700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-88700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>73200</v>
+        <v>146400</v>
       </c>
       <c r="E94" s="3">
-        <v>484500</v>
+        <v>148700</v>
       </c>
       <c r="F94" s="3">
-        <v>7000</v>
+        <v>983600</v>
       </c>
       <c r="G94" s="3">
-        <v>-390700</v>
+        <v>14100</v>
       </c>
       <c r="H94" s="3">
-        <v>292300</v>
+        <v>-793200</v>
       </c>
       <c r="I94" s="3">
-        <v>-915600</v>
+        <v>593400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1859000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-496500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>109400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-393000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-294400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>404000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>223000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-294200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>180200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>88200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-195900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-189700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-379000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>257300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-127400</v>
+        <v>-56700</v>
       </c>
       <c r="E100" s="3">
-        <v>-539100</v>
+        <v>-258700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3000</v>
+        <v>-1094500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1700</v>
+        <v>-6000</v>
       </c>
       <c r="H100" s="3">
-        <v>8500</v>
+        <v>-3400</v>
       </c>
       <c r="I100" s="3">
-        <v>-40100</v>
+        <v>17300</v>
       </c>
       <c r="J100" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="K100" s="3">
         <v>555400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>989500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-287100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-146500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-48400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10800</v>
+        <v>86400</v>
       </c>
       <c r="E101" s="3">
-        <v>-13700</v>
+        <v>21800</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-27700</v>
       </c>
       <c r="G101" s="3">
-        <v>12000</v>
+        <v>-10300</v>
       </c>
       <c r="H101" s="3">
-        <v>-41400</v>
+        <v>24400</v>
       </c>
       <c r="I101" s="3">
-        <v>87800</v>
+        <v>-84000</v>
       </c>
       <c r="J101" s="3">
+        <v>178200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-52600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>329200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-42000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16500</v>
+        <v>111000</v>
       </c>
       <c r="E102" s="3">
-        <v>-50800</v>
+        <v>-33500</v>
       </c>
       <c r="F102" s="3">
-        <v>-39600</v>
+        <v>-103200</v>
       </c>
       <c r="G102" s="3">
-        <v>-312600</v>
+        <v>-80500</v>
       </c>
       <c r="H102" s="3">
-        <v>308000</v>
+        <v>-634700</v>
       </c>
       <c r="I102" s="3">
-        <v>-718400</v>
+        <v>625300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1458600</v>
+      </c>
+      <c r="K102" s="3">
         <v>467800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>925900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>174200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>132300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-263200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-198100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>257300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>189600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-165700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>53400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>293700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>138000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-82000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-125800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-356200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>336800</v>
       </c>
     </row>
